--- a/gips_outputs/Verification_Calculations_Composite.xlsx
+++ b/gips_outputs/Verification_Calculations_Composite.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-21 13:27:01</t>
+          <t>2026-01-21 20:06:35</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-21 13:27:01</t>
+          <t>2026-01-21 20:06:35</t>
         </is>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B11" s="13" t="n">
-        <v>0.2872874968302686</v>
+        <v>0.2872876968326901</v>
       </c>
       <c r="C11" s="14" t="n">
         <v>0.2765609708573995</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="B12" s="13" t="n">
-        <v>-0.1817536516919188</v>
+        <v>-0.1817537751989279</v>
       </c>
       <c r="C12" s="14" t="n">
         <v>-0.0713999833188339</v>
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="B13" s="13" t="n">
-        <v>0.2617579484884023</v>
+        <v>0.2617581362475025</v>
       </c>
       <c r="C13" s="14" t="n">
         <v>0.1397451768677851</v>
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="B14" s="13" t="n">
-        <v>0.2488644645312976</v>
+        <v>0.2488645139506516</v>
       </c>
       <c r="C14" s="14" t="n">
         <v>0.325641519707272</v>

--- a/gips_outputs/Verification_Calculations_Composite.xlsx
+++ b/gips_outputs/Verification_Calculations_Composite.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-21 20:06:35</t>
+          <t>2026-01-21 20:21:16</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-21 20:06:35</t>
+          <t>2026-01-21 20:21:16</t>
         </is>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B11" s="13" t="n">
-        <v>0.2872876968326901</v>
+        <v>0.2872874093894</v>
       </c>
       <c r="C11" s="14" t="n">
         <v>0.2765609708573995</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="B12" s="13" t="n">
-        <v>-0.1817537751989279</v>
+        <v>-0.1817535281848931</v>
       </c>
       <c r="C12" s="14" t="n">
         <v>-0.0713999833188339</v>
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="B13" s="13" t="n">
-        <v>0.2617581362475025</v>
+        <v>0.261757843743994</v>
       </c>
       <c r="C13" s="14" t="n">
         <v>0.1397451768677851</v>
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="B14" s="13" t="n">
-        <v>0.2488645139506516</v>
+        <v>0.2488645961170239</v>
       </c>
       <c r="C14" s="14" t="n">
         <v>0.325641519707272</v>

--- a/gips_outputs/Verification_Calculations_Composite.xlsx
+++ b/gips_outputs/Verification_Calculations_Composite.xlsx
@@ -640,7 +640,7 @@
     <row r="4">
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Generated: 2026-01-21 20:42:19 | Portfolio: Composite | Periods: 61 months</t>
+          <t>Generated: 2026-01-21 20:59:14 | Portfolio: Composite | Periods: 61 months</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2026-01-21 20:42:19</t>
+          <t>2026-01-21 20:59:14</t>
         </is>
       </c>
     </row>
@@ -10558,14 +10558,14 @@
     <row r="10">
       <c r="B10" s="30" t="inlineStr">
         <is>
-          <t>Var(Benchmark) = 0.0041268574</t>
+          <t>Var(Benchmark) = 0.0041268572</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="26" t="inlineStr">
         <is>
-          <t>Beta = 0.0001123054 / 0.0041268574 = 0.027213</t>
+          <t>Beta = 0.0001123054 / 0.0041268572 = 0.027213</t>
         </is>
       </c>
     </row>

--- a/gips_outputs/Verification_Calculations_Composite.xlsx
+++ b/gips_outputs/Verification_Calculations_Composite.xlsx
@@ -212,9 +212,9 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -640,7 +640,7 @@
     <row r="4">
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Generated: 2026-01-21 20:59:14 | Portfolio: Composite | Periods: 61 months</t>
+          <t>Generated: 2026-01-21 21:31:16 | Portfolio: Composite | Periods: 60 months</t>
         </is>
       </c>
     </row>
@@ -692,12 +692,12 @@
       </c>
       <c r="E7" s="8" t="inlineStr">
         <is>
-          <t>(1.0000 × ... × 0.9812) - 1 = 2.081793 - 1</t>
+          <t>(1.0025 × ... × 0.9812) - 1 = 2.081687 - 1</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
         <is>
-          <t>108.18%</t>
+          <t>108.17%</t>
         </is>
       </c>
       <c r="G7" s="10" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="E8" s="14" t="inlineStr">
         <is>
-          <t>(1 + 1.081793)^(12/61) - 1</t>
+          <t>(1 + 1.081687)^(12/60) - 1</t>
         </is>
       </c>
       <c r="F8" s="15" t="inlineStr">
         <is>
-          <t>15.52%</t>
+          <t>15.79%</t>
         </is>
       </c>
       <c r="G8" s="10" t="inlineStr">
@@ -752,12 +752,12 @@
       </c>
       <c r="E9" s="8" t="inlineStr">
         <is>
-          <t>√(0.146621/60) × 3.4641 = 0.049434 × 3.4641</t>
+          <t>√(0.146458/59) × 3.4641 = 0.049823 × 3.4641</t>
         </is>
       </c>
       <c r="F9" s="9" t="inlineStr">
         <is>
-          <t>17.12%</t>
+          <t>17.26%</t>
         </is>
       </c>
       <c r="G9" s="10" t="inlineStr">
@@ -782,12 +782,12 @@
       </c>
       <c r="E10" s="14" t="inlineStr">
         <is>
-          <t>(15.52% - 3.57%) / 17.12%</t>
+          <t>(15.79% - 3.57%) / 17.26%</t>
         </is>
       </c>
       <c r="F10" s="15" t="inlineStr">
         <is>
-          <t>0.6976</t>
+          <t>0.7082</t>
         </is>
       </c>
       <c r="G10" s="10" t="inlineStr">
@@ -812,12 +812,12 @@
       </c>
       <c r="E11" s="8" t="inlineStr">
         <is>
-          <t>(15.52% - 3.57%) / 17.31%</t>
+          <t>(15.79% - 3.57%) / 17.68%</t>
         </is>
       </c>
       <c r="F11" s="9" t="inlineStr">
         <is>
-          <t>0.6901</t>
+          <t>0.6913</t>
         </is>
       </c>
       <c r="G11" s="10" t="inlineStr">
@@ -842,12 +842,12 @@
       </c>
       <c r="E12" s="14" t="inlineStr">
         <is>
-          <t>15.52% / 21.58%</t>
+          <t>15.79% / 21.57%</t>
         </is>
       </c>
       <c r="F12" s="15" t="inlineStr">
         <is>
-          <t>0.7189</t>
+          <t>0.7320</t>
         </is>
       </c>
       <c r="G12" s="10" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="E13" s="8" t="inlineStr">
         <is>
-          <t>(1.5455 - 1.2120) / 1.5455</t>
+          <t>(1.5455 - 1.2121) / 1.5455</t>
         </is>
       </c>
       <c r="F13" s="9" t="inlineStr">
         <is>
-          <t>21.58%</t>
+          <t>21.57%</t>
         </is>
       </c>
       <c r="G13" s="10" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="E16" s="14" t="inlineStr">
         <is>
-          <t>0.00011231 / 0.00412686</t>
+          <t>0.00016908 / 0.00288847</t>
         </is>
       </c>
       <c r="F16" s="15" t="inlineStr">
         <is>
-          <t>0.0272</t>
+          <t>0.0585</t>
         </is>
       </c>
       <c r="G16" s="10" t="inlineStr">
@@ -992,12 +992,12 @@
       </c>
       <c r="E17" s="8" t="inlineStr">
         <is>
-          <t>15.52% - [3.57% + 0.03×(12.57% - 3.57%)]</t>
+          <t>15.79% - [3.57% + 0.06×(7.24% - 3.57%)]</t>
         </is>
       </c>
       <c r="F17" s="9" t="inlineStr">
         <is>
-          <t>11.70%</t>
+          <t>12.01%</t>
         </is>
       </c>
       <c r="G17" s="10" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="E18" s="14" t="inlineStr">
         <is>
-          <t>√(0.00249703) × √12</t>
+          <t>√(0.00260535) × √12</t>
         </is>
       </c>
       <c r="F18" s="15" t="inlineStr">
         <is>
-          <t>17.31%</t>
+          <t>17.68%</t>
         </is>
       </c>
       <c r="G18" s="10" t="inlineStr">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="E19" s="8" t="inlineStr">
         <is>
-          <t>(15.52% - 12.57%) / 27.37%</t>
+          <t>(15.79% - 7.24%) / 24.37%</t>
         </is>
       </c>
       <c r="F19" s="9" t="inlineStr">
         <is>
-          <t>0.1076</t>
+          <t>0.3510</t>
         </is>
       </c>
       <c r="G19" s="10" t="inlineStr">
@@ -1082,12 +1082,12 @@
       </c>
       <c r="E20" s="14" t="inlineStr">
         <is>
-          <t>(15.52% - 3.57%) / 0.0272</t>
+          <t>(15.79% - 3.57%) / 0.0585</t>
         </is>
       </c>
       <c r="F20" s="15" t="inlineStr">
         <is>
-          <t>4.3899</t>
+          <t>2.0882</t>
         </is>
       </c>
       <c r="G20" s="10" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="F21" s="9" t="inlineStr">
         <is>
-          <t>1.6679</t>
+          <t>1.6730</t>
         </is>
       </c>
       <c r="G21" s="10" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2026-01-21 20:59:14</t>
+          <t>2026-01-21 21:31:16</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>61 months</t>
+          <t>60 months</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:G68"/>
+  <dimension ref="B2:G67"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1426,7 +1426,7 @@
     <row r="3">
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Source: Client CSV | 61 months | Month 1 to Month 61</t>
+          <t>Source: Client CSV | 60 months | Month 1 to Month 60</t>
         </is>
       </c>
     </row>
@@ -1473,22 +1473,22 @@
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.002473</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.25%</t>
         </is>
       </c>
       <c r="F6" s="14" t="inlineStr">
         <is>
-          <t>1.000000</t>
+          <t>1.002473</t>
         </is>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$100.25</t>
         </is>
       </c>
     </row>
@@ -1503,22 +1503,22 @@
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>0.002500</t>
+          <t>-0.077172</t>
         </is>
       </c>
       <c r="E7" s="18" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>-7.72%</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
         <is>
-          <t>1.002500</t>
+          <t>0.922828</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
-          <t>$100.25</t>
+          <t>$92.51</t>
         </is>
       </c>
     </row>
@@ -1533,22 +1533,22 @@
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>-0.077200</t>
+          <t>-0.114550</t>
         </is>
       </c>
       <c r="E8" s="19" t="inlineStr">
         <is>
-          <t>-7.72%</t>
+          <t>-11.45%</t>
         </is>
       </c>
       <c r="F8" s="14" t="inlineStr">
         <is>
-          <t>0.922800</t>
+          <t>0.885450</t>
         </is>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
-          <t>$92.51</t>
+          <t>$81.91</t>
         </is>
       </c>
     </row>
@@ -1563,22 +1563,22 @@
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>-0.114500</t>
+          <t>0.126506</t>
         </is>
       </c>
       <c r="E9" s="20" t="inlineStr">
         <is>
-          <t>-11.45%</t>
+          <t>12.65%</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
         <is>
-          <t>0.885500</t>
+          <t>1.126506</t>
         </is>
       </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t>$81.92</t>
+          <t>$92.28</t>
         </is>
       </c>
     </row>
@@ -1593,22 +1593,22 @@
       </c>
       <c r="D10" s="14" t="inlineStr">
         <is>
-          <t>0.126500</t>
+          <t>0.045567</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>12.65%</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="F10" s="14" t="inlineStr">
         <is>
-          <t>1.126500</t>
+          <t>1.045567</t>
         </is>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
-          <t>$92.28</t>
+          <t>$96.48</t>
         </is>
       </c>
     </row>
@@ -1623,22 +1623,22 @@
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>0.045600</t>
-        </is>
-      </c>
-      <c r="E11" s="18" t="inlineStr">
-        <is>
-          <t>4.56%</t>
+          <t>0.020012</t>
+        </is>
+      </c>
+      <c r="E11" s="20" t="inlineStr">
+        <is>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="F11" s="8" t="inlineStr">
         <is>
-          <t>1.045600</t>
+          <t>1.020012</t>
         </is>
       </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
-          <t>$96.49</t>
+          <t>$98.41</t>
         </is>
       </c>
     </row>
@@ -1653,22 +1653,22 @@
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>0.020000</t>
+          <t>0.058503</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>2.00%</t>
+          <t>5.85%</t>
         </is>
       </c>
       <c r="F12" s="14" t="inlineStr">
         <is>
-          <t>1.020000</t>
+          <t>1.058503</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>$98.42</t>
+          <t>$104.17</t>
         </is>
       </c>
     </row>
@@ -1683,22 +1683,22 @@
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>0.058500</t>
-        </is>
-      </c>
-      <c r="E13" s="18" t="inlineStr">
-        <is>
-          <t>5.85%</t>
+          <t>0.071130</t>
+        </is>
+      </c>
+      <c r="E13" s="20" t="inlineStr">
+        <is>
+          <t>7.11%</t>
         </is>
       </c>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>1.058500</t>
+          <t>1.071130</t>
         </is>
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>$104.18</t>
+          <t>$111.58</t>
         </is>
       </c>
     </row>
@@ -1713,22 +1713,22 @@
       </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
-          <t>0.071100</t>
-        </is>
-      </c>
-      <c r="E14" s="17" t="inlineStr">
-        <is>
-          <t>7.11%</t>
+          <t>-0.035179</t>
+        </is>
+      </c>
+      <c r="E14" s="19" t="inlineStr">
+        <is>
+          <t>-3.52%</t>
         </is>
       </c>
       <c r="F14" s="14" t="inlineStr">
         <is>
-          <t>1.071100</t>
+          <t>0.964821</t>
         </is>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
-          <t>$111.58</t>
+          <t>$107.65</t>
         </is>
       </c>
     </row>
@@ -1743,22 +1743,22 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>-0.035200</t>
-        </is>
-      </c>
-      <c r="E15" s="20" t="inlineStr">
-        <is>
-          <t>-3.52%</t>
+          <t>-0.022230</t>
+        </is>
+      </c>
+      <c r="E15" s="18" t="inlineStr">
+        <is>
+          <t>-2.22%</t>
         </is>
       </c>
       <c r="F15" s="8" t="inlineStr">
         <is>
-          <t>0.964800</t>
+          <t>0.977770</t>
         </is>
       </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
-          <t>$107.66</t>
+          <t>$105.26</t>
         </is>
       </c>
     </row>
@@ -1773,22 +1773,22 @@
       </c>
       <c r="D16" s="14" t="inlineStr">
         <is>
-          <t>-0.022200</t>
-        </is>
-      </c>
-      <c r="E16" s="19" t="inlineStr">
-        <is>
-          <t>-2.22%</t>
+          <t>0.104198</t>
+        </is>
+      </c>
+      <c r="E16" s="17" t="inlineStr">
+        <is>
+          <t>10.42%</t>
         </is>
       </c>
       <c r="F16" s="14" t="inlineStr">
         <is>
-          <t>0.977800</t>
+          <t>1.104198</t>
         </is>
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
-          <t>$105.27</t>
+          <t>$116.23</t>
         </is>
       </c>
     </row>
@@ -1803,22 +1803,22 @@
       </c>
       <c r="D17" s="8" t="inlineStr">
         <is>
-          <t>0.104200</t>
-        </is>
-      </c>
-      <c r="E17" s="18" t="inlineStr">
-        <is>
-          <t>10.42%</t>
+          <t>0.037314</t>
+        </is>
+      </c>
+      <c r="E17" s="20" t="inlineStr">
+        <is>
+          <t>3.73%</t>
         </is>
       </c>
       <c r="F17" s="8" t="inlineStr">
         <is>
-          <t>1.104200</t>
+          <t>1.037314</t>
         </is>
       </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
-          <t>$116.23</t>
+          <t>$120.57</t>
         </is>
       </c>
     </row>
@@ -1833,22 +1833,22 @@
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
-          <t>0.037300</t>
-        </is>
-      </c>
-      <c r="E18" s="17" t="inlineStr">
-        <is>
-          <t>3.73%</t>
+          <t>-0.007061</t>
+        </is>
+      </c>
+      <c r="E18" s="19" t="inlineStr">
+        <is>
+          <t>-0.71%</t>
         </is>
       </c>
       <c r="F18" s="14" t="inlineStr">
         <is>
-          <t>1.037300</t>
+          <t>0.992939</t>
         </is>
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
-          <t>$120.57</t>
+          <t>$119.71</t>
         </is>
       </c>
     </row>
@@ -1863,22 +1863,22 @@
       </c>
       <c r="D19" s="8" t="inlineStr">
         <is>
-          <t>-0.007100</t>
+          <t>0.023968</t>
         </is>
       </c>
       <c r="E19" s="20" t="inlineStr">
         <is>
-          <t>-0.71%</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F19" s="8" t="inlineStr">
         <is>
-          <t>0.992900</t>
+          <t>1.023968</t>
         </is>
       </c>
       <c r="G19" s="5" t="inlineStr">
         <is>
-          <t>$119.71</t>
+          <t>$122.58</t>
         </is>
       </c>
     </row>
@@ -1893,22 +1893,22 @@
       </c>
       <c r="D20" s="14" t="inlineStr">
         <is>
-          <t>0.024000</t>
+          <t>0.039830</t>
         </is>
       </c>
       <c r="E20" s="17" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>3.98%</t>
         </is>
       </c>
       <c r="F20" s="14" t="inlineStr">
         <is>
-          <t>1.024000</t>
+          <t>1.039830</t>
         </is>
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
-          <t>$122.59</t>
+          <t>$127.47</t>
         </is>
       </c>
     </row>
@@ -1923,22 +1923,22 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>0.039800</t>
-        </is>
-      </c>
-      <c r="E21" s="18" t="inlineStr">
-        <is>
-          <t>3.98%</t>
+          <t>0.051655</t>
+        </is>
+      </c>
+      <c r="E21" s="20" t="inlineStr">
+        <is>
+          <t>5.17%</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
         <is>
-          <t>1.039800</t>
+          <t>1.051655</t>
         </is>
       </c>
       <c r="G21" s="5" t="inlineStr">
         <is>
-          <t>$127.47</t>
+          <t>$134.05</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="D22" s="14" t="inlineStr">
         <is>
-          <t>0.051700</t>
+          <t>0.006199</t>
         </is>
       </c>
       <c r="E22" s="17" t="inlineStr">
         <is>
-          <t>5.17%</t>
+          <t>0.62%</t>
         </is>
       </c>
       <c r="F22" s="14" t="inlineStr">
         <is>
-          <t>1.051700</t>
+          <t>1.006199</t>
         </is>
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
-          <t>$134.06</t>
+          <t>$134.88</t>
         </is>
       </c>
     </row>
@@ -1983,22 +1983,22 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>0.006200</t>
-        </is>
-      </c>
-      <c r="E23" s="18" t="inlineStr">
-        <is>
-          <t>0.62%</t>
+          <t>0.024718</t>
+        </is>
+      </c>
+      <c r="E23" s="20" t="inlineStr">
+        <is>
+          <t>2.47%</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
         <is>
-          <t>1.006200</t>
+          <t>1.024718</t>
         </is>
       </c>
       <c r="G23" s="5" t="inlineStr">
         <is>
-          <t>$134.89</t>
+          <t>$138.22</t>
         </is>
       </c>
     </row>
@@ -2013,22 +2013,22 @@
       </c>
       <c r="D24" s="14" t="inlineStr">
         <is>
-          <t>0.024700</t>
+          <t>0.022749</t>
         </is>
       </c>
       <c r="E24" s="17" t="inlineStr">
         <is>
-          <t>2.47%</t>
+          <t>2.27%</t>
         </is>
       </c>
       <c r="F24" s="14" t="inlineStr">
         <is>
-          <t>1.024700</t>
+          <t>1.022749</t>
         </is>
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
-          <t>$138.22</t>
+          <t>$141.36</t>
         </is>
       </c>
     </row>
@@ -2043,22 +2043,22 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>0.022700</t>
-        </is>
-      </c>
-      <c r="E25" s="18" t="inlineStr">
-        <is>
-          <t>2.27%</t>
+          <t>0.027725</t>
+        </is>
+      </c>
+      <c r="E25" s="20" t="inlineStr">
+        <is>
+          <t>2.77%</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
         <is>
-          <t>1.022700</t>
+          <t>1.027725</t>
         </is>
       </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
-          <t>$141.36</t>
+          <t>$145.28</t>
         </is>
       </c>
     </row>
@@ -2073,22 +2073,22 @@
       </c>
       <c r="D26" s="14" t="inlineStr">
         <is>
-          <t>0.027700</t>
-        </is>
-      </c>
-      <c r="E26" s="17" t="inlineStr">
-        <is>
-          <t>2.77%</t>
+          <t>-0.039289</t>
+        </is>
+      </c>
+      <c r="E26" s="19" t="inlineStr">
+        <is>
+          <t>-3.93%</t>
         </is>
       </c>
       <c r="F26" s="14" t="inlineStr">
         <is>
-          <t>1.027700</t>
+          <t>0.960711</t>
         </is>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
-          <t>$145.27</t>
+          <t>$139.57</t>
         </is>
       </c>
     </row>
@@ -2103,22 +2103,22 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>-0.039300</t>
+          <t>0.068193</t>
         </is>
       </c>
       <c r="E27" s="20" t="inlineStr">
         <is>
-          <t>-3.93%</t>
+          <t>6.82%</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
         <is>
-          <t>0.960700</t>
+          <t>1.068193</t>
         </is>
       </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
-          <t>$139.56</t>
+          <t>$149.09</t>
         </is>
       </c>
     </row>
@@ -2133,22 +2133,22 @@
       </c>
       <c r="D28" s="14" t="inlineStr">
         <is>
-          <t>0.068200</t>
-        </is>
-      </c>
-      <c r="E28" s="17" t="inlineStr">
-        <is>
-          <t>6.82%</t>
+          <t>-0.004750</t>
+        </is>
+      </c>
+      <c r="E28" s="19" t="inlineStr">
+        <is>
+          <t>-0.47%</t>
         </is>
       </c>
       <c r="F28" s="14" t="inlineStr">
         <is>
-          <t>1.068200</t>
+          <t>0.995250</t>
         </is>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
-          <t>$149.08</t>
+          <t>$148.38</t>
         </is>
       </c>
     </row>
@@ -2163,22 +2163,22 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>-0.004700</t>
+          <t>0.041571</t>
         </is>
       </c>
       <c r="E29" s="20" t="inlineStr">
         <is>
-          <t>-0.47%</t>
+          <t>4.16%</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
         <is>
-          <t>0.995300</t>
+          <t>1.041571</t>
         </is>
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t>$148.38</t>
+          <t>$154.55</t>
         </is>
       </c>
     </row>
@@ -2193,22 +2193,22 @@
       </c>
       <c r="D30" s="14" t="inlineStr">
         <is>
-          <t>0.041600</t>
-        </is>
-      </c>
-      <c r="E30" s="17" t="inlineStr">
-        <is>
-          <t>4.16%</t>
+          <t>-0.048059</t>
+        </is>
+      </c>
+      <c r="E30" s="19" t="inlineStr">
+        <is>
+          <t>-4.81%</t>
         </is>
       </c>
       <c r="F30" s="14" t="inlineStr">
         <is>
-          <t>1.041600</t>
+          <t>0.951941</t>
         </is>
       </c>
       <c r="G30" s="11" t="inlineStr">
         <is>
-          <t>$154.55</t>
+          <t>$147.12</t>
         </is>
       </c>
     </row>
@@ -2223,22 +2223,22 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>-0.048100</t>
-        </is>
-      </c>
-      <c r="E31" s="20" t="inlineStr">
-        <is>
-          <t>-4.81%</t>
+          <t>-0.026608</t>
+        </is>
+      </c>
+      <c r="E31" s="18" t="inlineStr">
+        <is>
+          <t>-2.66%</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
         <is>
-          <t>0.951900</t>
+          <t>0.973392</t>
         </is>
       </c>
       <c r="G31" s="5" t="inlineStr">
         <is>
-          <t>$147.12</t>
+          <t>$143.21</t>
         </is>
       </c>
     </row>
@@ -2253,22 +2253,22 @@
       </c>
       <c r="D32" s="14" t="inlineStr">
         <is>
-          <t>-0.026600</t>
-        </is>
-      </c>
-      <c r="E32" s="19" t="inlineStr">
-        <is>
-          <t>-2.66%</t>
+          <t>0.034708</t>
+        </is>
+      </c>
+      <c r="E32" s="17" t="inlineStr">
+        <is>
+          <t>3.47%</t>
         </is>
       </c>
       <c r="F32" s="14" t="inlineStr">
         <is>
-          <t>0.973400</t>
+          <t>1.034708</t>
         </is>
       </c>
       <c r="G32" s="11" t="inlineStr">
         <is>
-          <t>$143.21</t>
+          <t>$148.18</t>
         </is>
       </c>
     </row>
@@ -2283,22 +2283,22 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>0.034700</t>
+          <t>-0.079849</t>
         </is>
       </c>
       <c r="E33" s="18" t="inlineStr">
         <is>
-          <t>3.47%</t>
+          <t>-7.98%</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
         <is>
-          <t>1.034700</t>
+          <t>0.920151</t>
         </is>
       </c>
       <c r="G33" s="5" t="inlineStr">
         <is>
-          <t>$148.17</t>
+          <t>$136.35</t>
         </is>
       </c>
     </row>
@@ -2313,22 +2313,22 @@
       </c>
       <c r="D34" s="14" t="inlineStr">
         <is>
-          <t>-0.079800</t>
-        </is>
-      </c>
-      <c r="E34" s="19" t="inlineStr">
-        <is>
-          <t>-7.98%</t>
+          <t>0.001894</t>
+        </is>
+      </c>
+      <c r="E34" s="17" t="inlineStr">
+        <is>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="F34" s="14" t="inlineStr">
         <is>
-          <t>0.920200</t>
+          <t>1.001894</t>
         </is>
       </c>
       <c r="G34" s="11" t="inlineStr">
         <is>
-          <t>$136.35</t>
+          <t>$136.60</t>
         </is>
       </c>
     </row>
@@ -2343,22 +2343,22 @@
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>0.001900</t>
+          <t>-0.077288</t>
         </is>
       </c>
       <c r="E35" s="18" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>-7.73%</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
         <is>
-          <t>1.001900</t>
+          <t>0.922712</t>
         </is>
       </c>
       <c r="G35" s="5" t="inlineStr">
         <is>
-          <t>$136.61</t>
+          <t>$126.05</t>
         </is>
       </c>
     </row>
@@ -2373,22 +2373,22 @@
       </c>
       <c r="D36" s="14" t="inlineStr">
         <is>
-          <t>-0.077300</t>
-        </is>
-      </c>
-      <c r="E36" s="19" t="inlineStr">
-        <is>
-          <t>-7.73%</t>
+          <t>0.088342</t>
+        </is>
+      </c>
+      <c r="E36" s="17" t="inlineStr">
+        <is>
+          <t>8.83%</t>
         </is>
       </c>
       <c r="F36" s="14" t="inlineStr">
         <is>
-          <t>0.922700</t>
+          <t>1.088342</t>
         </is>
       </c>
       <c r="G36" s="11" t="inlineStr">
         <is>
-          <t>$126.05</t>
+          <t>$137.18</t>
         </is>
       </c>
     </row>
@@ -2403,22 +2403,22 @@
       </c>
       <c r="D37" s="8" t="inlineStr">
         <is>
-          <t>0.088300</t>
+          <t>-0.033575</t>
         </is>
       </c>
       <c r="E37" s="18" t="inlineStr">
         <is>
-          <t>8.83%</t>
+          <t>-3.36%</t>
         </is>
       </c>
       <c r="F37" s="8" t="inlineStr">
         <is>
-          <t>1.088300</t>
+          <t>0.966425</t>
         </is>
       </c>
       <c r="G37" s="5" t="inlineStr">
         <is>
-          <t>$137.18</t>
+          <t>$132.58</t>
         </is>
       </c>
     </row>
@@ -2433,22 +2433,22 @@
       </c>
       <c r="D38" s="14" t="inlineStr">
         <is>
-          <t>-0.033600</t>
+          <t>-0.085757</t>
         </is>
       </c>
       <c r="E38" s="19" t="inlineStr">
         <is>
-          <t>-3.36%</t>
+          <t>-8.58%</t>
         </is>
       </c>
       <c r="F38" s="14" t="inlineStr">
         <is>
-          <t>0.966400</t>
+          <t>0.914243</t>
         </is>
       </c>
       <c r="G38" s="11" t="inlineStr">
         <is>
-          <t>$132.57</t>
+          <t>$121.21</t>
         </is>
       </c>
     </row>
@@ -2463,22 +2463,22 @@
       </c>
       <c r="D39" s="8" t="inlineStr">
         <is>
-          <t>-0.085800</t>
+          <t>0.076790</t>
         </is>
       </c>
       <c r="E39" s="20" t="inlineStr">
         <is>
-          <t>-8.58%</t>
+          <t>7.68%</t>
         </is>
       </c>
       <c r="F39" s="8" t="inlineStr">
         <is>
-          <t>0.914200</t>
+          <t>1.076790</t>
         </is>
       </c>
       <c r="G39" s="5" t="inlineStr">
         <is>
-          <t>$121.20</t>
+          <t>$130.51</t>
         </is>
       </c>
     </row>
@@ -2493,22 +2493,22 @@
       </c>
       <c r="D40" s="14" t="inlineStr">
         <is>
-          <t>0.076800</t>
+          <t>0.055755</t>
         </is>
       </c>
       <c r="E40" s="17" t="inlineStr">
         <is>
-          <t>7.68%</t>
+          <t>5.58%</t>
         </is>
       </c>
       <c r="F40" s="14" t="inlineStr">
         <is>
-          <t>1.076800</t>
+          <t>1.055755</t>
         </is>
       </c>
       <c r="G40" s="11" t="inlineStr">
         <is>
-          <t>$130.50</t>
+          <t>$137.79</t>
         </is>
       </c>
     </row>
@@ -2523,22 +2523,22 @@
       </c>
       <c r="D41" s="8" t="inlineStr">
         <is>
-          <t>0.055800</t>
+          <t>-0.055492</t>
         </is>
       </c>
       <c r="E41" s="18" t="inlineStr">
         <is>
-          <t>5.58%</t>
+          <t>-5.55%</t>
         </is>
       </c>
       <c r="F41" s="8" t="inlineStr">
         <is>
-          <t>1.055800</t>
+          <t>0.944508</t>
         </is>
       </c>
       <c r="G41" s="5" t="inlineStr">
         <is>
-          <t>$137.79</t>
+          <t>$130.14</t>
         </is>
       </c>
     </row>
@@ -2553,22 +2553,22 @@
       </c>
       <c r="D42" s="14" t="inlineStr">
         <is>
-          <t>-0.055500</t>
-        </is>
-      </c>
-      <c r="E42" s="19" t="inlineStr">
-        <is>
-          <t>-5.55%</t>
+          <t>0.062128</t>
+        </is>
+      </c>
+      <c r="E42" s="17" t="inlineStr">
+        <is>
+          <t>6.21%</t>
         </is>
       </c>
       <c r="F42" s="14" t="inlineStr">
         <is>
-          <t>0.944500</t>
+          <t>1.062128</t>
         </is>
       </c>
       <c r="G42" s="11" t="inlineStr">
         <is>
-          <t>$130.14</t>
+          <t>$138.23</t>
         </is>
       </c>
     </row>
@@ -2583,22 +2583,22 @@
       </c>
       <c r="D43" s="8" t="inlineStr">
         <is>
-          <t>0.062100</t>
+          <t>-0.025714</t>
         </is>
       </c>
       <c r="E43" s="18" t="inlineStr">
         <is>
-          <t>6.21%</t>
+          <t>-2.57%</t>
         </is>
       </c>
       <c r="F43" s="8" t="inlineStr">
         <is>
-          <t>1.062100</t>
+          <t>0.974286</t>
         </is>
       </c>
       <c r="G43" s="5" t="inlineStr">
         <is>
-          <t>$138.22</t>
+          <t>$134.68</t>
         </is>
       </c>
     </row>
@@ -2613,22 +2613,22 @@
       </c>
       <c r="D44" s="14" t="inlineStr">
         <is>
-          <t>-0.025700</t>
-        </is>
-      </c>
-      <c r="E44" s="19" t="inlineStr">
-        <is>
-          <t>-2.57%</t>
+          <t>0.033689</t>
+        </is>
+      </c>
+      <c r="E44" s="17" t="inlineStr">
+        <is>
+          <t>3.37%</t>
         </is>
       </c>
       <c r="F44" s="14" t="inlineStr">
         <is>
-          <t>0.974300</t>
+          <t>1.033689</t>
         </is>
       </c>
       <c r="G44" s="11" t="inlineStr">
         <is>
-          <t>$134.67</t>
+          <t>$139.21</t>
         </is>
       </c>
     </row>
@@ -2643,22 +2643,22 @@
       </c>
       <c r="D45" s="8" t="inlineStr">
         <is>
-          <t>0.033700</t>
-        </is>
-      </c>
-      <c r="E45" s="18" t="inlineStr">
-        <is>
-          <t>3.37%</t>
+          <t>0.017264</t>
+        </is>
+      </c>
+      <c r="E45" s="20" t="inlineStr">
+        <is>
+          <t>1.73%</t>
         </is>
       </c>
       <c r="F45" s="8" t="inlineStr">
         <is>
-          <t>1.033700</t>
+          <t>1.017264</t>
         </is>
       </c>
       <c r="G45" s="5" t="inlineStr">
         <is>
-          <t>$139.21</t>
+          <t>$141.62</t>
         </is>
       </c>
     </row>
@@ -2673,22 +2673,22 @@
       </c>
       <c r="D46" s="14" t="inlineStr">
         <is>
-          <t>0.017300</t>
+          <t>0.006852</t>
         </is>
       </c>
       <c r="E46" s="17" t="inlineStr">
         <is>
-          <t>1.73%</t>
+          <t>0.69%</t>
         </is>
       </c>
       <c r="F46" s="14" t="inlineStr">
         <is>
-          <t>1.017300</t>
+          <t>1.006852</t>
         </is>
       </c>
       <c r="G46" s="11" t="inlineStr">
         <is>
-          <t>$141.61</t>
+          <t>$142.59</t>
         </is>
       </c>
     </row>
@@ -2703,22 +2703,22 @@
       </c>
       <c r="D47" s="8" t="inlineStr">
         <is>
-          <t>0.006900</t>
-        </is>
-      </c>
-      <c r="E47" s="18" t="inlineStr">
-        <is>
-          <t>0.69%</t>
+          <t>0.064808</t>
+        </is>
+      </c>
+      <c r="E47" s="20" t="inlineStr">
+        <is>
+          <t>6.48%</t>
         </is>
       </c>
       <c r="F47" s="8" t="inlineStr">
         <is>
-          <t>1.006900</t>
+          <t>1.064808</t>
         </is>
       </c>
       <c r="G47" s="5" t="inlineStr">
         <is>
-          <t>$142.59</t>
+          <t>$151.83</t>
         </is>
       </c>
     </row>
@@ -2733,22 +2733,22 @@
       </c>
       <c r="D48" s="14" t="inlineStr">
         <is>
-          <t>0.064800</t>
+          <t>0.032314</t>
         </is>
       </c>
       <c r="E48" s="17" t="inlineStr">
         <is>
-          <t>6.48%</t>
+          <t>3.23%</t>
         </is>
       </c>
       <c r="F48" s="14" t="inlineStr">
         <is>
-          <t>1.064800</t>
+          <t>1.032314</t>
         </is>
       </c>
       <c r="G48" s="11" t="inlineStr">
         <is>
-          <t>$151.83</t>
+          <t>$156.73</t>
         </is>
       </c>
     </row>
@@ -2763,22 +2763,22 @@
       </c>
       <c r="D49" s="8" t="inlineStr">
         <is>
-          <t>0.032300</t>
+          <t>-0.014417</t>
         </is>
       </c>
       <c r="E49" s="18" t="inlineStr">
         <is>
-          <t>3.23%</t>
+          <t>-1.44%</t>
         </is>
       </c>
       <c r="F49" s="8" t="inlineStr">
         <is>
-          <t>1.032300</t>
+          <t>0.985583</t>
         </is>
       </c>
       <c r="G49" s="5" t="inlineStr">
         <is>
-          <t>$156.74</t>
+          <t>$154.47</t>
         </is>
       </c>
     </row>
@@ -2793,22 +2793,22 @@
       </c>
       <c r="D50" s="14" t="inlineStr">
         <is>
-          <t>-0.014400</t>
+          <t>-0.046222</t>
         </is>
       </c>
       <c r="E50" s="19" t="inlineStr">
         <is>
-          <t>-1.44%</t>
+          <t>-4.62%</t>
         </is>
       </c>
       <c r="F50" s="14" t="inlineStr">
         <is>
-          <t>0.985600</t>
+          <t>0.953778</t>
         </is>
       </c>
       <c r="G50" s="11" t="inlineStr">
         <is>
-          <t>$154.48</t>
+          <t>$147.33</t>
         </is>
       </c>
     </row>
@@ -2823,22 +2823,22 @@
       </c>
       <c r="D51" s="8" t="inlineStr">
         <is>
-          <t>-0.046200</t>
-        </is>
-      </c>
-      <c r="E51" s="20" t="inlineStr">
-        <is>
-          <t>-4.62%</t>
+          <t>-0.019340</t>
+        </is>
+      </c>
+      <c r="E51" s="18" t="inlineStr">
+        <is>
+          <t>-1.93%</t>
         </is>
       </c>
       <c r="F51" s="8" t="inlineStr">
         <is>
-          <t>0.953800</t>
+          <t>0.980660</t>
         </is>
       </c>
       <c r="G51" s="5" t="inlineStr">
         <is>
-          <t>$147.34</t>
+          <t>$144.48</t>
         </is>
       </c>
     </row>
@@ -2853,22 +2853,22 @@
       </c>
       <c r="D52" s="14" t="inlineStr">
         <is>
-          <t>-0.019300</t>
-        </is>
-      </c>
-      <c r="E52" s="19" t="inlineStr">
-        <is>
-          <t>-1.93%</t>
+          <t>0.086819</t>
+        </is>
+      </c>
+      <c r="E52" s="17" t="inlineStr">
+        <is>
+          <t>8.68%</t>
         </is>
       </c>
       <c r="F52" s="14" t="inlineStr">
         <is>
-          <t>0.980700</t>
+          <t>1.086819</t>
         </is>
       </c>
       <c r="G52" s="11" t="inlineStr">
         <is>
-          <t>$144.50</t>
+          <t>$157.03</t>
         </is>
       </c>
     </row>
@@ -2883,22 +2883,22 @@
       </c>
       <c r="D53" s="8" t="inlineStr">
         <is>
-          <t>0.086800</t>
-        </is>
-      </c>
-      <c r="E53" s="18" t="inlineStr">
-        <is>
-          <t>8.68%</t>
+          <t>0.047104</t>
+        </is>
+      </c>
+      <c r="E53" s="20" t="inlineStr">
+        <is>
+          <t>4.71%</t>
         </is>
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>1.086800</t>
+          <t>1.047104</t>
         </is>
       </c>
       <c r="G53" s="5" t="inlineStr">
         <is>
-          <t>$157.04</t>
+          <t>$164.42</t>
         </is>
       </c>
     </row>
@@ -2913,22 +2913,22 @@
       </c>
       <c r="D54" s="14" t="inlineStr">
         <is>
-          <t>0.047100</t>
+          <t>0.018792</t>
         </is>
       </c>
       <c r="E54" s="17" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>1.88%</t>
         </is>
       </c>
       <c r="F54" s="14" t="inlineStr">
         <is>
-          <t>1.047100</t>
+          <t>1.018792</t>
         </is>
       </c>
       <c r="G54" s="11" t="inlineStr">
         <is>
-          <t>$164.44</t>
+          <t>$167.51</t>
         </is>
       </c>
     </row>
@@ -2943,22 +2943,22 @@
       </c>
       <c r="D55" s="8" t="inlineStr">
         <is>
-          <t>0.018800</t>
-        </is>
-      </c>
-      <c r="E55" s="18" t="inlineStr">
-        <is>
-          <t>1.88%</t>
+          <t>0.048589</t>
+        </is>
+      </c>
+      <c r="E55" s="20" t="inlineStr">
+        <is>
+          <t>4.86%</t>
         </is>
       </c>
       <c r="F55" s="8" t="inlineStr">
         <is>
-          <t>1.018800</t>
+          <t>1.048589</t>
         </is>
       </c>
       <c r="G55" s="5" t="inlineStr">
         <is>
-          <t>$167.53</t>
+          <t>$175.65</t>
         </is>
       </c>
     </row>
@@ -2973,22 +2973,22 @@
       </c>
       <c r="D56" s="14" t="inlineStr">
         <is>
-          <t>0.048600</t>
+          <t>0.033098</t>
         </is>
       </c>
       <c r="E56" s="17" t="inlineStr">
         <is>
-          <t>4.86%</t>
+          <t>3.31%</t>
         </is>
       </c>
       <c r="F56" s="14" t="inlineStr">
         <is>
-          <t>1.048600</t>
+          <t>1.033098</t>
         </is>
       </c>
       <c r="G56" s="11" t="inlineStr">
         <is>
-          <t>$175.67</t>
+          <t>$181.47</t>
         </is>
       </c>
     </row>
@@ -3003,22 +3003,22 @@
       </c>
       <c r="D57" s="8" t="inlineStr">
         <is>
-          <t>0.033100</t>
+          <t>-0.037290</t>
         </is>
       </c>
       <c r="E57" s="18" t="inlineStr">
         <is>
-          <t>3.31%</t>
+          <t>-3.73%</t>
         </is>
       </c>
       <c r="F57" s="8" t="inlineStr">
         <is>
-          <t>1.033100</t>
+          <t>0.962710</t>
         </is>
       </c>
       <c r="G57" s="5" t="inlineStr">
         <is>
-          <t>$181.49</t>
+          <t>$174.70</t>
         </is>
       </c>
     </row>
@@ -3033,22 +3033,22 @@
       </c>
       <c r="D58" s="14" t="inlineStr">
         <is>
-          <t>-0.037300</t>
-        </is>
-      </c>
-      <c r="E58" s="19" t="inlineStr">
-        <is>
-          <t>-3.73%</t>
+          <t>0.047246</t>
+        </is>
+      </c>
+      <c r="E58" s="17" t="inlineStr">
+        <is>
+          <t>4.72%</t>
         </is>
       </c>
       <c r="F58" s="14" t="inlineStr">
         <is>
-          <t>0.962700</t>
+          <t>1.047246</t>
         </is>
       </c>
       <c r="G58" s="11" t="inlineStr">
         <is>
-          <t>$174.72</t>
+          <t>$182.95</t>
         </is>
       </c>
     </row>
@@ -3063,22 +3063,22 @@
       </c>
       <c r="D59" s="8" t="inlineStr">
         <is>
-          <t>0.047200</t>
-        </is>
-      </c>
-      <c r="E59" s="18" t="inlineStr">
-        <is>
-          <t>4.72%</t>
+          <t>0.037188</t>
+        </is>
+      </c>
+      <c r="E59" s="20" t="inlineStr">
+        <is>
+          <t>3.72%</t>
         </is>
       </c>
       <c r="F59" s="8" t="inlineStr">
         <is>
-          <t>1.047200</t>
+          <t>1.037188</t>
         </is>
       </c>
       <c r="G59" s="5" t="inlineStr">
         <is>
-          <t>$182.96</t>
+          <t>$189.76</t>
         </is>
       </c>
     </row>
@@ -3093,22 +3093,22 @@
       </c>
       <c r="D60" s="14" t="inlineStr">
         <is>
-          <t>0.037200</t>
+          <t>0.015797</t>
         </is>
       </c>
       <c r="E60" s="17" t="inlineStr">
         <is>
-          <t>3.72%</t>
+          <t>1.58%</t>
         </is>
       </c>
       <c r="F60" s="14" t="inlineStr">
         <is>
-          <t>1.037200</t>
+          <t>1.015797</t>
         </is>
       </c>
       <c r="G60" s="11" t="inlineStr">
         <is>
-          <t>$189.77</t>
+          <t>$192.76</t>
         </is>
       </c>
     </row>
@@ -3123,22 +3123,22 @@
       </c>
       <c r="D61" s="8" t="inlineStr">
         <is>
-          <t>0.015800</t>
-        </is>
-      </c>
-      <c r="E61" s="18" t="inlineStr">
-        <is>
-          <t>1.58%</t>
+          <t>0.026523</t>
+        </is>
+      </c>
+      <c r="E61" s="20" t="inlineStr">
+        <is>
+          <t>2.65%</t>
         </is>
       </c>
       <c r="F61" s="8" t="inlineStr">
         <is>
-          <t>1.015800</t>
+          <t>1.026523</t>
         </is>
       </c>
       <c r="G61" s="5" t="inlineStr">
         <is>
-          <t>$192.77</t>
+          <t>$197.87</t>
         </is>
       </c>
     </row>
@@ -3153,22 +3153,22 @@
       </c>
       <c r="D62" s="14" t="inlineStr">
         <is>
-          <t>0.026500</t>
+          <t>0.020512</t>
         </is>
       </c>
       <c r="E62" s="17" t="inlineStr">
         <is>
-          <t>2.65%</t>
+          <t>2.05%</t>
         </is>
       </c>
       <c r="F62" s="14" t="inlineStr">
         <is>
-          <t>1.026500</t>
+          <t>1.020512</t>
         </is>
       </c>
       <c r="G62" s="11" t="inlineStr">
         <is>
-          <t>$197.88</t>
+          <t>$201.93</t>
         </is>
       </c>
     </row>
@@ -3183,22 +3183,22 @@
       </c>
       <c r="D63" s="8" t="inlineStr">
         <is>
-          <t>0.020500</t>
+          <t>-0.007023</t>
         </is>
       </c>
       <c r="E63" s="18" t="inlineStr">
         <is>
-          <t>2.05%</t>
+          <t>-0.70%</t>
         </is>
       </c>
       <c r="F63" s="8" t="inlineStr">
         <is>
-          <t>1.020500</t>
+          <t>0.992977</t>
         </is>
       </c>
       <c r="G63" s="5" t="inlineStr">
         <is>
-          <t>$201.93</t>
+          <t>$200.51</t>
         </is>
       </c>
     </row>
@@ -3213,22 +3213,22 @@
       </c>
       <c r="D64" s="14" t="inlineStr">
         <is>
-          <t>-0.007000</t>
-        </is>
-      </c>
-      <c r="E64" s="19" t="inlineStr">
-        <is>
-          <t>-0.70%</t>
+          <t>0.058098</t>
+        </is>
+      </c>
+      <c r="E64" s="17" t="inlineStr">
+        <is>
+          <t>5.81%</t>
         </is>
       </c>
       <c r="F64" s="14" t="inlineStr">
         <is>
-          <t>0.993000</t>
+          <t>1.058098</t>
         </is>
       </c>
       <c r="G64" s="11" t="inlineStr">
         <is>
-          <t>$200.52</t>
+          <t>$212.16</t>
         </is>
       </c>
     </row>
@@ -3243,79 +3243,49 @@
       </c>
       <c r="D65" s="8" t="inlineStr">
         <is>
-          <t>0.058100</t>
+          <t>-0.018799</t>
         </is>
       </c>
       <c r="E65" s="18" t="inlineStr">
         <is>
-          <t>5.81%</t>
+          <t>-1.88%</t>
         </is>
       </c>
       <c r="F65" s="8" t="inlineStr">
         <is>
-          <t>1.058100</t>
+          <t>0.981201</t>
         </is>
       </c>
       <c r="G65" s="5" t="inlineStr">
         <is>
-          <t>$212.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="11" t="n">
-        <v>61</v>
-      </c>
-      <c r="C66" s="11" t="inlineStr">
-        <is>
-          <t>Month 61</t>
-        </is>
-      </c>
-      <c r="D66" s="14" t="inlineStr">
-        <is>
-          <t>-0.018800</t>
-        </is>
-      </c>
-      <c r="E66" s="19" t="inlineStr">
-        <is>
-          <t>-1.88%</t>
-        </is>
-      </c>
-      <c r="F66" s="14" t="inlineStr">
-        <is>
-          <t>0.981200</t>
-        </is>
-      </c>
-      <c r="G66" s="11" t="inlineStr">
-        <is>
-          <t>$208.18</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="21" t="inlineStr">
+          <t>$208.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="21" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D68" s="21" t="inlineStr">
-        <is>
-          <t>0.811000</t>
-        </is>
-      </c>
-      <c r="E68" s="21" t="inlineStr">
+      <c r="D67" s="21" t="inlineStr">
+        <is>
+          <t>0.810956</t>
+        </is>
+      </c>
+      <c r="E67" s="21" t="inlineStr">
         <is>
           <t>81.10%</t>
         </is>
       </c>
-      <c r="F68" s="21" t="inlineStr">
-        <is>
-          <t>Product: 2.081793</t>
-        </is>
-      </c>
-      <c r="G68" s="22" t="inlineStr">
-        <is>
-          <t>$208.18</t>
+      <c r="F67" s="21" t="inlineStr">
+        <is>
+          <t>Product: 2.081687</t>
+        </is>
+      </c>
+      <c r="G67" s="22" t="inlineStr">
+        <is>
+          <t>$208.17</t>
         </is>
       </c>
     </row>
@@ -3330,7 +3300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:F77"/>
+  <dimension ref="B2:F76"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3369,7 +3339,7 @@
     <row r="7">
       <c r="B7" s="24" t="inlineStr">
         <is>
-          <t>STEP-BY-STEP MULTIPLICATION (ALL 61 periods):</t>
+          <t>STEP-BY-STEP MULTIPLICATION (ALL 60 periods):</t>
         </is>
       </c>
     </row>
@@ -3406,22 +3376,22 @@
       </c>
       <c r="C9" s="17" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.25%</t>
         </is>
       </c>
       <c r="D9" s="14" t="inlineStr">
         <is>
-          <t>1.000000</t>
+          <t>1.002473</t>
         </is>
       </c>
       <c r="E9" s="14" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>1.00247343</t>
         </is>
       </c>
       <c r="F9" s="17" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.25%</t>
         </is>
       </c>
     </row>
@@ -3431,22 +3401,22 @@
       </c>
       <c r="C10" s="18" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>-7.72%</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>1.002500</t>
+          <t>0.922828</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>1.00250000</t>
+          <t>0.92511102</t>
         </is>
       </c>
       <c r="F10" s="18" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>-7.49%</t>
         </is>
       </c>
     </row>
@@ -3456,22 +3426,22 @@
       </c>
       <c r="C11" s="19" t="inlineStr">
         <is>
-          <t>-7.72%</t>
+          <t>-11.45%</t>
         </is>
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>0.922800</t>
+          <t>0.885450</t>
         </is>
       </c>
       <c r="E11" s="14" t="inlineStr">
         <is>
-          <t>0.92510700</t>
+          <t>0.81913990</t>
         </is>
       </c>
       <c r="F11" s="19" t="inlineStr">
         <is>
-          <t>-7.49%</t>
+          <t>-18.09%</t>
         </is>
       </c>
     </row>
@@ -3481,22 +3451,22 @@
       </c>
       <c r="C12" s="20" t="inlineStr">
         <is>
-          <t>-11.45%</t>
+          <t>12.65%</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr">
         <is>
-          <t>0.885500</t>
+          <t>1.126506</t>
         </is>
       </c>
       <c r="E12" s="8" t="inlineStr">
         <is>
-          <t>0.81918225</t>
-        </is>
-      </c>
-      <c r="F12" s="20" t="inlineStr">
-        <is>
-          <t>-18.08%</t>
+          <t>0.92276606</t>
+        </is>
+      </c>
+      <c r="F12" s="18" t="inlineStr">
+        <is>
+          <t>-7.72%</t>
         </is>
       </c>
     </row>
@@ -3506,22 +3476,22 @@
       </c>
       <c r="C13" s="17" t="inlineStr">
         <is>
-          <t>12.65%</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>1.126500</t>
+          <t>1.045567</t>
         </is>
       </c>
       <c r="E13" s="14" t="inlineStr">
         <is>
-          <t>0.92280880</t>
+          <t>0.96481346</t>
         </is>
       </c>
       <c r="F13" s="19" t="inlineStr">
         <is>
-          <t>-7.72%</t>
+          <t>-3.52%</t>
         </is>
       </c>
     </row>
@@ -3529,24 +3499,24 @@
       <c r="B14" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="C14" s="18" t="inlineStr">
-        <is>
-          <t>4.56%</t>
+      <c r="C14" s="20" t="inlineStr">
+        <is>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
-          <t>1.045600</t>
+          <t>1.020012</t>
         </is>
       </c>
       <c r="E14" s="8" t="inlineStr">
         <is>
-          <t>0.96488888</t>
-        </is>
-      </c>
-      <c r="F14" s="20" t="inlineStr">
-        <is>
-          <t>-3.51%</t>
+          <t>0.98412105</t>
+        </is>
+      </c>
+      <c r="F14" s="18" t="inlineStr">
+        <is>
+          <t>-1.59%</t>
         </is>
       </c>
     </row>
@@ -3556,22 +3526,22 @@
       </c>
       <c r="C15" s="17" t="inlineStr">
         <is>
-          <t>2.00%</t>
+          <t>5.85%</t>
         </is>
       </c>
       <c r="D15" s="14" t="inlineStr">
         <is>
-          <t>1.020000</t>
+          <t>1.058503</t>
         </is>
       </c>
       <c r="E15" s="14" t="inlineStr">
         <is>
-          <t>0.98418666</t>
-        </is>
-      </c>
-      <c r="F15" s="19" t="inlineStr">
-        <is>
-          <t>-1.58%</t>
+          <t>1.04169550</t>
+        </is>
+      </c>
+      <c r="F15" s="17" t="inlineStr">
+        <is>
+          <t>4.17%</t>
         </is>
       </c>
     </row>
@@ -3579,24 +3549,24 @@
       <c r="B16" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="C16" s="18" t="inlineStr">
-        <is>
-          <t>5.85%</t>
+      <c r="C16" s="20" t="inlineStr">
+        <is>
+          <t>7.11%</t>
         </is>
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>1.058500</t>
+          <t>1.071130</t>
         </is>
       </c>
       <c r="E16" s="8" t="inlineStr">
         <is>
-          <t>1.04176158</t>
-        </is>
-      </c>
-      <c r="F16" s="18" t="inlineStr">
-        <is>
-          <t>4.18%</t>
+          <t>1.11579116</t>
+        </is>
+      </c>
+      <c r="F16" s="20" t="inlineStr">
+        <is>
+          <t>11.58%</t>
         </is>
       </c>
     </row>
@@ -3604,24 +3574,24 @@
       <c r="B17" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="C17" s="17" t="inlineStr">
-        <is>
-          <t>7.11%</t>
+      <c r="C17" s="19" t="inlineStr">
+        <is>
+          <t>-3.52%</t>
         </is>
       </c>
       <c r="D17" s="14" t="inlineStr">
         <is>
-          <t>1.071100</t>
+          <t>0.964821</t>
         </is>
       </c>
       <c r="E17" s="14" t="inlineStr">
         <is>
-          <t>1.11583083</t>
+          <t>1.07653880</t>
         </is>
       </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>11.58%</t>
+          <t>7.65%</t>
         </is>
       </c>
     </row>
@@ -3629,24 +3599,24 @@
       <c r="B18" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C18" s="20" t="inlineStr">
-        <is>
-          <t>-3.52%</t>
+      <c r="C18" s="18" t="inlineStr">
+        <is>
+          <t>-2.22%</t>
         </is>
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>0.964800</t>
+          <t>0.977770</t>
         </is>
       </c>
       <c r="E18" s="8" t="inlineStr">
         <is>
-          <t>1.07655359</t>
-        </is>
-      </c>
-      <c r="F18" s="18" t="inlineStr">
-        <is>
-          <t>7.66%</t>
+          <t>1.05260747</t>
+        </is>
+      </c>
+      <c r="F18" s="20" t="inlineStr">
+        <is>
+          <t>5.26%</t>
         </is>
       </c>
     </row>
@@ -3654,24 +3624,24 @@
       <c r="B19" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="C19" s="19" t="inlineStr">
-        <is>
-          <t>-2.22%</t>
+      <c r="C19" s="17" t="inlineStr">
+        <is>
+          <t>10.42%</t>
         </is>
       </c>
       <c r="D19" s="14" t="inlineStr">
         <is>
-          <t>0.977800</t>
+          <t>1.104198</t>
         </is>
       </c>
       <c r="E19" s="14" t="inlineStr">
         <is>
-          <t>1.05265410</t>
+          <t>1.16228724</t>
         </is>
       </c>
       <c r="F19" s="17" t="inlineStr">
         <is>
-          <t>5.27%</t>
+          <t>16.23%</t>
         </is>
       </c>
     </row>
@@ -3679,24 +3649,24 @@
       <c r="B20" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="C20" s="18" t="inlineStr">
-        <is>
-          <t>10.42%</t>
+      <c r="C20" s="20" t="inlineStr">
+        <is>
+          <t>3.73%</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>1.104200</t>
+          <t>1.037314</t>
         </is>
       </c>
       <c r="E20" s="8" t="inlineStr">
         <is>
-          <t>1.16234065</t>
-        </is>
-      </c>
-      <c r="F20" s="18" t="inlineStr">
-        <is>
-          <t>16.23%</t>
+          <t>1.20565629</t>
+        </is>
+      </c>
+      <c r="F20" s="20" t="inlineStr">
+        <is>
+          <t>20.57%</t>
         </is>
       </c>
     </row>
@@ -3704,24 +3674,24 @@
       <c r="B21" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C21" s="17" t="inlineStr">
-        <is>
-          <t>3.73%</t>
+      <c r="C21" s="19" t="inlineStr">
+        <is>
+          <t>-0.71%</t>
         </is>
       </c>
       <c r="D21" s="14" t="inlineStr">
         <is>
-          <t>1.037300</t>
+          <t>0.992939</t>
         </is>
       </c>
       <c r="E21" s="14" t="inlineStr">
         <is>
-          <t>1.20569596</t>
+          <t>1.19714306</t>
         </is>
       </c>
       <c r="F21" s="17" t="inlineStr">
         <is>
-          <t>20.57%</t>
+          <t>19.71%</t>
         </is>
       </c>
     </row>
@@ -3731,22 +3701,22 @@
       </c>
       <c r="C22" s="20" t="inlineStr">
         <is>
-          <t>-0.71%</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>0.992900</t>
+          <t>1.023968</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>1.19713552</t>
-        </is>
-      </c>
-      <c r="F22" s="18" t="inlineStr">
-        <is>
-          <t>19.71%</t>
+          <t>1.22583671</t>
+        </is>
+      </c>
+      <c r="F22" s="20" t="inlineStr">
+        <is>
+          <t>22.58%</t>
         </is>
       </c>
     </row>
@@ -3756,22 +3726,22 @@
       </c>
       <c r="C23" s="17" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>3.98%</t>
         </is>
       </c>
       <c r="D23" s="14" t="inlineStr">
         <is>
-          <t>1.024000</t>
+          <t>1.039830</t>
         </is>
       </c>
       <c r="E23" s="14" t="inlineStr">
         <is>
-          <t>1.22586677</t>
+          <t>1.27466199</t>
         </is>
       </c>
       <c r="F23" s="17" t="inlineStr">
         <is>
-          <t>22.59%</t>
+          <t>27.47%</t>
         </is>
       </c>
     </row>
@@ -3779,24 +3749,24 @@
       <c r="B24" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="C24" s="18" t="inlineStr">
-        <is>
-          <t>3.98%</t>
+      <c r="C24" s="20" t="inlineStr">
+        <is>
+          <t>5.17%</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>1.039800</t>
+          <t>1.051655</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>1.27465627</t>
-        </is>
-      </c>
-      <c r="F24" s="18" t="inlineStr">
-        <is>
-          <t>27.47%</t>
+          <t>1.34050520</t>
+        </is>
+      </c>
+      <c r="F24" s="20" t="inlineStr">
+        <is>
+          <t>34.05%</t>
         </is>
       </c>
     </row>
@@ -3806,22 +3776,22 @@
       </c>
       <c r="C25" s="17" t="inlineStr">
         <is>
-          <t>5.17%</t>
+          <t>0.62%</t>
         </is>
       </c>
       <c r="D25" s="14" t="inlineStr">
         <is>
-          <t>1.051700</t>
+          <t>1.006199</t>
         </is>
       </c>
       <c r="E25" s="14" t="inlineStr">
         <is>
-          <t>1.34055600</t>
+          <t>1.34881544</t>
         </is>
       </c>
       <c r="F25" s="17" t="inlineStr">
         <is>
-          <t>34.06%</t>
+          <t>34.88%</t>
         </is>
       </c>
     </row>
@@ -3829,24 +3799,24 @@
       <c r="B26" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="C26" s="18" t="inlineStr">
-        <is>
-          <t>0.62%</t>
+      <c r="C26" s="20" t="inlineStr">
+        <is>
+          <t>2.47%</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>1.006200</t>
+          <t>1.024718</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>1.34886744</t>
-        </is>
-      </c>
-      <c r="F26" s="18" t="inlineStr">
-        <is>
-          <t>34.89%</t>
+          <t>1.38215613</t>
+        </is>
+      </c>
+      <c r="F26" s="20" t="inlineStr">
+        <is>
+          <t>38.22%</t>
         </is>
       </c>
     </row>
@@ -3856,22 +3826,22 @@
       </c>
       <c r="C27" s="17" t="inlineStr">
         <is>
-          <t>2.47%</t>
+          <t>2.27%</t>
         </is>
       </c>
       <c r="D27" s="14" t="inlineStr">
         <is>
-          <t>1.024700</t>
+          <t>1.022749</t>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
         <is>
-          <t>1.38218447</t>
+          <t>1.41359873</t>
         </is>
       </c>
       <c r="F27" s="17" t="inlineStr">
         <is>
-          <t>38.22%</t>
+          <t>41.36%</t>
         </is>
       </c>
     </row>
@@ -3879,24 +3849,24 @@
       <c r="B28" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="C28" s="18" t="inlineStr">
-        <is>
-          <t>2.27%</t>
+      <c r="C28" s="20" t="inlineStr">
+        <is>
+          <t>2.77%</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>1.022700</t>
+          <t>1.027725</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>1.41356006</t>
-        </is>
-      </c>
-      <c r="F28" s="18" t="inlineStr">
-        <is>
-          <t>41.36%</t>
+          <t>1.45279131</t>
+        </is>
+      </c>
+      <c r="F28" s="20" t="inlineStr">
+        <is>
+          <t>45.28%</t>
         </is>
       </c>
     </row>
@@ -3904,24 +3874,24 @@
       <c r="B29" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="C29" s="17" t="inlineStr">
-        <is>
-          <t>2.77%</t>
+      <c r="C29" s="19" t="inlineStr">
+        <is>
+          <t>-3.93%</t>
         </is>
       </c>
       <c r="D29" s="14" t="inlineStr">
         <is>
-          <t>1.027700</t>
+          <t>0.960711</t>
         </is>
       </c>
       <c r="E29" s="14" t="inlineStr">
         <is>
-          <t>1.45271567</t>
+          <t>1.39571303</t>
         </is>
       </c>
       <c r="F29" s="17" t="inlineStr">
         <is>
-          <t>45.27%</t>
+          <t>39.57%</t>
         </is>
       </c>
     </row>
@@ -3931,22 +3901,22 @@
       </c>
       <c r="C30" s="20" t="inlineStr">
         <is>
-          <t>-3.93%</t>
+          <t>6.82%</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>0.960700</t>
+          <t>1.068193</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>1.39562394</t>
-        </is>
-      </c>
-      <c r="F30" s="18" t="inlineStr">
-        <is>
-          <t>39.56%</t>
+          <t>1.49089151</t>
+        </is>
+      </c>
+      <c r="F30" s="20" t="inlineStr">
+        <is>
+          <t>49.09%</t>
         </is>
       </c>
     </row>
@@ -3954,24 +3924,24 @@
       <c r="B31" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="C31" s="17" t="inlineStr">
-        <is>
-          <t>6.82%</t>
+      <c r="C31" s="19" t="inlineStr">
+        <is>
+          <t>-0.47%</t>
         </is>
       </c>
       <c r="D31" s="14" t="inlineStr">
         <is>
-          <t>1.068200</t>
+          <t>0.995250</t>
         </is>
       </c>
       <c r="E31" s="14" t="inlineStr">
         <is>
-          <t>1.49080550</t>
+          <t>1.48380986</t>
         </is>
       </c>
       <c r="F31" s="17" t="inlineStr">
         <is>
-          <t>49.08%</t>
+          <t>48.38%</t>
         </is>
       </c>
     </row>
@@ -3981,22 +3951,22 @@
       </c>
       <c r="C32" s="20" t="inlineStr">
         <is>
-          <t>-0.47%</t>
+          <t>4.16%</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>0.995300</t>
+          <t>1.041571</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>1.48379871</t>
-        </is>
-      </c>
-      <c r="F32" s="18" t="inlineStr">
-        <is>
-          <t>48.38%</t>
+          <t>1.54549258</t>
+        </is>
+      </c>
+      <c r="F32" s="20" t="inlineStr">
+        <is>
+          <t>54.55%</t>
         </is>
       </c>
     </row>
@@ -4004,24 +3974,24 @@
       <c r="B33" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="C33" s="17" t="inlineStr">
-        <is>
-          <t>4.16%</t>
+      <c r="C33" s="19" t="inlineStr">
+        <is>
+          <t>-4.81%</t>
         </is>
       </c>
       <c r="D33" s="14" t="inlineStr">
         <is>
-          <t>1.041600</t>
+          <t>0.951941</t>
         </is>
       </c>
       <c r="E33" s="14" t="inlineStr">
         <is>
-          <t>1.54552474</t>
+          <t>1.47121812</t>
         </is>
       </c>
       <c r="F33" s="17" t="inlineStr">
         <is>
-          <t>54.55%</t>
+          <t>47.12%</t>
         </is>
       </c>
     </row>
@@ -4029,24 +3999,24 @@
       <c r="B34" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="C34" s="20" t="inlineStr">
-        <is>
-          <t>-4.81%</t>
+      <c r="C34" s="18" t="inlineStr">
+        <is>
+          <t>-2.66%</t>
         </is>
       </c>
       <c r="D34" s="8" t="inlineStr">
         <is>
-          <t>0.951900</t>
+          <t>0.973392</t>
         </is>
       </c>
       <c r="E34" s="8" t="inlineStr">
         <is>
-          <t>1.47118500</t>
-        </is>
-      </c>
-      <c r="F34" s="18" t="inlineStr">
-        <is>
-          <t>47.12%</t>
+          <t>1.43207172</t>
+        </is>
+      </c>
+      <c r="F34" s="20" t="inlineStr">
+        <is>
+          <t>43.21%</t>
         </is>
       </c>
     </row>
@@ -4054,24 +4024,24 @@
       <c r="B35" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="C35" s="19" t="inlineStr">
-        <is>
-          <t>-2.66%</t>
+      <c r="C35" s="17" t="inlineStr">
+        <is>
+          <t>3.47%</t>
         </is>
       </c>
       <c r="D35" s="14" t="inlineStr">
         <is>
-          <t>0.973400</t>
+          <t>1.034708</t>
         </is>
       </c>
       <c r="E35" s="14" t="inlineStr">
         <is>
-          <t>1.43205148</t>
+          <t>1.48177608</t>
         </is>
       </c>
       <c r="F35" s="17" t="inlineStr">
         <is>
-          <t>43.21%</t>
+          <t>48.18%</t>
         </is>
       </c>
     </row>
@@ -4081,22 +4051,22 @@
       </c>
       <c r="C36" s="18" t="inlineStr">
         <is>
-          <t>3.47%</t>
+          <t>-7.98%</t>
         </is>
       </c>
       <c r="D36" s="8" t="inlineStr">
         <is>
-          <t>1.034700</t>
+          <t>0.920151</t>
         </is>
       </c>
       <c r="E36" s="8" t="inlineStr">
         <is>
-          <t>1.48174366</t>
-        </is>
-      </c>
-      <c r="F36" s="18" t="inlineStr">
-        <is>
-          <t>48.17%</t>
+          <t>1.36345833</t>
+        </is>
+      </c>
+      <c r="F36" s="20" t="inlineStr">
+        <is>
+          <t>36.35%</t>
         </is>
       </c>
     </row>
@@ -4104,24 +4074,24 @@
       <c r="B37" s="11" t="n">
         <v>29</v>
       </c>
-      <c r="C37" s="19" t="inlineStr">
-        <is>
-          <t>-7.98%</t>
+      <c r="C37" s="17" t="inlineStr">
+        <is>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="D37" s="14" t="inlineStr">
         <is>
-          <t>0.920200</t>
+          <t>1.001894</t>
         </is>
       </c>
       <c r="E37" s="14" t="inlineStr">
         <is>
-          <t>1.36350052</t>
+          <t>1.36604034</t>
         </is>
       </c>
       <c r="F37" s="17" t="inlineStr">
         <is>
-          <t>36.35%</t>
+          <t>36.60%</t>
         </is>
       </c>
     </row>
@@ -4131,22 +4101,22 @@
       </c>
       <c r="C38" s="18" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>-7.73%</t>
         </is>
       </c>
       <c r="D38" s="8" t="inlineStr">
         <is>
-          <t>1.001900</t>
+          <t>0.922712</t>
         </is>
       </c>
       <c r="E38" s="8" t="inlineStr">
         <is>
-          <t>1.36609117</t>
-        </is>
-      </c>
-      <c r="F38" s="18" t="inlineStr">
-        <is>
-          <t>36.61%</t>
+          <t>1.26046129</t>
+        </is>
+      </c>
+      <c r="F38" s="20" t="inlineStr">
+        <is>
+          <t>26.05%</t>
         </is>
       </c>
     </row>
@@ -4154,24 +4124,24 @@
       <c r="B39" s="11" t="n">
         <v>31</v>
       </c>
-      <c r="C39" s="19" t="inlineStr">
-        <is>
-          <t>-7.73%</t>
+      <c r="C39" s="17" t="inlineStr">
+        <is>
+          <t>8.83%</t>
         </is>
       </c>
       <c r="D39" s="14" t="inlineStr">
         <is>
-          <t>0.922700</t>
+          <t>1.088342</t>
         </is>
       </c>
       <c r="E39" s="14" t="inlineStr">
         <is>
-          <t>1.26049232</t>
+          <t>1.37181244</t>
         </is>
       </c>
       <c r="F39" s="17" t="inlineStr">
         <is>
-          <t>26.05%</t>
+          <t>37.18%</t>
         </is>
       </c>
     </row>
@@ -4181,22 +4151,22 @@
       </c>
       <c r="C40" s="18" t="inlineStr">
         <is>
-          <t>8.83%</t>
+          <t>-3.36%</t>
         </is>
       </c>
       <c r="D40" s="8" t="inlineStr">
         <is>
-          <t>1.088300</t>
+          <t>0.966425</t>
         </is>
       </c>
       <c r="E40" s="8" t="inlineStr">
         <is>
-          <t>1.37179379</t>
-        </is>
-      </c>
-      <c r="F40" s="18" t="inlineStr">
-        <is>
-          <t>37.18%</t>
+          <t>1.32575323</t>
+        </is>
+      </c>
+      <c r="F40" s="20" t="inlineStr">
+        <is>
+          <t>32.58%</t>
         </is>
       </c>
     </row>
@@ -4206,22 +4176,22 @@
       </c>
       <c r="C41" s="19" t="inlineStr">
         <is>
-          <t>-3.36%</t>
+          <t>-8.58%</t>
         </is>
       </c>
       <c r="D41" s="14" t="inlineStr">
         <is>
-          <t>0.966400</t>
+          <t>0.914243</t>
         </is>
       </c>
       <c r="E41" s="14" t="inlineStr">
         <is>
-          <t>1.32570152</t>
+          <t>1.21206061</t>
         </is>
       </c>
       <c r="F41" s="17" t="inlineStr">
         <is>
-          <t>32.57%</t>
+          <t>21.21%</t>
         </is>
       </c>
     </row>
@@ -4231,22 +4201,22 @@
       </c>
       <c r="C42" s="20" t="inlineStr">
         <is>
-          <t>-8.58%</t>
+          <t>7.68%</t>
         </is>
       </c>
       <c r="D42" s="8" t="inlineStr">
         <is>
-          <t>0.914200</t>
+          <t>1.076790</t>
         </is>
       </c>
       <c r="E42" s="8" t="inlineStr">
         <is>
-          <t>1.21195633</t>
-        </is>
-      </c>
-      <c r="F42" s="18" t="inlineStr">
-        <is>
-          <t>21.20%</t>
+          <t>1.30513424</t>
+        </is>
+      </c>
+      <c r="F42" s="20" t="inlineStr">
+        <is>
+          <t>30.51%</t>
         </is>
       </c>
     </row>
@@ -4256,22 +4226,22 @@
       </c>
       <c r="C43" s="17" t="inlineStr">
         <is>
-          <t>7.68%</t>
+          <t>5.58%</t>
         </is>
       </c>
       <c r="D43" s="14" t="inlineStr">
         <is>
-          <t>1.076800</t>
+          <t>1.055755</t>
         </is>
       </c>
       <c r="E43" s="14" t="inlineStr">
         <is>
-          <t>1.30503458</t>
+          <t>1.37790211</t>
         </is>
       </c>
       <c r="F43" s="17" t="inlineStr">
         <is>
-          <t>30.50%</t>
+          <t>37.79%</t>
         </is>
       </c>
     </row>
@@ -4281,22 +4251,22 @@
       </c>
       <c r="C44" s="18" t="inlineStr">
         <is>
-          <t>5.58%</t>
+          <t>-5.55%</t>
         </is>
       </c>
       <c r="D44" s="8" t="inlineStr">
         <is>
-          <t>1.055800</t>
+          <t>0.944508</t>
         </is>
       </c>
       <c r="E44" s="8" t="inlineStr">
         <is>
-          <t>1.37785551</t>
-        </is>
-      </c>
-      <c r="F44" s="18" t="inlineStr">
-        <is>
-          <t>37.79%</t>
+          <t>1.30144000</t>
+        </is>
+      </c>
+      <c r="F44" s="20" t="inlineStr">
+        <is>
+          <t>30.14%</t>
         </is>
       </c>
     </row>
@@ -4304,24 +4274,24 @@
       <c r="B45" s="11" t="n">
         <v>37</v>
       </c>
-      <c r="C45" s="19" t="inlineStr">
-        <is>
-          <t>-5.55%</t>
+      <c r="C45" s="17" t="inlineStr">
+        <is>
+          <t>6.21%</t>
         </is>
       </c>
       <c r="D45" s="14" t="inlineStr">
         <is>
-          <t>0.944500</t>
+          <t>1.062128</t>
         </is>
       </c>
       <c r="E45" s="14" t="inlineStr">
         <is>
-          <t>1.30138453</t>
+          <t>1.38229551</t>
         </is>
       </c>
       <c r="F45" s="17" t="inlineStr">
         <is>
-          <t>30.14%</t>
+          <t>38.23%</t>
         </is>
       </c>
     </row>
@@ -4331,22 +4301,22 @@
       </c>
       <c r="C46" s="18" t="inlineStr">
         <is>
-          <t>6.21%</t>
+          <t>-2.57%</t>
         </is>
       </c>
       <c r="D46" s="8" t="inlineStr">
         <is>
-          <t>1.062100</t>
+          <t>0.974286</t>
         </is>
       </c>
       <c r="E46" s="8" t="inlineStr">
         <is>
-          <t>1.38220051</t>
-        </is>
-      </c>
-      <c r="F46" s="18" t="inlineStr">
-        <is>
-          <t>38.22%</t>
+          <t>1.34675069</t>
+        </is>
+      </c>
+      <c r="F46" s="20" t="inlineStr">
+        <is>
+          <t>34.68%</t>
         </is>
       </c>
     </row>
@@ -4354,24 +4324,24 @@
       <c r="B47" s="11" t="n">
         <v>39</v>
       </c>
-      <c r="C47" s="19" t="inlineStr">
-        <is>
-          <t>-2.57%</t>
+      <c r="C47" s="17" t="inlineStr">
+        <is>
+          <t>3.37%</t>
         </is>
       </c>
       <c r="D47" s="14" t="inlineStr">
         <is>
-          <t>0.974300</t>
+          <t>1.033689</t>
         </is>
       </c>
       <c r="E47" s="14" t="inlineStr">
         <is>
-          <t>1.34667795</t>
+          <t>1.39212088</t>
         </is>
       </c>
       <c r="F47" s="17" t="inlineStr">
         <is>
-          <t>34.67%</t>
+          <t>39.21%</t>
         </is>
       </c>
     </row>
@@ -4379,24 +4349,24 @@
       <c r="B48" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="C48" s="18" t="inlineStr">
-        <is>
-          <t>3.37%</t>
+      <c r="C48" s="20" t="inlineStr">
+        <is>
+          <t>1.73%</t>
         </is>
       </c>
       <c r="D48" s="8" t="inlineStr">
         <is>
-          <t>1.033700</t>
+          <t>1.017264</t>
         </is>
       </c>
       <c r="E48" s="8" t="inlineStr">
         <is>
-          <t>1.39206100</t>
-        </is>
-      </c>
-      <c r="F48" s="18" t="inlineStr">
-        <is>
-          <t>39.21%</t>
+          <t>1.41615406</t>
+        </is>
+      </c>
+      <c r="F48" s="20" t="inlineStr">
+        <is>
+          <t>41.62%</t>
         </is>
       </c>
     </row>
@@ -4406,22 +4376,22 @@
       </c>
       <c r="C49" s="17" t="inlineStr">
         <is>
-          <t>1.73%</t>
+          <t>0.69%</t>
         </is>
       </c>
       <c r="D49" s="14" t="inlineStr">
         <is>
-          <t>1.017300</t>
+          <t>1.006852</t>
         </is>
       </c>
       <c r="E49" s="14" t="inlineStr">
         <is>
-          <t>1.41614366</t>
+          <t>1.42585746</t>
         </is>
       </c>
       <c r="F49" s="17" t="inlineStr">
         <is>
-          <t>41.61%</t>
+          <t>42.59%</t>
         </is>
       </c>
     </row>
@@ -4429,24 +4399,24 @@
       <c r="B50" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="C50" s="18" t="inlineStr">
-        <is>
-          <t>0.69%</t>
+      <c r="C50" s="20" t="inlineStr">
+        <is>
+          <t>6.48%</t>
         </is>
       </c>
       <c r="D50" s="8" t="inlineStr">
         <is>
-          <t>1.006900</t>
+          <t>1.064808</t>
         </is>
       </c>
       <c r="E50" s="8" t="inlineStr">
         <is>
-          <t>1.42591505</t>
-        </is>
-      </c>
-      <c r="F50" s="18" t="inlineStr">
-        <is>
-          <t>42.59%</t>
+          <t>1.51826405</t>
+        </is>
+      </c>
+      <c r="F50" s="20" t="inlineStr">
+        <is>
+          <t>51.83%</t>
         </is>
       </c>
     </row>
@@ -4456,22 +4426,22 @@
       </c>
       <c r="C51" s="17" t="inlineStr">
         <is>
-          <t>6.48%</t>
+          <t>3.23%</t>
         </is>
       </c>
       <c r="D51" s="14" t="inlineStr">
         <is>
-          <t>1.064800</t>
+          <t>1.032314</t>
         </is>
       </c>
       <c r="E51" s="14" t="inlineStr">
         <is>
-          <t>1.51831434</t>
+          <t>1.56732479</t>
         </is>
       </c>
       <c r="F51" s="17" t="inlineStr">
         <is>
-          <t>51.83%</t>
+          <t>56.73%</t>
         </is>
       </c>
     </row>
@@ -4481,22 +4451,22 @@
       </c>
       <c r="C52" s="18" t="inlineStr">
         <is>
-          <t>3.23%</t>
+          <t>-1.44%</t>
         </is>
       </c>
       <c r="D52" s="8" t="inlineStr">
         <is>
-          <t>1.032300</t>
+          <t>0.985583</t>
         </is>
       </c>
       <c r="E52" s="8" t="inlineStr">
         <is>
-          <t>1.56735590</t>
-        </is>
-      </c>
-      <c r="F52" s="18" t="inlineStr">
-        <is>
-          <t>56.74%</t>
+          <t>1.54472834</t>
+        </is>
+      </c>
+      <c r="F52" s="20" t="inlineStr">
+        <is>
+          <t>54.47%</t>
         </is>
       </c>
     </row>
@@ -4506,22 +4476,22 @@
       </c>
       <c r="C53" s="19" t="inlineStr">
         <is>
-          <t>-1.44%</t>
+          <t>-4.62%</t>
         </is>
       </c>
       <c r="D53" s="14" t="inlineStr">
         <is>
-          <t>0.985600</t>
+          <t>0.953778</t>
         </is>
       </c>
       <c r="E53" s="14" t="inlineStr">
         <is>
-          <t>1.54478597</t>
+          <t>1.47332784</t>
         </is>
       </c>
       <c r="F53" s="17" t="inlineStr">
         <is>
-          <t>54.48%</t>
+          <t>47.33%</t>
         </is>
       </c>
     </row>
@@ -4529,24 +4499,24 @@
       <c r="B54" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="C54" s="20" t="inlineStr">
-        <is>
-          <t>-4.62%</t>
+      <c r="C54" s="18" t="inlineStr">
+        <is>
+          <t>-1.93%</t>
         </is>
       </c>
       <c r="D54" s="8" t="inlineStr">
         <is>
-          <t>0.953800</t>
+          <t>0.980660</t>
         </is>
       </c>
       <c r="E54" s="8" t="inlineStr">
         <is>
-          <t>1.47341686</t>
-        </is>
-      </c>
-      <c r="F54" s="18" t="inlineStr">
-        <is>
-          <t>47.34%</t>
+          <t>1.44483414</t>
+        </is>
+      </c>
+      <c r="F54" s="20" t="inlineStr">
+        <is>
+          <t>44.48%</t>
         </is>
       </c>
     </row>
@@ -4554,24 +4524,24 @@
       <c r="B55" s="11" t="n">
         <v>47</v>
       </c>
-      <c r="C55" s="19" t="inlineStr">
-        <is>
-          <t>-1.93%</t>
+      <c r="C55" s="17" t="inlineStr">
+        <is>
+          <t>8.68%</t>
         </is>
       </c>
       <c r="D55" s="14" t="inlineStr">
         <is>
-          <t>0.980700</t>
+          <t>1.086819</t>
         </is>
       </c>
       <c r="E55" s="14" t="inlineStr">
         <is>
-          <t>1.44497991</t>
+          <t>1.57027279</t>
         </is>
       </c>
       <c r="F55" s="17" t="inlineStr">
         <is>
-          <t>44.50%</t>
+          <t>57.03%</t>
         </is>
       </c>
     </row>
@@ -4579,24 +4549,24 @@
       <c r="B56" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="C56" s="18" t="inlineStr">
-        <is>
-          <t>8.68%</t>
+      <c r="C56" s="20" t="inlineStr">
+        <is>
+          <t>4.71%</t>
         </is>
       </c>
       <c r="D56" s="8" t="inlineStr">
         <is>
-          <t>1.086800</t>
+          <t>1.047104</t>
         </is>
       </c>
       <c r="E56" s="8" t="inlineStr">
         <is>
-          <t>1.57040417</t>
-        </is>
-      </c>
-      <c r="F56" s="18" t="inlineStr">
-        <is>
-          <t>57.04%</t>
+          <t>1.64423930</t>
+        </is>
+      </c>
+      <c r="F56" s="20" t="inlineStr">
+        <is>
+          <t>64.42%</t>
         </is>
       </c>
     </row>
@@ -4606,22 +4576,22 @@
       </c>
       <c r="C57" s="17" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>1.88%</t>
         </is>
       </c>
       <c r="D57" s="14" t="inlineStr">
         <is>
-          <t>1.047100</t>
+          <t>1.018792</t>
         </is>
       </c>
       <c r="E57" s="14" t="inlineStr">
         <is>
-          <t>1.64437021</t>
+          <t>1.67513824</t>
         </is>
       </c>
       <c r="F57" s="17" t="inlineStr">
         <is>
-          <t>64.44%</t>
+          <t>67.51%</t>
         </is>
       </c>
     </row>
@@ -4629,24 +4599,24 @@
       <c r="B58" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="C58" s="18" t="inlineStr">
-        <is>
-          <t>1.88%</t>
+      <c r="C58" s="20" t="inlineStr">
+        <is>
+          <t>4.86%</t>
         </is>
       </c>
       <c r="D58" s="8" t="inlineStr">
         <is>
-          <t>1.018800</t>
+          <t>1.048589</t>
         </is>
       </c>
       <c r="E58" s="8" t="inlineStr">
         <is>
-          <t>1.67528437</t>
-        </is>
-      </c>
-      <c r="F58" s="18" t="inlineStr">
-        <is>
-          <t>67.53%</t>
+          <t>1.75653140</t>
+        </is>
+      </c>
+      <c r="F58" s="20" t="inlineStr">
+        <is>
+          <t>75.65%</t>
         </is>
       </c>
     </row>
@@ -4656,22 +4626,22 @@
       </c>
       <c r="C59" s="17" t="inlineStr">
         <is>
-          <t>4.86%</t>
+          <t>3.31%</t>
         </is>
       </c>
       <c r="D59" s="14" t="inlineStr">
         <is>
-          <t>1.048600</t>
+          <t>1.033098</t>
         </is>
       </c>
       <c r="E59" s="14" t="inlineStr">
         <is>
-          <t>1.75670319</t>
+          <t>1.81466937</t>
         </is>
       </c>
       <c r="F59" s="17" t="inlineStr">
         <is>
-          <t>75.67%</t>
+          <t>81.47%</t>
         </is>
       </c>
     </row>
@@ -4681,22 +4651,22 @@
       </c>
       <c r="C60" s="18" t="inlineStr">
         <is>
-          <t>3.31%</t>
+          <t>-3.73%</t>
         </is>
       </c>
       <c r="D60" s="8" t="inlineStr">
         <is>
-          <t>1.033100</t>
+          <t>0.962710</t>
         </is>
       </c>
       <c r="E60" s="8" t="inlineStr">
         <is>
-          <t>1.81485006</t>
-        </is>
-      </c>
-      <c r="F60" s="18" t="inlineStr">
-        <is>
-          <t>81.49%</t>
+          <t>1.74700005</t>
+        </is>
+      </c>
+      <c r="F60" s="20" t="inlineStr">
+        <is>
+          <t>74.70%</t>
         </is>
       </c>
     </row>
@@ -4704,24 +4674,24 @@
       <c r="B61" s="11" t="n">
         <v>53</v>
       </c>
-      <c r="C61" s="19" t="inlineStr">
-        <is>
-          <t>-3.73%</t>
+      <c r="C61" s="17" t="inlineStr">
+        <is>
+          <t>4.72%</t>
         </is>
       </c>
       <c r="D61" s="14" t="inlineStr">
         <is>
-          <t>0.962700</t>
+          <t>1.047246</t>
         </is>
       </c>
       <c r="E61" s="14" t="inlineStr">
         <is>
-          <t>1.74715615</t>
+          <t>1.82953908</t>
         </is>
       </c>
       <c r="F61" s="17" t="inlineStr">
         <is>
-          <t>74.72%</t>
+          <t>82.95%</t>
         </is>
       </c>
     </row>
@@ -4729,24 +4699,24 @@
       <c r="B62" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="C62" s="18" t="inlineStr">
-        <is>
-          <t>4.72%</t>
+      <c r="C62" s="20" t="inlineStr">
+        <is>
+          <t>3.72%</t>
         </is>
       </c>
       <c r="D62" s="8" t="inlineStr">
         <is>
-          <t>1.047200</t>
+          <t>1.037188</t>
         </is>
       </c>
       <c r="E62" s="8" t="inlineStr">
         <is>
-          <t>1.82962192</t>
-        </is>
-      </c>
-      <c r="F62" s="18" t="inlineStr">
-        <is>
-          <t>82.96%</t>
+          <t>1.89757663</t>
+        </is>
+      </c>
+      <c r="F62" s="20" t="inlineStr">
+        <is>
+          <t>89.76%</t>
         </is>
       </c>
     </row>
@@ -4756,22 +4726,22 @@
       </c>
       <c r="C63" s="17" t="inlineStr">
         <is>
-          <t>3.72%</t>
+          <t>1.58%</t>
         </is>
       </c>
       <c r="D63" s="14" t="inlineStr">
         <is>
-          <t>1.037200</t>
+          <t>1.015797</t>
         </is>
       </c>
       <c r="E63" s="14" t="inlineStr">
         <is>
-          <t>1.89768386</t>
+          <t>1.92755264</t>
         </is>
       </c>
       <c r="F63" s="17" t="inlineStr">
         <is>
-          <t>89.77%</t>
+          <t>92.76%</t>
         </is>
       </c>
     </row>
@@ -4779,24 +4749,24 @@
       <c r="B64" s="5" t="n">
         <v>56</v>
       </c>
-      <c r="C64" s="18" t="inlineStr">
-        <is>
-          <t>1.58%</t>
+      <c r="C64" s="20" t="inlineStr">
+        <is>
+          <t>2.65%</t>
         </is>
       </c>
       <c r="D64" s="8" t="inlineStr">
         <is>
-          <t>1.015800</t>
+          <t>1.026523</t>
         </is>
       </c>
       <c r="E64" s="8" t="inlineStr">
         <is>
-          <t>1.92766727</t>
-        </is>
-      </c>
-      <c r="F64" s="18" t="inlineStr">
-        <is>
-          <t>92.77%</t>
+          <t>1.97867628</t>
+        </is>
+      </c>
+      <c r="F64" s="20" t="inlineStr">
+        <is>
+          <t>97.87%</t>
         </is>
       </c>
     </row>
@@ -4806,22 +4776,22 @@
       </c>
       <c r="C65" s="17" t="inlineStr">
         <is>
-          <t>2.65%</t>
+          <t>2.05%</t>
         </is>
       </c>
       <c r="D65" s="14" t="inlineStr">
         <is>
-          <t>1.026500</t>
+          <t>1.020512</t>
         </is>
       </c>
       <c r="E65" s="14" t="inlineStr">
         <is>
-          <t>1.97875045</t>
+          <t>2.01926202</t>
         </is>
       </c>
       <c r="F65" s="17" t="inlineStr">
         <is>
-          <t>97.88%</t>
+          <t>101.93%</t>
         </is>
       </c>
     </row>
@@ -4831,22 +4801,22 @@
       </c>
       <c r="C66" s="18" t="inlineStr">
         <is>
-          <t>2.05%</t>
+          <t>-0.70%</t>
         </is>
       </c>
       <c r="D66" s="8" t="inlineStr">
         <is>
-          <t>1.020500</t>
+          <t>0.992977</t>
         </is>
       </c>
       <c r="E66" s="8" t="inlineStr">
         <is>
-          <t>2.01931483</t>
-        </is>
-      </c>
-      <c r="F66" s="18" t="inlineStr">
-        <is>
-          <t>101.93%</t>
+          <t>2.00507989</t>
+        </is>
+      </c>
+      <c r="F66" s="20" t="inlineStr">
+        <is>
+          <t>100.51%</t>
         </is>
       </c>
     </row>
@@ -4854,24 +4824,24 @@
       <c r="B67" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="C67" s="19" t="inlineStr">
-        <is>
-          <t>-0.70%</t>
+      <c r="C67" s="17" t="inlineStr">
+        <is>
+          <t>5.81%</t>
         </is>
       </c>
       <c r="D67" s="14" t="inlineStr">
         <is>
-          <t>0.993000</t>
+          <t>1.058098</t>
         </is>
       </c>
       <c r="E67" s="14" t="inlineStr">
         <is>
-          <t>2.00517963</t>
+          <t>2.12157007</t>
         </is>
       </c>
       <c r="F67" s="17" t="inlineStr">
         <is>
-          <t>100.52%</t>
+          <t>112.16%</t>
         </is>
       </c>
     </row>
@@ -4881,94 +4851,69 @@
       </c>
       <c r="C68" s="18" t="inlineStr">
         <is>
-          <t>5.81%</t>
+          <t>-1.88%</t>
         </is>
       </c>
       <c r="D68" s="8" t="inlineStr">
         <is>
-          <t>1.058100</t>
+          <t>0.981201</t>
         </is>
       </c>
       <c r="E68" s="8" t="inlineStr">
         <is>
-          <t>2.12168056</t>
-        </is>
-      </c>
-      <c r="F68" s="18" t="inlineStr">
-        <is>
-          <t>112.17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="11" t="n">
-        <v>61</v>
-      </c>
-      <c r="C69" s="19" t="inlineStr">
-        <is>
-          <t>-1.88%</t>
-        </is>
-      </c>
-      <c r="D69" s="14" t="inlineStr">
-        <is>
-          <t>0.981200</t>
-        </is>
-      </c>
-      <c r="E69" s="14" t="inlineStr">
-        <is>
-          <t>2.08179297</t>
-        </is>
-      </c>
-      <c r="F69" s="17" t="inlineStr">
-        <is>
-          <t>108.18%</t>
+          <t>2.08168687</t>
+        </is>
+      </c>
+      <c r="F68" s="20" t="inlineStr">
+        <is>
+          <t>108.17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="25" t="inlineStr">
+        <is>
+          <t>FINAL CALCULATION:</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="B72" s="25" t="inlineStr">
-        <is>
-          <t>FINAL CALCULATION:</t>
+      <c r="B72" s="26" t="inlineStr">
+        <is>
+          <t>Product of all 60 (1+R) values: 2.08168687</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="26" t="inlineStr">
         <is>
-          <t>Product of all 61 (1+R) values: 2.08179297</t>
+          <t>Subtract 1: 2.08168687 - 1 = 1.08168687</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="26" t="inlineStr">
         <is>
-          <t>Subtract 1: 2.08179297 - 1 = 1.08179297</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" s="26" t="inlineStr">
-        <is>
-          <t>Convert to %: 1.08179297 × 100 = 108.18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" s="27" t="inlineStr">
+          <t>Convert to %: 1.08168687 × 100 = 108.17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="27" t="inlineStr">
         <is>
           <t>CUMULATIVE RETURN:</t>
         </is>
       </c>
-      <c r="C77" s="28" t="inlineStr">
-        <is>
-          <t>108.18%</t>
+      <c r="C76" s="28" t="inlineStr">
+        <is>
+          <t>108.17%</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B72:E72"/>
     <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B71:E71"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4980,7 +4925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:F91"/>
+  <dimension ref="B2:F90"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5033,21 +4978,21 @@
     <row r="9">
       <c r="B9" s="30" t="inlineStr">
         <is>
-          <t>μ = Σ(Ri) / n = 0.81100000 / 61 = 0.01329508</t>
+          <t>μ = Σ(Ri) / n = 0.81095644 / 60 = 0.01351594</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Mean Monthly Return: 1.3295%</t>
+          <t>Mean Monthly Return: 1.3516%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="24" t="inlineStr">
         <is>
-          <t>STEP 2: Calculate ALL 61 Deviations (Ri - μ)</t>
+          <t>STEP 2: Calculate ALL 60 Deviations (Ri - μ)</t>
         </is>
       </c>
     </row>
@@ -5084,22 +5029,22 @@
       </c>
       <c r="C14" s="14" t="inlineStr">
         <is>
-          <t>0.000000</t>
+          <t>0.002473</t>
         </is>
       </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E14" s="14" t="inlineStr">
         <is>
-          <t>-0.013295</t>
+          <t>-0.011043</t>
         </is>
       </c>
       <c r="F14" s="14" t="inlineStr">
         <is>
-          <t>0.0001767592</t>
+          <t>0.0001219371</t>
         </is>
       </c>
     </row>
@@ -5109,22 +5054,22 @@
       </c>
       <c r="C15" s="8" t="inlineStr">
         <is>
-          <t>0.002500</t>
+          <t>-0.077172</t>
         </is>
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E15" s="8" t="inlineStr">
         <is>
-          <t>-0.010795</t>
+          <t>-0.090687</t>
         </is>
       </c>
       <c r="F15" s="8" t="inlineStr">
         <is>
-          <t>0.0001165338</t>
+          <t>0.0082242171</t>
         </is>
       </c>
     </row>
@@ -5134,22 +5079,22 @@
       </c>
       <c r="C16" s="14" t="inlineStr">
         <is>
-          <t>-0.077200</t>
+          <t>-0.114550</t>
         </is>
       </c>
       <c r="D16" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E16" s="14" t="inlineStr">
         <is>
-          <t>-0.090495</t>
+          <t>-0.128066</t>
         </is>
       </c>
       <c r="F16" s="14" t="inlineStr">
         <is>
-          <t>0.0081893599</t>
+          <t>0.0164007886</t>
         </is>
       </c>
     </row>
@@ -5159,22 +5104,22 @@
       </c>
       <c r="C17" s="8" t="inlineStr">
         <is>
-          <t>-0.114500</t>
+          <t>0.126506</t>
         </is>
       </c>
       <c r="D17" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E17" s="8" t="inlineStr">
         <is>
-          <t>-0.127795</t>
+          <t>0.112990</t>
         </is>
       </c>
       <c r="F17" s="8" t="inlineStr">
         <is>
-          <t>0.0163315830</t>
+          <t>0.0127667670</t>
         </is>
       </c>
     </row>
@@ -5184,22 +5129,22 @@
       </c>
       <c r="C18" s="14" t="inlineStr">
         <is>
-          <t>0.126500</t>
+          <t>0.045567</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E18" s="14" t="inlineStr">
         <is>
-          <t>0.113205</t>
+          <t>0.032051</t>
         </is>
       </c>
       <c r="F18" s="14" t="inlineStr">
         <is>
-          <t>0.0128153535</t>
+          <t>0.0010272507</t>
         </is>
       </c>
     </row>
@@ -5209,22 +5154,22 @@
       </c>
       <c r="C19" s="8" t="inlineStr">
         <is>
-          <t>0.045600</t>
+          <t>0.020012</t>
         </is>
       </c>
       <c r="D19" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E19" s="8" t="inlineStr">
         <is>
-          <t>0.032305</t>
+          <t>0.006496</t>
         </is>
       </c>
       <c r="F19" s="8" t="inlineStr">
         <is>
-          <t>0.0010436077</t>
+          <t>0.0000421952</t>
         </is>
       </c>
     </row>
@@ -5234,22 +5179,22 @@
       </c>
       <c r="C20" s="14" t="inlineStr">
         <is>
-          <t>0.020000</t>
+          <t>0.058503</t>
         </is>
       </c>
       <c r="D20" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E20" s="14" t="inlineStr">
         <is>
-          <t>0.006705</t>
+          <t>0.044987</t>
         </is>
       </c>
       <c r="F20" s="14" t="inlineStr">
         <is>
-          <t>0.0000449559</t>
+          <t>0.0020238738</t>
         </is>
       </c>
     </row>
@@ -5259,22 +5204,22 @@
       </c>
       <c r="C21" s="8" t="inlineStr">
         <is>
-          <t>0.058500</t>
+          <t>0.071130</t>
         </is>
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>0.045205</t>
+          <t>0.057614</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
         <is>
-          <t>0.0020434846</t>
+          <t>0.0033193648</t>
         </is>
       </c>
     </row>
@@ -5284,22 +5229,22 @@
       </c>
       <c r="C22" s="14" t="inlineStr">
         <is>
-          <t>0.071100</t>
+          <t>-0.035179</t>
         </is>
       </c>
       <c r="D22" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E22" s="14" t="inlineStr">
         <is>
-          <t>0.057805</t>
+          <t>-0.048695</t>
         </is>
       </c>
       <c r="F22" s="14" t="inlineStr">
         <is>
-          <t>0.0033414085</t>
+          <t>0.0023711923</t>
         </is>
       </c>
     </row>
@@ -5309,22 +5254,22 @@
       </c>
       <c r="C23" s="8" t="inlineStr">
         <is>
-          <t>-0.035200</t>
+          <t>-0.022230</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>-0.048495</t>
+          <t>-0.035746</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
         <is>
-          <t>0.0023517730</t>
+          <t>0.0012777637</t>
         </is>
       </c>
     </row>
@@ -5334,22 +5279,22 @@
       </c>
       <c r="C24" s="14" t="inlineStr">
         <is>
-          <t>-0.022200</t>
+          <t>0.104198</t>
         </is>
       </c>
       <c r="D24" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E24" s="14" t="inlineStr">
         <is>
-          <t>-0.035495</t>
+          <t>0.090682</t>
         </is>
       </c>
       <c r="F24" s="14" t="inlineStr">
         <is>
-          <t>0.0012599008</t>
+          <t>0.0082232657</t>
         </is>
       </c>
     </row>
@@ -5359,22 +5304,22 @@
       </c>
       <c r="C25" s="8" t="inlineStr">
         <is>
-          <t>0.104200</t>
+          <t>0.037314</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>0.090905</t>
+          <t>0.023798</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
         <is>
-          <t>0.0082637041</t>
+          <t>0.0005663258</t>
         </is>
       </c>
     </row>
@@ -5384,22 +5329,22 @@
       </c>
       <c r="C26" s="14" t="inlineStr">
         <is>
-          <t>0.037300</t>
+          <t>-0.007061</t>
         </is>
       </c>
       <c r="D26" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E26" s="14" t="inlineStr">
         <is>
-          <t>0.024005</t>
+          <t>-0.020577</t>
         </is>
       </c>
       <c r="F26" s="14" t="inlineStr">
         <is>
-          <t>0.0005762361</t>
+          <t>0.0004234136</t>
         </is>
       </c>
     </row>
@@ -5409,22 +5354,22 @@
       </c>
       <c r="C27" s="8" t="inlineStr">
         <is>
-          <t>-0.007100</t>
+          <t>0.023968</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>-0.020395</t>
+          <t>0.010452</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
         <is>
-          <t>0.0004159594</t>
+          <t>0.0001092547</t>
         </is>
       </c>
     </row>
@@ -5434,22 +5379,22 @@
       </c>
       <c r="C28" s="14" t="inlineStr">
         <is>
-          <t>0.024000</t>
+          <t>0.039830</t>
         </is>
       </c>
       <c r="D28" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E28" s="14" t="inlineStr">
         <is>
-          <t>0.010705</t>
+          <t>0.026314</t>
         </is>
       </c>
       <c r="F28" s="14" t="inlineStr">
         <is>
-          <t>0.0001145953</t>
+          <t>0.0006924384</t>
         </is>
       </c>
     </row>
@@ -5459,22 +5404,22 @@
       </c>
       <c r="C29" s="8" t="inlineStr">
         <is>
-          <t>0.039800</t>
+          <t>0.051655</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>0.026505</t>
+          <t>0.038139</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
         <is>
-          <t>0.0007025107</t>
+          <t>0.0014546203</t>
         </is>
       </c>
     </row>
@@ -5484,22 +5429,22 @@
       </c>
       <c r="C30" s="14" t="inlineStr">
         <is>
-          <t>0.051700</t>
+          <t>0.006199</t>
         </is>
       </c>
       <c r="D30" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E30" s="14" t="inlineStr">
         <is>
-          <t>0.038405</t>
+          <t>-0.007317</t>
         </is>
       </c>
       <c r="F30" s="14" t="inlineStr">
         <is>
-          <t>0.0014749377</t>
+          <t>0.0000535327</t>
         </is>
       </c>
     </row>
@@ -5509,22 +5454,22 @@
       </c>
       <c r="C31" s="8" t="inlineStr">
         <is>
-          <t>0.006200</t>
+          <t>0.024718</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>-0.007095</t>
+          <t>0.011203</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
         <is>
-          <t>0.0000503402</t>
+          <t>0.0001254972</t>
         </is>
       </c>
     </row>
@@ -5534,22 +5479,22 @@
       </c>
       <c r="C32" s="14" t="inlineStr">
         <is>
-          <t>0.024700</t>
+          <t>0.022749</t>
         </is>
       </c>
       <c r="D32" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E32" s="14" t="inlineStr">
         <is>
-          <t>0.011405</t>
+          <t>0.009233</t>
         </is>
       </c>
       <c r="F32" s="14" t="inlineStr">
         <is>
-          <t>0.0001300722</t>
+          <t>0.0000852485</t>
         </is>
       </c>
     </row>
@@ -5559,22 +5504,22 @@
       </c>
       <c r="C33" s="8" t="inlineStr">
         <is>
-          <t>0.022700</t>
+          <t>0.027725</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>0.009405</t>
+          <t>0.014209</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
         <is>
-          <t>0.0000884525</t>
+          <t>0.0002019085</t>
         </is>
       </c>
     </row>
@@ -5584,22 +5529,22 @@
       </c>
       <c r="C34" s="14" t="inlineStr">
         <is>
-          <t>0.027700</t>
+          <t>-0.039289</t>
         </is>
       </c>
       <c r="D34" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E34" s="14" t="inlineStr">
         <is>
-          <t>0.014405</t>
+          <t>-0.052805</t>
         </is>
       </c>
       <c r="F34" s="14" t="inlineStr">
         <is>
-          <t>0.0002075017</t>
+          <t>0.0027883303</t>
         </is>
       </c>
     </row>
@@ -5609,22 +5554,22 @@
       </c>
       <c r="C35" s="8" t="inlineStr">
         <is>
-          <t>-0.039300</t>
+          <t>0.068193</t>
         </is>
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
         <is>
-          <t>-0.052595</t>
+          <t>0.054678</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
         <is>
-          <t>0.0027662426</t>
+          <t>0.0029896298</t>
         </is>
       </c>
     </row>
@@ -5634,22 +5579,22 @@
       </c>
       <c r="C36" s="14" t="inlineStr">
         <is>
-          <t>0.068200</t>
+          <t>-0.004750</t>
         </is>
       </c>
       <c r="D36" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E36" s="14" t="inlineStr">
         <is>
-          <t>0.054905</t>
+          <t>-0.018266</t>
         </is>
       </c>
       <c r="F36" s="14" t="inlineStr">
         <is>
-          <t>0.0030145500</t>
+          <t>0.0003336425</t>
         </is>
       </c>
     </row>
@@ -5659,22 +5604,22 @@
       </c>
       <c r="C37" s="8" t="inlineStr">
         <is>
-          <t>-0.004700</t>
+          <t>0.041571</t>
         </is>
       </c>
       <c r="D37" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E37" s="8" t="inlineStr">
         <is>
-          <t>-0.017995</t>
+          <t>0.028055</t>
         </is>
       </c>
       <c r="F37" s="8" t="inlineStr">
         <is>
-          <t>0.0003238230</t>
+          <t>0.0007870585</t>
         </is>
       </c>
     </row>
@@ -5684,22 +5629,22 @@
       </c>
       <c r="C38" s="14" t="inlineStr">
         <is>
-          <t>0.041600</t>
+          <t>-0.048059</t>
         </is>
       </c>
       <c r="D38" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E38" s="14" t="inlineStr">
         <is>
-          <t>0.028305</t>
+          <t>-0.061575</t>
         </is>
       </c>
       <c r="F38" s="14" t="inlineStr">
         <is>
-          <t>0.0008011684</t>
+          <t>0.0037914444</t>
         </is>
       </c>
     </row>
@@ -5709,22 +5654,22 @@
       </c>
       <c r="C39" s="8" t="inlineStr">
         <is>
-          <t>-0.048100</t>
+          <t>-0.026608</t>
         </is>
       </c>
       <c r="D39" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E39" s="8" t="inlineStr">
         <is>
-          <t>-0.061395</t>
+          <t>-0.040124</t>
         </is>
       </c>
       <c r="F39" s="8" t="inlineStr">
         <is>
-          <t>0.0037693561</t>
+          <t>0.0016099430</t>
         </is>
       </c>
     </row>
@@ -5734,22 +5679,22 @@
       </c>
       <c r="C40" s="14" t="inlineStr">
         <is>
-          <t>-0.026600</t>
+          <t>0.034708</t>
         </is>
       </c>
       <c r="D40" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E40" s="14" t="inlineStr">
         <is>
-          <t>-0.039895</t>
+          <t>0.021192</t>
         </is>
       </c>
       <c r="F40" s="14" t="inlineStr">
         <is>
-          <t>0.0015916176</t>
+          <t>0.0004491039</t>
         </is>
       </c>
     </row>
@@ -5759,22 +5704,22 @@
       </c>
       <c r="C41" s="8" t="inlineStr">
         <is>
-          <t>0.034700</t>
+          <t>-0.079849</t>
         </is>
       </c>
       <c r="D41" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E41" s="8" t="inlineStr">
         <is>
-          <t>0.021405</t>
+          <t>-0.093365</t>
         </is>
       </c>
       <c r="F41" s="8" t="inlineStr">
         <is>
-          <t>0.0004581705</t>
+          <t>0.0087169382</t>
         </is>
       </c>
     </row>
@@ -5784,22 +5729,22 @@
       </c>
       <c r="C42" s="14" t="inlineStr">
         <is>
-          <t>-0.079800</t>
+          <t>0.001894</t>
         </is>
       </c>
       <c r="D42" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E42" s="14" t="inlineStr">
         <is>
-          <t>-0.093095</t>
+          <t>-0.011622</t>
         </is>
       </c>
       <c r="F42" s="14" t="inlineStr">
         <is>
-          <t>0.0086666943</t>
+          <t>0.0001350760</t>
         </is>
       </c>
     </row>
@@ -5809,22 +5754,22 @@
       </c>
       <c r="C43" s="8" t="inlineStr">
         <is>
-          <t>0.001900</t>
+          <t>-0.077288</t>
         </is>
       </c>
       <c r="D43" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E43" s="8" t="inlineStr">
         <is>
-          <t>-0.011395</t>
+          <t>-0.090804</t>
         </is>
       </c>
       <c r="F43" s="8" t="inlineStr">
         <is>
-          <t>0.0001298479</t>
+          <t>0.0082454260</t>
         </is>
       </c>
     </row>
@@ -5834,22 +5779,22 @@
       </c>
       <c r="C44" s="14" t="inlineStr">
         <is>
-          <t>-0.077300</t>
+          <t>0.088342</t>
         </is>
       </c>
       <c r="D44" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E44" s="14" t="inlineStr">
         <is>
-          <t>-0.090595</t>
+          <t>0.074826</t>
         </is>
       </c>
       <c r="F44" s="14" t="inlineStr">
         <is>
-          <t>0.0082074689</t>
+          <t>0.0055988773</t>
         </is>
       </c>
     </row>
@@ -5859,22 +5804,22 @@
       </c>
       <c r="C45" s="8" t="inlineStr">
         <is>
-          <t>0.088300</t>
+          <t>-0.033575</t>
         </is>
       </c>
       <c r="D45" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E45" s="8" t="inlineStr">
         <is>
-          <t>0.075005</t>
+          <t>-0.047091</t>
         </is>
       </c>
       <c r="F45" s="8" t="inlineStr">
         <is>
-          <t>0.0056257377</t>
+          <t>0.0022175985</t>
         </is>
       </c>
     </row>
@@ -5884,22 +5829,22 @@
       </c>
       <c r="C46" s="14" t="inlineStr">
         <is>
-          <t>-0.033600</t>
+          <t>-0.085757</t>
         </is>
       </c>
       <c r="D46" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E46" s="14" t="inlineStr">
         <is>
-          <t>-0.046895</t>
+          <t>-0.099273</t>
         </is>
       </c>
       <c r="F46" s="14" t="inlineStr">
         <is>
-          <t>0.0021991487</t>
+          <t>0.0098551156</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5854,22 @@
       </c>
       <c r="C47" s="8" t="inlineStr">
         <is>
-          <t>-0.085800</t>
+          <t>0.076790</t>
         </is>
       </c>
       <c r="D47" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E47" s="8" t="inlineStr">
         <is>
-          <t>-0.099095</t>
+          <t>0.063274</t>
         </is>
       </c>
       <c r="F47" s="8" t="inlineStr">
         <is>
-          <t>0.0098198353</t>
+          <t>0.0040035532</t>
         </is>
       </c>
     </row>
@@ -5934,22 +5879,22 @@
       </c>
       <c r="C48" s="14" t="inlineStr">
         <is>
-          <t>0.076800</t>
+          <t>0.055755</t>
         </is>
       </c>
       <c r="D48" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E48" s="14" t="inlineStr">
         <is>
-          <t>0.063505</t>
+          <t>0.042239</t>
         </is>
       </c>
       <c r="F48" s="14" t="inlineStr">
         <is>
-          <t>0.0040328746</t>
+          <t>0.0017841457</t>
         </is>
       </c>
     </row>
@@ -5959,22 +5904,22 @@
       </c>
       <c r="C49" s="8" t="inlineStr">
         <is>
-          <t>0.055800</t>
+          <t>-0.055492</t>
         </is>
       </c>
       <c r="D49" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E49" s="8" t="inlineStr">
         <is>
-          <t>0.042505</t>
+          <t>-0.069008</t>
         </is>
       </c>
       <c r="F49" s="8" t="inlineStr">
         <is>
-          <t>0.0018066681</t>
+          <t>0.0047620527</t>
         </is>
       </c>
     </row>
@@ -5984,22 +5929,22 @@
       </c>
       <c r="C50" s="14" t="inlineStr">
         <is>
-          <t>-0.055500</t>
+          <t>0.062128</t>
         </is>
       </c>
       <c r="D50" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
-          <t>-0.068795</t>
+          <t>0.048612</t>
         </is>
       </c>
       <c r="F50" s="14" t="inlineStr">
         <is>
-          <t>0.0047327633</t>
+          <t>0.0023631058</t>
         </is>
       </c>
     </row>
@@ -6009,22 +5954,22 @@
       </c>
       <c r="C51" s="8" t="inlineStr">
         <is>
-          <t>0.062100</t>
+          <t>-0.025714</t>
         </is>
       </c>
       <c r="D51" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E51" s="8" t="inlineStr">
         <is>
-          <t>0.048805</t>
+          <t>-0.039230</t>
         </is>
       </c>
       <c r="F51" s="8" t="inlineStr">
         <is>
-          <t>0.0023819200</t>
+          <t>0.0015390149</t>
         </is>
       </c>
     </row>
@@ -6034,22 +5979,22 @@
       </c>
       <c r="C52" s="14" t="inlineStr">
         <is>
-          <t>-0.025700</t>
+          <t>0.033689</t>
         </is>
       </c>
       <c r="D52" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E52" s="14" t="inlineStr">
         <is>
-          <t>-0.038995</t>
+          <t>0.020173</t>
         </is>
       </c>
       <c r="F52" s="14" t="inlineStr">
         <is>
-          <t>0.0015206164</t>
+          <t>0.0004069373</t>
         </is>
       </c>
     </row>
@@ -6059,22 +6004,22 @@
       </c>
       <c r="C53" s="8" t="inlineStr">
         <is>
-          <t>0.033700</t>
+          <t>0.017264</t>
         </is>
       </c>
       <c r="D53" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E53" s="8" t="inlineStr">
         <is>
-          <t>0.020405</t>
+          <t>0.003748</t>
         </is>
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>0.0004163607</t>
+          <t>0.0000140459</t>
         </is>
       </c>
     </row>
@@ -6084,22 +6029,22 @@
       </c>
       <c r="C54" s="14" t="inlineStr">
         <is>
-          <t>0.017300</t>
+          <t>0.006852</t>
         </is>
       </c>
       <c r="D54" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E54" s="14" t="inlineStr">
         <is>
-          <t>0.004005</t>
+          <t>-0.006664</t>
         </is>
       </c>
       <c r="F54" s="14" t="inlineStr">
         <is>
-          <t>0.0000160394</t>
+          <t>0.0000444090</t>
         </is>
       </c>
     </row>
@@ -6109,22 +6054,22 @@
       </c>
       <c r="C55" s="8" t="inlineStr">
         <is>
-          <t>0.006900</t>
+          <t>0.064808</t>
         </is>
       </c>
       <c r="D55" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E55" s="8" t="inlineStr">
         <is>
-          <t>-0.006395</t>
+          <t>0.051292</t>
         </is>
       </c>
       <c r="F55" s="8" t="inlineStr">
         <is>
-          <t>0.0000408971</t>
+          <t>0.0026308483</t>
         </is>
       </c>
     </row>
@@ -6134,22 +6079,22 @@
       </c>
       <c r="C56" s="14" t="inlineStr">
         <is>
-          <t>0.064800</t>
+          <t>0.032314</t>
         </is>
       </c>
       <c r="D56" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E56" s="14" t="inlineStr">
         <is>
-          <t>0.051505</t>
+          <t>0.018798</t>
         </is>
       </c>
       <c r="F56" s="14" t="inlineStr">
         <is>
-          <t>0.0026527566</t>
+          <t>0.0003533559</t>
         </is>
       </c>
     </row>
@@ -6159,22 +6104,22 @@
       </c>
       <c r="C57" s="8" t="inlineStr">
         <is>
-          <t>0.032300</t>
+          <t>-0.014417</t>
         </is>
       </c>
       <c r="D57" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E57" s="8" t="inlineStr">
         <is>
-          <t>0.019005</t>
+          <t>-0.027933</t>
         </is>
       </c>
       <c r="F57" s="8" t="inlineStr">
         <is>
-          <t>0.0003611869</t>
+          <t>0.0007802608</t>
         </is>
       </c>
     </row>
@@ -6184,22 +6129,22 @@
       </c>
       <c r="C58" s="14" t="inlineStr">
         <is>
-          <t>-0.014400</t>
+          <t>-0.046222</t>
         </is>
       </c>
       <c r="D58" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E58" s="14" t="inlineStr">
         <is>
-          <t>-0.027695</t>
+          <t>-0.059738</t>
         </is>
       </c>
       <c r="F58" s="14" t="inlineStr">
         <is>
-          <t>0.0007670176</t>
+          <t>0.0035686268</t>
         </is>
       </c>
     </row>
@@ -6209,22 +6154,22 @@
       </c>
       <c r="C59" s="8" t="inlineStr">
         <is>
-          <t>-0.046200</t>
+          <t>-0.019340</t>
         </is>
       </c>
       <c r="D59" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E59" s="8" t="inlineStr">
         <is>
-          <t>-0.059495</t>
+          <t>-0.032856</t>
         </is>
       </c>
       <c r="F59" s="8" t="inlineStr">
         <is>
-          <t>0.0035396648</t>
+          <t>0.0010794924</t>
         </is>
       </c>
     </row>
@@ -6234,22 +6179,22 @@
       </c>
       <c r="C60" s="14" t="inlineStr">
         <is>
-          <t>-0.019300</t>
+          <t>0.086819</t>
         </is>
       </c>
       <c r="D60" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E60" s="14" t="inlineStr">
         <is>
-          <t>-0.032595</t>
+          <t>0.073303</t>
         </is>
       </c>
       <c r="F60" s="14" t="inlineStr">
         <is>
-          <t>0.0010624394</t>
+          <t>0.0053732978</t>
         </is>
       </c>
     </row>
@@ -6259,22 +6204,22 @@
       </c>
       <c r="C61" s="8" t="inlineStr">
         <is>
-          <t>0.086800</t>
+          <t>0.047104</t>
         </is>
       </c>
       <c r="D61" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E61" s="8" t="inlineStr">
         <is>
-          <t>0.073505</t>
+          <t>0.033588</t>
         </is>
       </c>
       <c r="F61" s="8" t="inlineStr">
         <is>
-          <t>0.0054029730</t>
+          <t>0.0011281742</t>
         </is>
       </c>
     </row>
@@ -6284,22 +6229,22 @@
       </c>
       <c r="C62" s="14" t="inlineStr">
         <is>
-          <t>0.047100</t>
+          <t>0.018792</t>
         </is>
       </c>
       <c r="D62" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E62" s="14" t="inlineStr">
         <is>
-          <t>0.033805</t>
+          <t>0.005276</t>
         </is>
       </c>
       <c r="F62" s="14" t="inlineStr">
         <is>
-          <t>0.0011427725</t>
+          <t>0.0000278393</t>
         </is>
       </c>
     </row>
@@ -6309,22 +6254,22 @@
       </c>
       <c r="C63" s="8" t="inlineStr">
         <is>
-          <t>0.018800</t>
+          <t>0.048589</t>
         </is>
       </c>
       <c r="D63" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E63" s="8" t="inlineStr">
         <is>
-          <t>0.005505</t>
+          <t>0.035073</t>
         </is>
       </c>
       <c r="F63" s="8" t="inlineStr">
         <is>
-          <t>0.0000303041</t>
+          <t>0.0012301139</t>
         </is>
       </c>
     </row>
@@ -6334,22 +6279,22 @@
       </c>
       <c r="C64" s="14" t="inlineStr">
         <is>
-          <t>0.048600</t>
+          <t>0.033098</t>
         </is>
       </c>
       <c r="D64" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E64" s="14" t="inlineStr">
         <is>
-          <t>0.035305</t>
+          <t>0.019582</t>
         </is>
       </c>
       <c r="F64" s="14" t="inlineStr">
         <is>
-          <t>0.0012464372</t>
+          <t>0.0003834636</t>
         </is>
       </c>
     </row>
@@ -6359,22 +6304,22 @@
       </c>
       <c r="C65" s="8" t="inlineStr">
         <is>
-          <t>0.033100</t>
+          <t>-0.037290</t>
         </is>
       </c>
       <c r="D65" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E65" s="8" t="inlineStr">
         <is>
-          <t>0.019805</t>
+          <t>-0.050806</t>
         </is>
       </c>
       <c r="F65" s="8" t="inlineStr">
         <is>
-          <t>0.0003922348</t>
+          <t>0.0025812603</t>
         </is>
       </c>
     </row>
@@ -6384,22 +6329,22 @@
       </c>
       <c r="C66" s="14" t="inlineStr">
         <is>
-          <t>-0.037300</t>
+          <t>0.047246</t>
         </is>
       </c>
       <c r="D66" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E66" s="14" t="inlineStr">
         <is>
-          <t>-0.050595</t>
+          <t>0.033730</t>
         </is>
       </c>
       <c r="F66" s="14" t="inlineStr">
         <is>
-          <t>0.0025598623</t>
+          <t>0.0011377274</t>
         </is>
       </c>
     </row>
@@ -6409,22 +6354,22 @@
       </c>
       <c r="C67" s="8" t="inlineStr">
         <is>
-          <t>0.047200</t>
+          <t>0.037188</t>
         </is>
       </c>
       <c r="D67" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E67" s="8" t="inlineStr">
         <is>
-          <t>0.033905</t>
+          <t>0.023672</t>
         </is>
       </c>
       <c r="F67" s="8" t="inlineStr">
         <is>
-          <t>0.0011495435</t>
+          <t>0.0005603831</t>
         </is>
       </c>
     </row>
@@ -6434,22 +6379,22 @@
       </c>
       <c r="C68" s="14" t="inlineStr">
         <is>
-          <t>0.037200</t>
+          <t>0.015797</t>
         </is>
       </c>
       <c r="D68" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E68" s="14" t="inlineStr">
         <is>
-          <t>0.023905</t>
+          <t>0.002281</t>
         </is>
       </c>
       <c r="F68" s="14" t="inlineStr">
         <is>
-          <t>0.0005714451</t>
+          <t>0.0000052032</t>
         </is>
       </c>
     </row>
@@ -6459,22 +6404,22 @@
       </c>
       <c r="C69" s="8" t="inlineStr">
         <is>
-          <t>0.015800</t>
+          <t>0.026523</t>
         </is>
       </c>
       <c r="D69" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E69" s="8" t="inlineStr">
         <is>
-          <t>0.002505</t>
+          <t>0.013007</t>
         </is>
       </c>
       <c r="F69" s="8" t="inlineStr">
         <is>
-          <t>0.0000062746</t>
+          <t>0.0001691722</t>
         </is>
       </c>
     </row>
@@ -6484,22 +6429,22 @@
       </c>
       <c r="C70" s="14" t="inlineStr">
         <is>
-          <t>0.026500</t>
+          <t>0.020512</t>
         </is>
       </c>
       <c r="D70" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E70" s="14" t="inlineStr">
         <is>
-          <t>0.013205</t>
+          <t>0.006996</t>
         </is>
       </c>
       <c r="F70" s="14" t="inlineStr">
         <is>
-          <t>0.0001743699</t>
+          <t>0.0000489388</t>
         </is>
       </c>
     </row>
@@ -6509,22 +6454,22 @@
       </c>
       <c r="C71" s="8" t="inlineStr">
         <is>
-          <t>0.020500</t>
+          <t>-0.007023</t>
         </is>
       </c>
       <c r="D71" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E71" s="8" t="inlineStr">
         <is>
-          <t>0.007205</t>
+          <t>-0.020539</t>
         </is>
       </c>
       <c r="F71" s="8" t="inlineStr">
         <is>
-          <t>0.0000519108</t>
+          <t>0.0004218655</t>
         </is>
       </c>
     </row>
@@ -6534,22 +6479,22 @@
       </c>
       <c r="C72" s="14" t="inlineStr">
         <is>
-          <t>-0.007000</t>
+          <t>0.058098</t>
         </is>
       </c>
       <c r="D72" s="14" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E72" s="14" t="inlineStr">
         <is>
-          <t>-0.020295</t>
+          <t>0.044582</t>
         </is>
       </c>
       <c r="F72" s="14" t="inlineStr">
         <is>
-          <t>0.0004118904</t>
+          <t>0.0019875178</t>
         </is>
       </c>
     </row>
@@ -6559,144 +6504,119 @@
       </c>
       <c r="C73" s="8" t="inlineStr">
         <is>
-          <t>0.058100</t>
+          <t>-0.018799</t>
         </is>
       </c>
       <c r="D73" s="8" t="inlineStr">
         <is>
-          <t>0.013295</t>
+          <t>0.013516</t>
         </is>
       </c>
       <c r="E73" s="8" t="inlineStr">
         <is>
-          <t>0.044805</t>
+          <t>-0.032315</t>
         </is>
       </c>
       <c r="F73" s="8" t="inlineStr">
         <is>
-          <t>0.0020074807</t>
+          <t>0.0010442496</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="B74" s="11" t="n">
-        <v>61</v>
-      </c>
-      <c r="C74" s="14" t="inlineStr">
-        <is>
-          <t>-0.018800</t>
-        </is>
-      </c>
-      <c r="D74" s="14" t="inlineStr">
-        <is>
-          <t>0.013295</t>
-        </is>
-      </c>
-      <c r="E74" s="14" t="inlineStr">
-        <is>
-          <t>-0.032095</t>
-        </is>
-      </c>
-      <c r="F74" s="14" t="inlineStr">
-        <is>
-          <t>0.0010300943</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" s="25" t="inlineStr">
+      <c r="B74" s="25" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="C75" s="31" t="n"/>
-      <c r="D75" s="31" t="n"/>
-      <c r="E75" s="31" t="n"/>
-      <c r="F75" s="25" t="inlineStr">
-        <is>
-          <t>0.1466214885</t>
+      <c r="C74" s="31" t="n"/>
+      <c r="D74" s="31" t="n"/>
+      <c r="E74" s="31" t="n"/>
+      <c r="F74" s="25" t="inlineStr">
+        <is>
+          <t>0.1464580950</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="24" t="inlineStr">
+        <is>
+          <t>STEP 3: Sum of Squared Deviations</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="24" t="inlineStr">
-        <is>
-          <t>STEP 3: Sum of Squared Deviations</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" s="21" t="inlineStr">
-        <is>
-          <t>Σ(Ri - μ)² = 0.1466214885</t>
+      <c r="B77" s="21" t="inlineStr">
+        <is>
+          <t>Σ(Ri - μ)² = 0.1464580950</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="24" t="inlineStr">
+        <is>
+          <t>STEP 4: Variance (with Bessel's correction)</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="B80" s="24" t="inlineStr">
-        <is>
-          <t>STEP 4: Variance (with Bessel's correction)</t>
+      <c r="B80" s="30" t="inlineStr">
+        <is>
+          <t>Variance = 0.1464580950 / (60 - 1)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="30" t="inlineStr">
         <is>
-          <t>Variance = 0.1466214885 / (61 - 1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" s="30" t="inlineStr">
-        <is>
-          <t>Variance = 0.1466214885 / 60 = 0.0024436915</t>
+          <t>Variance = 0.1464580950 / 59 = 0.0024823406</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="24" t="inlineStr">
+        <is>
+          <t>STEP 5: Monthly Standard Deviation</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="B84" s="24" t="inlineStr">
-        <is>
-          <t>STEP 5: Monthly Standard Deviation</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="B85" s="30" t="inlineStr">
-        <is>
-          <t>σ_monthly = √(0.0024436915) = 0.04943371</t>
+      <c r="B84" s="30" t="inlineStr">
+        <is>
+          <t>σ_monthly = √(0.0024823406) = 0.04982309</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="32" t="inlineStr">
+        <is>
+          <t>STEP 6: Annualize (× √12)</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="B87" s="32" t="inlineStr">
-        <is>
-          <t>STEP 6: Annualize (× √12)</t>
+      <c r="B87" s="30" t="inlineStr">
+        <is>
+          <t>σ_annual = 0.04982309 × √12</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="30" t="inlineStr">
         <is>
-          <t>σ_annual = 0.04943371 × √12</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" s="30" t="inlineStr">
-        <is>
-          <t>σ_annual = 0.04943371 × 3.4641 = 0.17124339</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="B91" s="27" t="inlineStr">
+          <t>σ_annual = 0.04982309 × 3.4641 = 0.17259226</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="27" t="inlineStr">
         <is>
           <t>ANNUALIZED VOLATILITY:</t>
         </is>
       </c>
-      <c r="C91" s="33" t="inlineStr">
-        <is>
-          <t>17.12%</t>
+      <c r="C90" s="33" t="inlineStr">
+        <is>
+          <t>17.26%</t>
         </is>
       </c>
     </row>
@@ -6754,7 +6674,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rp (Annualized Return) = 0.15516348 = 15.5163%</t>
+          <t>Rp (Annualized Return) = 0.15793207 = 15.7932%</t>
         </is>
       </c>
     </row>
@@ -6768,7 +6688,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>σp (Ann. Volatility) = 0.17124339 = 17.1243%</t>
+          <t>σp (Ann. Volatility) = 0.17259226 = 17.2592%</t>
         </is>
       </c>
     </row>
@@ -6788,13 +6708,13 @@
     </row>
     <row r="15">
       <c r="B15" s="30">
-        <f> 0.15516348 - 0.03570000</f>
+        <f> 0.15793207 - 0.03570000</f>
         <v/>
       </c>
     </row>
     <row r="16">
       <c r="B16">
-        <f> 0.11946348 (11.9463%)</f>
+        <f> 0.12223207 (12.2232%)</f>
         <v/>
       </c>
     </row>
@@ -6808,13 +6728,13 @@
     <row r="19">
       <c r="B19" s="30" t="inlineStr">
         <is>
-          <t>Sharpe = 0.11946348 / 0.17124339</t>
+          <t>Sharpe = 0.12223207 / 0.17259226</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="26">
-        <f> 0.697624</f>
+        <f> 0.708213</f>
         <v/>
       </c>
     </row>
@@ -6826,7 +6746,7 @@
       </c>
       <c r="C22" s="34" t="inlineStr">
         <is>
-          <t>0.6976</t>
+          <t>0.7082</t>
         </is>
       </c>
     </row>
@@ -6848,7 +6768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:F87"/>
+  <dimension ref="B2:F86"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6938,7 +6858,7 @@
       </c>
       <c r="C12" s="36" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.25%</t>
         </is>
       </c>
       <c r="D12" s="35" t="inlineStr">
@@ -6948,12 +6868,12 @@
       </c>
       <c r="E12" s="37" t="inlineStr">
         <is>
-          <t>-0.002975</t>
+          <t>-0.000502</t>
         </is>
       </c>
       <c r="F12" s="37" t="inlineStr">
         <is>
-          <t>0.0000088506</t>
+          <t>0.0000002516</t>
         </is>
       </c>
     </row>
@@ -6963,7 +6883,7 @@
       </c>
       <c r="C13" s="36" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>-7.72%</t>
         </is>
       </c>
       <c r="D13" s="35" t="inlineStr">
@@ -6973,12 +6893,12 @@
       </c>
       <c r="E13" s="37" t="inlineStr">
         <is>
-          <t>-0.000475</t>
+          <t>-0.080147</t>
         </is>
       </c>
       <c r="F13" s="37" t="inlineStr">
         <is>
-          <t>0.0000002256</t>
+          <t>0.0064234660</t>
         </is>
       </c>
     </row>
@@ -6988,7 +6908,7 @@
       </c>
       <c r="C14" s="36" t="inlineStr">
         <is>
-          <t>-7.72%</t>
+          <t>-11.45%</t>
         </is>
       </c>
       <c r="D14" s="35" t="inlineStr">
@@ -6998,39 +6918,27 @@
       </c>
       <c r="E14" s="37" t="inlineStr">
         <is>
-          <t>-0.080175</t>
+          <t>-0.117525</t>
         </is>
       </c>
       <c r="F14" s="37" t="inlineStr">
         <is>
-          <t>0.0064280306</t>
+          <t>0.0138120370</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="35" t="n">
+      <c r="B15" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C15" s="36" t="inlineStr">
-        <is>
-          <t>-11.45%</t>
-        </is>
-      </c>
-      <c r="D15" s="35" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E15" s="37" t="inlineStr">
-        <is>
-          <t>-0.117475</t>
-        </is>
-      </c>
-      <c r="F15" s="37" t="inlineStr">
-        <is>
-          <t>0.0138003756</t>
-        </is>
-      </c>
+      <c r="C15" s="20" t="inlineStr">
+        <is>
+          <t>12.65%</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="B16" s="11" t="n">
@@ -7038,7 +6946,7 @@
       </c>
       <c r="C16" s="17" t="inlineStr">
         <is>
-          <t>12.65%</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="D16" s="11" t="inlineStr"/>
@@ -7049,9 +6957,9 @@
       <c r="B17" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="C17" s="18" t="inlineStr">
-        <is>
-          <t>4.56%</t>
+      <c r="C17" s="20" t="inlineStr">
+        <is>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr"/>
@@ -7064,7 +6972,7 @@
       </c>
       <c r="C18" s="17" t="inlineStr">
         <is>
-          <t>2.00%</t>
+          <t>5.85%</t>
         </is>
       </c>
       <c r="D18" s="11" t="inlineStr"/>
@@ -7075,9 +6983,9 @@
       <c r="B19" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="C19" s="18" t="inlineStr">
-        <is>
-          <t>5.85%</t>
+      <c r="C19" s="20" t="inlineStr">
+        <is>
+          <t>7.11%</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr"/>
@@ -7085,17 +6993,29 @@
       <c r="F19" s="8" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="B20" s="11" t="n">
+      <c r="B20" s="35" t="n">
         <v>9</v>
       </c>
-      <c r="C20" s="17" t="inlineStr">
-        <is>
-          <t>7.11%</t>
-        </is>
-      </c>
-      <c r="D20" s="11" t="inlineStr"/>
-      <c r="E20" s="14" t="inlineStr"/>
-      <c r="F20" s="14" t="inlineStr"/>
+      <c r="C20" s="36" t="inlineStr">
+        <is>
+          <t>-3.52%</t>
+        </is>
+      </c>
+      <c r="D20" s="35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E20" s="37" t="inlineStr">
+        <is>
+          <t>-0.038154</t>
+        </is>
+      </c>
+      <c r="F20" s="37" t="inlineStr">
+        <is>
+          <t>0.0014557238</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="B21" s="35" t="n">
@@ -7103,7 +7023,7 @@
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
-          <t>-3.52%</t>
+          <t>-2.22%</t>
         </is>
       </c>
       <c r="D21" s="35" t="inlineStr">
@@ -7113,47 +7033,35 @@
       </c>
       <c r="E21" s="37" t="inlineStr">
         <is>
-          <t>-0.038175</t>
+          <t>-0.025205</t>
         </is>
       </c>
       <c r="F21" s="37" t="inlineStr">
         <is>
-          <t>0.0014573306</t>
+          <t>0.0006352860</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="35" t="n">
+      <c r="B22" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="C22" s="36" t="inlineStr">
-        <is>
-          <t>-2.22%</t>
-        </is>
-      </c>
-      <c r="D22" s="35" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E22" s="37" t="inlineStr">
-        <is>
-          <t>-0.025175</t>
-        </is>
-      </c>
-      <c r="F22" s="37" t="inlineStr">
-        <is>
-          <t>0.0006337806</t>
-        </is>
-      </c>
+      <c r="C22" s="17" t="inlineStr">
+        <is>
+          <t>10.42%</t>
+        </is>
+      </c>
+      <c r="D22" s="11" t="inlineStr"/>
+      <c r="E22" s="14" t="inlineStr"/>
+      <c r="F22" s="14" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="B23" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="C23" s="18" t="inlineStr">
-        <is>
-          <t>10.42%</t>
+      <c r="C23" s="20" t="inlineStr">
+        <is>
+          <t>3.73%</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr"/>
@@ -7161,42 +7069,42 @@
       <c r="F23" s="8" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="B24" s="11" t="n">
+      <c r="B24" s="35" t="n">
         <v>13</v>
       </c>
-      <c r="C24" s="17" t="inlineStr">
-        <is>
-          <t>3.73%</t>
-        </is>
-      </c>
-      <c r="D24" s="11" t="inlineStr"/>
-      <c r="E24" s="14" t="inlineStr"/>
-      <c r="F24" s="14" t="inlineStr"/>
+      <c r="C24" s="36" t="inlineStr">
+        <is>
+          <t>-0.71%</t>
+        </is>
+      </c>
+      <c r="D24" s="35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E24" s="37" t="inlineStr">
+        <is>
+          <t>-0.010036</t>
+        </is>
+      </c>
+      <c r="F24" s="37" t="inlineStr">
+        <is>
+          <t>0.0001007228</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="B25" s="35" t="n">
+      <c r="B25" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="C25" s="36" t="inlineStr">
-        <is>
-          <t>-0.71%</t>
-        </is>
-      </c>
-      <c r="D25" s="35" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E25" s="37" t="inlineStr">
-        <is>
-          <t>-0.010075</t>
-        </is>
-      </c>
-      <c r="F25" s="37" t="inlineStr">
-        <is>
-          <t>0.0001015056</t>
-        </is>
-      </c>
+      <c r="C25" s="20" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr"/>
+      <c r="E25" s="8" t="inlineStr"/>
+      <c r="F25" s="8" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="B26" s="11" t="n">
@@ -7204,7 +7112,7 @@
       </c>
       <c r="C26" s="17" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>3.98%</t>
         </is>
       </c>
       <c r="D26" s="11" t="inlineStr"/>
@@ -7215,9 +7123,9 @@
       <c r="B27" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="C27" s="18" t="inlineStr">
-        <is>
-          <t>3.98%</t>
+      <c r="C27" s="20" t="inlineStr">
+        <is>
+          <t>5.17%</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr"/>
@@ -7230,7 +7138,7 @@
       </c>
       <c r="C28" s="17" t="inlineStr">
         <is>
-          <t>5.17%</t>
+          <t>0.62%</t>
         </is>
       </c>
       <c r="D28" s="11" t="inlineStr"/>
@@ -7241,9 +7149,9 @@
       <c r="B29" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="C29" s="18" t="inlineStr">
-        <is>
-          <t>0.62%</t>
+      <c r="C29" s="20" t="inlineStr">
+        <is>
+          <t>2.47%</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr"/>
@@ -7256,7 +7164,7 @@
       </c>
       <c r="C30" s="17" t="inlineStr">
         <is>
-          <t>2.47%</t>
+          <t>2.27%</t>
         </is>
       </c>
       <c r="D30" s="11" t="inlineStr"/>
@@ -7267,9 +7175,9 @@
       <c r="B31" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="C31" s="18" t="inlineStr">
-        <is>
-          <t>2.27%</t>
+      <c r="C31" s="20" t="inlineStr">
+        <is>
+          <t>2.77%</t>
         </is>
       </c>
       <c r="D31" s="5" t="inlineStr"/>
@@ -7277,93 +7185,105 @@
       <c r="F31" s="8" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="B32" s="11" t="n">
+      <c r="B32" s="35" t="n">
         <v>21</v>
       </c>
-      <c r="C32" s="17" t="inlineStr">
-        <is>
-          <t>2.77%</t>
-        </is>
-      </c>
-      <c r="D32" s="11" t="inlineStr"/>
-      <c r="E32" s="14" t="inlineStr"/>
-      <c r="F32" s="14" t="inlineStr"/>
+      <c r="C32" s="36" t="inlineStr">
+        <is>
+          <t>-3.93%</t>
+        </is>
+      </c>
+      <c r="D32" s="35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E32" s="37" t="inlineStr">
+        <is>
+          <t>-0.042264</t>
+        </is>
+      </c>
+      <c r="F32" s="37" t="inlineStr">
+        <is>
+          <t>0.0017862205</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="B33" s="35" t="n">
+      <c r="B33" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="C33" s="36" t="inlineStr">
-        <is>
-          <t>-3.93%</t>
-        </is>
-      </c>
-      <c r="D33" s="35" t="inlineStr">
+      <c r="C33" s="20" t="inlineStr">
+        <is>
+          <t>6.82%</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr"/>
+      <c r="E33" s="8" t="inlineStr"/>
+      <c r="F33" s="8" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="35" t="n">
+        <v>23</v>
+      </c>
+      <c r="C34" s="36" t="inlineStr">
+        <is>
+          <t>-0.47%</t>
+        </is>
+      </c>
+      <c r="D34" s="35" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="E33" s="37" t="inlineStr">
-        <is>
-          <t>-0.042275</t>
-        </is>
-      </c>
-      <c r="F33" s="37" t="inlineStr">
-        <is>
-          <t>0.0017871756</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="11" t="n">
-        <v>23</v>
-      </c>
-      <c r="C34" s="17" t="inlineStr">
-        <is>
-          <t>6.82%</t>
-        </is>
-      </c>
-      <c r="D34" s="11" t="inlineStr"/>
-      <c r="E34" s="14" t="inlineStr"/>
-      <c r="F34" s="14" t="inlineStr"/>
+      <c r="E34" s="37" t="inlineStr">
+        <is>
+          <t>-0.007725</t>
+        </is>
+      </c>
+      <c r="F34" s="37" t="inlineStr">
+        <is>
+          <t>0.0000596748</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="B35" s="35" t="n">
+      <c r="B35" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="C35" s="36" t="inlineStr">
-        <is>
-          <t>-0.47%</t>
-        </is>
-      </c>
-      <c r="D35" s="35" t="inlineStr">
+      <c r="C35" s="20" t="inlineStr">
+        <is>
+          <t>4.16%</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr"/>
+      <c r="E35" s="8" t="inlineStr"/>
+      <c r="F35" s="8" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="35" t="n">
+        <v>25</v>
+      </c>
+      <c r="C36" s="36" t="inlineStr">
+        <is>
+          <t>-4.81%</t>
+        </is>
+      </c>
+      <c r="D36" s="35" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="E35" s="37" t="inlineStr">
-        <is>
-          <t>-0.007675</t>
-        </is>
-      </c>
-      <c r="F35" s="37" t="inlineStr">
-        <is>
-          <t>0.0000589056</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="C36" s="17" t="inlineStr">
-        <is>
-          <t>4.16%</t>
-        </is>
-      </c>
-      <c r="D36" s="11" t="inlineStr"/>
-      <c r="E36" s="14" t="inlineStr"/>
-      <c r="F36" s="14" t="inlineStr"/>
+      <c r="E36" s="37" t="inlineStr">
+        <is>
+          <t>-0.051034</t>
+        </is>
+      </c>
+      <c r="F36" s="37" t="inlineStr">
+        <is>
+          <t>0.0026044452</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="B37" s="35" t="n">
@@ -7371,7 +7291,7 @@
       </c>
       <c r="C37" s="36" t="inlineStr">
         <is>
-          <t>-4.81%</t>
+          <t>-2.66%</t>
         </is>
       </c>
       <c r="D37" s="35" t="inlineStr">
@@ -7381,52 +7301,52 @@
       </c>
       <c r="E37" s="37" t="inlineStr">
         <is>
-          <t>-0.051075</t>
+          <t>-0.029583</t>
         </is>
       </c>
       <c r="F37" s="37" t="inlineStr">
         <is>
-          <t>0.0026086556</t>
+          <t>0.0008751631</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="35" t="n">
+      <c r="B38" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="C38" s="36" t="inlineStr">
-        <is>
-          <t>-2.66%</t>
-        </is>
-      </c>
-      <c r="D38" s="35" t="inlineStr">
+      <c r="C38" s="17" t="inlineStr">
+        <is>
+          <t>3.47%</t>
+        </is>
+      </c>
+      <c r="D38" s="11" t="inlineStr"/>
+      <c r="E38" s="14" t="inlineStr"/>
+      <c r="F38" s="14" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="35" t="n">
+        <v>28</v>
+      </c>
+      <c r="C39" s="36" t="inlineStr">
+        <is>
+          <t>-7.98%</t>
+        </is>
+      </c>
+      <c r="D39" s="35" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="E38" s="37" t="inlineStr">
-        <is>
-          <t>-0.029575</t>
-        </is>
-      </c>
-      <c r="F38" s="37" t="inlineStr">
-        <is>
-          <t>0.0008746806</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="C39" s="18" t="inlineStr">
-        <is>
-          <t>3.47%</t>
-        </is>
-      </c>
-      <c r="D39" s="5" t="inlineStr"/>
-      <c r="E39" s="8" t="inlineStr"/>
-      <c r="F39" s="8" t="inlineStr"/>
+      <c r="E39" s="37" t="inlineStr">
+        <is>
+          <t>-0.082824</t>
+        </is>
+      </c>
+      <c r="F39" s="37" t="inlineStr">
+        <is>
+          <t>0.0068597494</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="B40" s="35" t="n">
@@ -7434,7 +7354,7 @@
       </c>
       <c r="C40" s="36" t="inlineStr">
         <is>
-          <t>-7.98%</t>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="D40" s="35" t="inlineStr">
@@ -7444,12 +7364,12 @@
       </c>
       <c r="E40" s="37" t="inlineStr">
         <is>
-          <t>-0.082775</t>
+          <t>-0.001081</t>
         </is>
       </c>
       <c r="F40" s="37" t="inlineStr">
         <is>
-          <t>0.0068517006</t>
+          <t>0.0000011692</t>
         </is>
       </c>
     </row>
@@ -7459,7 +7379,7 @@
       </c>
       <c r="C41" s="36" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>-7.73%</t>
         </is>
       </c>
       <c r="D41" s="35" t="inlineStr">
@@ -7469,52 +7389,52 @@
       </c>
       <c r="E41" s="37" t="inlineStr">
         <is>
-          <t>-0.001075</t>
+          <t>-0.080263</t>
         </is>
       </c>
       <c r="F41" s="37" t="inlineStr">
         <is>
-          <t>0.0000011556</t>
+          <t>0.0064422114</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="35" t="n">
+      <c r="B42" s="11" t="n">
         <v>31</v>
       </c>
-      <c r="C42" s="36" t="inlineStr">
-        <is>
-          <t>-7.73%</t>
-        </is>
-      </c>
-      <c r="D42" s="35" t="inlineStr">
+      <c r="C42" s="17" t="inlineStr">
+        <is>
+          <t>8.83%</t>
+        </is>
+      </c>
+      <c r="D42" s="11" t="inlineStr"/>
+      <c r="E42" s="14" t="inlineStr"/>
+      <c r="F42" s="14" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="35" t="n">
+        <v>32</v>
+      </c>
+      <c r="C43" s="36" t="inlineStr">
+        <is>
+          <t>-3.36%</t>
+        </is>
+      </c>
+      <c r="D43" s="35" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="E42" s="37" t="inlineStr">
-        <is>
-          <t>-0.080275</t>
-        </is>
-      </c>
-      <c r="F42" s="37" t="inlineStr">
-        <is>
-          <t>0.0064440756</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="5" t="n">
-        <v>32</v>
-      </c>
-      <c r="C43" s="18" t="inlineStr">
-        <is>
-          <t>8.83%</t>
-        </is>
-      </c>
-      <c r="D43" s="5" t="inlineStr"/>
-      <c r="E43" s="8" t="inlineStr"/>
-      <c r="F43" s="8" t="inlineStr"/>
+      <c r="E43" s="37" t="inlineStr">
+        <is>
+          <t>-0.036550</t>
+        </is>
+      </c>
+      <c r="F43" s="37" t="inlineStr">
+        <is>
+          <t>0.0013359349</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="B44" s="35" t="n">
@@ -7522,7 +7442,7 @@
       </c>
       <c r="C44" s="36" t="inlineStr">
         <is>
-          <t>-3.36%</t>
+          <t>-8.58%</t>
         </is>
       </c>
       <c r="D44" s="35" t="inlineStr">
@@ -7532,39 +7452,27 @@
       </c>
       <c r="E44" s="37" t="inlineStr">
         <is>
-          <t>-0.036575</t>
+          <t>-0.088732</t>
         </is>
       </c>
       <c r="F44" s="37" t="inlineStr">
         <is>
-          <t>0.0013377306</t>
+          <t>0.0078733668</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="35" t="n">
+      <c r="B45" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="C45" s="36" t="inlineStr">
-        <is>
-          <t>-8.58%</t>
-        </is>
-      </c>
-      <c r="D45" s="35" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E45" s="37" t="inlineStr">
-        <is>
-          <t>-0.088775</t>
-        </is>
-      </c>
-      <c r="F45" s="37" t="inlineStr">
-        <is>
-          <t>0.0078810006</t>
-        </is>
-      </c>
+      <c r="C45" s="20" t="inlineStr">
+        <is>
+          <t>7.68%</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr"/>
+      <c r="E45" s="8" t="inlineStr"/>
+      <c r="F45" s="8" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="B46" s="11" t="n">
@@ -7572,7 +7480,7 @@
       </c>
       <c r="C46" s="17" t="inlineStr">
         <is>
-          <t>7.68%</t>
+          <t>5.58%</t>
         </is>
       </c>
       <c r="D46" s="11" t="inlineStr"/>
@@ -7580,88 +7488,88 @@
       <c r="F46" s="14" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="B47" s="5" t="n">
+      <c r="B47" s="35" t="n">
         <v>36</v>
       </c>
-      <c r="C47" s="18" t="inlineStr">
-        <is>
-          <t>5.58%</t>
-        </is>
-      </c>
-      <c r="D47" s="5" t="inlineStr"/>
-      <c r="E47" s="8" t="inlineStr"/>
-      <c r="F47" s="8" t="inlineStr"/>
+      <c r="C47" s="36" t="inlineStr">
+        <is>
+          <t>-5.55%</t>
+        </is>
+      </c>
+      <c r="D47" s="35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E47" s="37" t="inlineStr">
+        <is>
+          <t>-0.058467</t>
+        </is>
+      </c>
+      <c r="F47" s="37" t="inlineStr">
+        <is>
+          <t>0.0034183535</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="35" t="n">
+      <c r="B48" s="11" t="n">
         <v>37</v>
       </c>
-      <c r="C48" s="36" t="inlineStr">
-        <is>
-          <t>-5.55%</t>
-        </is>
-      </c>
-      <c r="D48" s="35" t="inlineStr">
+      <c r="C48" s="17" t="inlineStr">
+        <is>
+          <t>6.21%</t>
+        </is>
+      </c>
+      <c r="D48" s="11" t="inlineStr"/>
+      <c r="E48" s="14" t="inlineStr"/>
+      <c r="F48" s="14" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="35" t="n">
+        <v>38</v>
+      </c>
+      <c r="C49" s="36" t="inlineStr">
+        <is>
+          <t>-2.57%</t>
+        </is>
+      </c>
+      <c r="D49" s="35" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="E48" s="37" t="inlineStr">
-        <is>
-          <t>-0.058475</t>
-        </is>
-      </c>
-      <c r="F48" s="37" t="inlineStr">
-        <is>
-          <t>0.0034193256</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="5" t="n">
-        <v>38</v>
-      </c>
-      <c r="C49" s="18" t="inlineStr">
-        <is>
-          <t>6.21%</t>
-        </is>
-      </c>
-      <c r="D49" s="5" t="inlineStr"/>
-      <c r="E49" s="8" t="inlineStr"/>
-      <c r="F49" s="8" t="inlineStr"/>
+      <c r="E49" s="37" t="inlineStr">
+        <is>
+          <t>-0.028689</t>
+        </is>
+      </c>
+      <c r="F49" s="37" t="inlineStr">
+        <is>
+          <t>0.0008230782</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="B50" s="35" t="n">
+      <c r="B50" s="11" t="n">
         <v>39</v>
       </c>
-      <c r="C50" s="36" t="inlineStr">
-        <is>
-          <t>-2.57%</t>
-        </is>
-      </c>
-      <c r="D50" s="35" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E50" s="37" t="inlineStr">
-        <is>
-          <t>-0.028675</t>
-        </is>
-      </c>
-      <c r="F50" s="37" t="inlineStr">
-        <is>
-          <t>0.0008222556</t>
-        </is>
-      </c>
+      <c r="C50" s="17" t="inlineStr">
+        <is>
+          <t>3.37%</t>
+        </is>
+      </c>
+      <c r="D50" s="11" t="inlineStr"/>
+      <c r="E50" s="14" t="inlineStr"/>
+      <c r="F50" s="14" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="B51" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="C51" s="18" t="inlineStr">
-        <is>
-          <t>3.37%</t>
+      <c r="C51" s="20" t="inlineStr">
+        <is>
+          <t>1.73%</t>
         </is>
       </c>
       <c r="D51" s="5" t="inlineStr"/>
@@ -7674,7 +7582,7 @@
       </c>
       <c r="C52" s="17" t="inlineStr">
         <is>
-          <t>1.73%</t>
+          <t>0.69%</t>
         </is>
       </c>
       <c r="D52" s="11" t="inlineStr"/>
@@ -7685,9 +7593,9 @@
       <c r="B53" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="C53" s="18" t="inlineStr">
-        <is>
-          <t>0.69%</t>
+      <c r="C53" s="20" t="inlineStr">
+        <is>
+          <t>6.48%</t>
         </is>
       </c>
       <c r="D53" s="5" t="inlineStr"/>
@@ -7700,7 +7608,7 @@
       </c>
       <c r="C54" s="17" t="inlineStr">
         <is>
-          <t>6.48%</t>
+          <t>3.23%</t>
         </is>
       </c>
       <c r="D54" s="11" t="inlineStr"/>
@@ -7708,17 +7616,29 @@
       <c r="F54" s="14" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="B55" s="5" t="n">
+      <c r="B55" s="35" t="n">
         <v>44</v>
       </c>
-      <c r="C55" s="18" t="inlineStr">
-        <is>
-          <t>3.23%</t>
-        </is>
-      </c>
-      <c r="D55" s="5" t="inlineStr"/>
-      <c r="E55" s="8" t="inlineStr"/>
-      <c r="F55" s="8" t="inlineStr"/>
+      <c r="C55" s="36" t="inlineStr">
+        <is>
+          <t>-1.44%</t>
+        </is>
+      </c>
+      <c r="D55" s="35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E55" s="37" t="inlineStr">
+        <is>
+          <t>-0.017392</t>
+        </is>
+      </c>
+      <c r="F55" s="37" t="inlineStr">
+        <is>
+          <t>0.0003024889</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="B56" s="35" t="n">
@@ -7726,7 +7646,7 @@
       </c>
       <c r="C56" s="36" t="inlineStr">
         <is>
-          <t>-1.44%</t>
+          <t>-4.62%</t>
         </is>
       </c>
       <c r="D56" s="35" t="inlineStr">
@@ -7736,12 +7656,12 @@
       </c>
       <c r="E56" s="37" t="inlineStr">
         <is>
-          <t>-0.017375</t>
+          <t>-0.049197</t>
         </is>
       </c>
       <c r="F56" s="37" t="inlineStr">
         <is>
-          <t>0.0003018906</t>
+          <t>0.0024203491</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7671,7 @@
       </c>
       <c r="C57" s="36" t="inlineStr">
         <is>
-          <t>-4.62%</t>
+          <t>-1.93%</t>
         </is>
       </c>
       <c r="D57" s="35" t="inlineStr">
@@ -7761,47 +7681,35 @@
       </c>
       <c r="E57" s="37" t="inlineStr">
         <is>
-          <t>-0.049175</t>
+          <t>-0.022315</t>
         </is>
       </c>
       <c r="F57" s="37" t="inlineStr">
         <is>
-          <t>0.0024181806</t>
+          <t>0.0004979453</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="35" t="n">
+      <c r="B58" s="11" t="n">
         <v>47</v>
       </c>
-      <c r="C58" s="36" t="inlineStr">
-        <is>
-          <t>-1.93%</t>
-        </is>
-      </c>
-      <c r="D58" s="35" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E58" s="37" t="inlineStr">
-        <is>
-          <t>-0.022275</t>
-        </is>
-      </c>
-      <c r="F58" s="37" t="inlineStr">
-        <is>
-          <t>0.0004961756</t>
-        </is>
-      </c>
+      <c r="C58" s="17" t="inlineStr">
+        <is>
+          <t>8.68%</t>
+        </is>
+      </c>
+      <c r="D58" s="11" t="inlineStr"/>
+      <c r="E58" s="14" t="inlineStr"/>
+      <c r="F58" s="14" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="B59" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="C59" s="18" t="inlineStr">
-        <is>
-          <t>8.68%</t>
+      <c r="C59" s="20" t="inlineStr">
+        <is>
+          <t>4.71%</t>
         </is>
       </c>
       <c r="D59" s="5" t="inlineStr"/>
@@ -7814,7 +7722,7 @@
       </c>
       <c r="C60" s="17" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>1.88%</t>
         </is>
       </c>
       <c r="D60" s="11" t="inlineStr"/>
@@ -7825,9 +7733,9 @@
       <c r="B61" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="C61" s="18" t="inlineStr">
-        <is>
-          <t>1.88%</t>
+      <c r="C61" s="20" t="inlineStr">
+        <is>
+          <t>4.86%</t>
         </is>
       </c>
       <c r="D61" s="5" t="inlineStr"/>
@@ -7840,7 +7748,7 @@
       </c>
       <c r="C62" s="17" t="inlineStr">
         <is>
-          <t>4.86%</t>
+          <t>3.31%</t>
         </is>
       </c>
       <c r="D62" s="11" t="inlineStr"/>
@@ -7848,50 +7756,50 @@
       <c r="F62" s="14" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="B63" s="5" t="n">
+      <c r="B63" s="35" t="n">
         <v>52</v>
       </c>
-      <c r="C63" s="18" t="inlineStr">
-        <is>
-          <t>3.31%</t>
-        </is>
-      </c>
-      <c r="D63" s="5" t="inlineStr"/>
-      <c r="E63" s="8" t="inlineStr"/>
-      <c r="F63" s="8" t="inlineStr"/>
+      <c r="C63" s="36" t="inlineStr">
+        <is>
+          <t>-3.73%</t>
+        </is>
+      </c>
+      <c r="D63" s="35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E63" s="37" t="inlineStr">
+        <is>
+          <t>-0.040265</t>
+        </is>
+      </c>
+      <c r="F63" s="37" t="inlineStr">
+        <is>
+          <t>0.0016212835</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="B64" s="35" t="n">
+      <c r="B64" s="11" t="n">
         <v>53</v>
       </c>
-      <c r="C64" s="36" t="inlineStr">
-        <is>
-          <t>-3.73%</t>
-        </is>
-      </c>
-      <c r="D64" s="35" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E64" s="37" t="inlineStr">
-        <is>
-          <t>-0.040275</t>
-        </is>
-      </c>
-      <c r="F64" s="37" t="inlineStr">
-        <is>
-          <t>0.0016220756</t>
-        </is>
-      </c>
+      <c r="C64" s="17" t="inlineStr">
+        <is>
+          <t>4.72%</t>
+        </is>
+      </c>
+      <c r="D64" s="11" t="inlineStr"/>
+      <c r="E64" s="14" t="inlineStr"/>
+      <c r="F64" s="14" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="B65" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="C65" s="18" t="inlineStr">
-        <is>
-          <t>4.72%</t>
+      <c r="C65" s="20" t="inlineStr">
+        <is>
+          <t>3.72%</t>
         </is>
       </c>
       <c r="D65" s="5" t="inlineStr"/>
@@ -7904,7 +7812,7 @@
       </c>
       <c r="C66" s="17" t="inlineStr">
         <is>
-          <t>3.72%</t>
+          <t>1.58%</t>
         </is>
       </c>
       <c r="D66" s="11" t="inlineStr"/>
@@ -7915,9 +7823,9 @@
       <c r="B67" s="5" t="n">
         <v>56</v>
       </c>
-      <c r="C67" s="18" t="inlineStr">
-        <is>
-          <t>1.58%</t>
+      <c r="C67" s="20" t="inlineStr">
+        <is>
+          <t>2.65%</t>
         </is>
       </c>
       <c r="D67" s="5" t="inlineStr"/>
@@ -7930,7 +7838,7 @@
       </c>
       <c r="C68" s="17" t="inlineStr">
         <is>
-          <t>2.65%</t>
+          <t>2.05%</t>
         </is>
       </c>
       <c r="D68" s="11" t="inlineStr"/>
@@ -7938,177 +7846,164 @@
       <c r="F68" s="14" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="B69" s="5" t="n">
+      <c r="B69" s="35" t="n">
         <v>58</v>
       </c>
-      <c r="C69" s="18" t="inlineStr">
-        <is>
-          <t>2.05%</t>
-        </is>
-      </c>
-      <c r="D69" s="5" t="inlineStr"/>
-      <c r="E69" s="8" t="inlineStr"/>
-      <c r="F69" s="8" t="inlineStr"/>
+      <c r="C69" s="36" t="inlineStr">
+        <is>
+          <t>-0.70%</t>
+        </is>
+      </c>
+      <c r="D69" s="35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E69" s="37" t="inlineStr">
+        <is>
+          <t>-0.009998</t>
+        </is>
+      </c>
+      <c r="F69" s="37" t="inlineStr">
+        <is>
+          <t>0.0000999685</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="35" t="n">
+      <c r="B70" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="C70" s="36" t="inlineStr">
-        <is>
-          <t>-0.70%</t>
-        </is>
-      </c>
-      <c r="D70" s="35" t="inlineStr">
+      <c r="C70" s="17" t="inlineStr">
+        <is>
+          <t>5.81%</t>
+        </is>
+      </c>
+      <c r="D70" s="11" t="inlineStr"/>
+      <c r="E70" s="14" t="inlineStr"/>
+      <c r="F70" s="14" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="35" t="n">
+        <v>60</v>
+      </c>
+      <c r="C71" s="36" t="inlineStr">
+        <is>
+          <t>-1.88%</t>
+        </is>
+      </c>
+      <c r="D71" s="35" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="E70" s="37" t="inlineStr">
-        <is>
-          <t>-0.009975</t>
-        </is>
-      </c>
-      <c r="F70" s="37" t="inlineStr">
-        <is>
-          <t>0.0000995006</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" s="5" t="n">
-        <v>60</v>
-      </c>
-      <c r="C71" s="18" t="inlineStr">
-        <is>
-          <t>5.81%</t>
-        </is>
-      </c>
-      <c r="D71" s="5" t="inlineStr"/>
-      <c r="E71" s="8" t="inlineStr"/>
-      <c r="F71" s="8" t="inlineStr"/>
+      <c r="E71" s="37" t="inlineStr">
+        <is>
+          <t>-0.021774</t>
+        </is>
+      </c>
+      <c r="F71" s="37" t="inlineStr">
+        <is>
+          <t>0.0004741031</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="35" t="n">
-        <v>61</v>
-      </c>
-      <c r="C72" s="36" t="inlineStr">
-        <is>
-          <t>-1.88%</t>
-        </is>
-      </c>
-      <c r="D72" s="35" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E72" s="37" t="inlineStr">
-        <is>
-          <t>-0.021775</t>
-        </is>
-      </c>
-      <c r="F72" s="37" t="inlineStr">
-        <is>
-          <t>0.0004741506</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="25" t="inlineStr">
+      <c r="B72" s="25" t="inlineStr">
         <is>
           <t>TOTALS</t>
         </is>
       </c>
-      <c r="C73" s="31" t="n"/>
-      <c r="D73" s="25" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E73" s="31" t="n"/>
-      <c r="F73" s="25" t="inlineStr">
-        <is>
-          <t>0.0599287350</t>
+      <c r="C72" s="31" t="n"/>
+      <c r="D72" s="25" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E72" s="31" t="n"/>
+      <c r="F72" s="25" t="inlineStr">
+        <is>
+          <t>0.0599229927</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="24" t="inlineStr">
+        <is>
+          <t>STEP 2: Downside Deviation Calculation</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="B75" s="24" t="inlineStr">
-        <is>
-          <t>STEP 2: Downside Deviation Calculation</t>
+      <c r="B75" s="30" t="inlineStr">
+        <is>
+          <t>Sum of squared downside returns: 0.0599229927</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="30" t="inlineStr">
         <is>
-          <t>Sum of squared downside returns: 0.0599287350</t>
+          <t>Divide by n: 0.0599229927 / 60 = 0.0009987165</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="30" t="inlineStr">
         <is>
-          <t>Divide by n: 0.0599287350 / 61 = 0.0009824383</t>
+          <t>Monthly DD = √(0.0009987165) = 0.03160248</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="B78" s="30" t="inlineStr">
-        <is>
-          <t>Monthly DD = √(0.0009824383) = 0.03134387</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" s="21" t="inlineStr">
-        <is>
-          <t>Annualized DD = 0.03134387 × √12 = 0.17310219 (17.3102%)</t>
+      <c r="B78" s="21" t="inlineStr">
+        <is>
+          <t>Annualized DD = 0.03160248 × √12 = 0.17681677 (17.6817%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="32" t="inlineStr">
+        <is>
+          <t>STEP 3: Calculate Sortino Ratio</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="B81" s="32" t="inlineStr">
-        <is>
-          <t>STEP 3: Calculate Sortino Ratio</t>
+      <c r="B81" s="30" t="inlineStr">
+        <is>
+          <t>Numerator: Rp - MAR = 0.15793207 - 0.03570000 = 0.12223207</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="30" t="inlineStr">
         <is>
-          <t>Numerator: Rp - MAR = 0.15516348 - 0.03570000 = 0.11946348</t>
+          <t>Denominator: Downside Deviation = 0.17681677</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="30" t="inlineStr">
-        <is>
-          <t>Denominator: Downside Deviation = 0.17310219</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" s="26" t="inlineStr">
-        <is>
-          <t>Sortino = 0.11946348 / 0.17310219 = 0.690133</t>
+      <c r="B83" s="26" t="inlineStr">
+        <is>
+          <t>Sortino = 0.12223207 / 0.17681677 = 0.691292</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="27" t="inlineStr">
+        <is>
+          <t>SORTINO RATIO:</t>
+        </is>
+      </c>
+      <c r="C85" s="34" t="inlineStr">
+        <is>
+          <t>0.6913</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="B86" s="27" t="inlineStr">
-        <is>
-          <t>SORTINO RATIO:</t>
-        </is>
-      </c>
-      <c r="C86" s="34" t="inlineStr">
-        <is>
-          <t>0.6901</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" s="38" t="inlineStr">
+      <c r="B86" s="38" t="inlineStr">
         <is>
           <t>INTERPRETATION: Acceptable (0.5-1)</t>
         </is>
@@ -8125,7 +8020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:F78"/>
+  <dimension ref="B2:F77"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8164,7 +8059,7 @@
     <row r="7">
       <c r="B7" s="24" t="inlineStr">
         <is>
-          <t>WEALTH SERIES (ALL 61 periods):</t>
+          <t>WEALTH SERIES (ALL 60 periods):</t>
         </is>
       </c>
     </row>
@@ -8201,12 +8096,12 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$100.25</t>
         </is>
       </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$100.25</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr">
@@ -8222,17 +8117,17 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
+          <t>$92.51</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
           <t>$100.25</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>$100.25</t>
-        </is>
-      </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>7.72%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -8243,7 +8138,7 @@
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>$92.51</t>
+          <t>$81.91</t>
         </is>
       </c>
       <c r="D11" s="11" t="inlineStr">
@@ -8251,9 +8146,9 @@
           <t>$100.25</t>
         </is>
       </c>
-      <c r="E11" s="11" t="inlineStr">
-        <is>
-          <t>7.72%</t>
+      <c r="E11" s="19" t="inlineStr">
+        <is>
+          <t>18.29%</t>
         </is>
       </c>
       <c r="F11" s="39" t="inlineStr"/>
@@ -8264,7 +8159,7 @@
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>$81.92</t>
+          <t>$92.28</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
@@ -8272,9 +8167,9 @@
           <t>$100.25</t>
         </is>
       </c>
-      <c r="E12" s="20" t="inlineStr">
-        <is>
-          <t>18.29%</t>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>7.95%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -8285,7 +8180,7 @@
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>$92.28</t>
+          <t>$96.48</t>
         </is>
       </c>
       <c r="D13" s="11" t="inlineStr">
@@ -8295,7 +8190,7 @@
       </c>
       <c r="E13" s="11" t="inlineStr">
         <is>
-          <t>7.95%</t>
+          <t>3.76%</t>
         </is>
       </c>
       <c r="F13" s="39" t="inlineStr"/>
@@ -8306,7 +8201,7 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>$96.49</t>
+          <t>$98.41</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
@@ -8316,7 +8211,7 @@
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>3.75%</t>
+          <t>1.83%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -8327,17 +8222,17 @@
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>$98.42</t>
+          <t>$104.17</t>
         </is>
       </c>
       <c r="D15" s="11" t="inlineStr">
         <is>
-          <t>$100.25</t>
+          <t>$104.17</t>
         </is>
       </c>
       <c r="E15" s="11" t="inlineStr">
         <is>
-          <t>1.83%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F15" s="39" t="inlineStr"/>
@@ -8348,12 +8243,12 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>$104.18</t>
+          <t>$111.58</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>$104.18</t>
+          <t>$111.58</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
@@ -8369,17 +8264,17 @@
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
+          <t>$107.65</t>
+        </is>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
           <t>$111.58</t>
         </is>
       </c>
-      <c r="D17" s="11" t="inlineStr">
-        <is>
-          <t>$111.58</t>
-        </is>
-      </c>
       <c r="E17" s="11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>3.52%</t>
         </is>
       </c>
       <c r="F17" s="39" t="inlineStr"/>
@@ -8390,7 +8285,7 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>$107.66</t>
+          <t>$105.26</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
@@ -8400,7 +8295,7 @@
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>3.52%</t>
+          <t>5.66%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -8411,17 +8306,17 @@
       </c>
       <c r="C19" s="11" t="inlineStr">
         <is>
-          <t>$105.27</t>
+          <t>$116.23</t>
         </is>
       </c>
       <c r="D19" s="11" t="inlineStr">
         <is>
-          <t>$111.58</t>
+          <t>$116.23</t>
         </is>
       </c>
       <c r="E19" s="11" t="inlineStr">
         <is>
-          <t>5.66%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F19" s="39" t="inlineStr"/>
@@ -8432,12 +8327,12 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>$116.23</t>
+          <t>$120.57</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>$116.23</t>
+          <t>$120.57</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
@@ -8453,17 +8348,17 @@
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
+          <t>$119.71</t>
+        </is>
+      </c>
+      <c r="D21" s="11" t="inlineStr">
+        <is>
           <t>$120.57</t>
         </is>
       </c>
-      <c r="D21" s="11" t="inlineStr">
-        <is>
-          <t>$120.57</t>
-        </is>
-      </c>
       <c r="E21" s="11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.71%</t>
         </is>
       </c>
       <c r="F21" s="39" t="inlineStr"/>
@@ -8474,17 +8369,17 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>$119.71</t>
+          <t>$122.58</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>$120.57</t>
+          <t>$122.58</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>0.71%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -8495,12 +8390,12 @@
       </c>
       <c r="C23" s="11" t="inlineStr">
         <is>
-          <t>$122.59</t>
+          <t>$127.47</t>
         </is>
       </c>
       <c r="D23" s="11" t="inlineStr">
         <is>
-          <t>$122.59</t>
+          <t>$127.47</t>
         </is>
       </c>
       <c r="E23" s="11" t="inlineStr">
@@ -8516,12 +8411,12 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>$127.47</t>
+          <t>$134.05</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>$127.47</t>
+          <t>$134.05</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
@@ -8537,12 +8432,12 @@
       </c>
       <c r="C25" s="11" t="inlineStr">
         <is>
-          <t>$134.06</t>
+          <t>$134.88</t>
         </is>
       </c>
       <c r="D25" s="11" t="inlineStr">
         <is>
-          <t>$134.06</t>
+          <t>$134.88</t>
         </is>
       </c>
       <c r="E25" s="11" t="inlineStr">
@@ -8558,12 +8453,12 @@
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>$134.89</t>
+          <t>$138.22</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>$134.89</t>
+          <t>$138.22</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -8579,12 +8474,12 @@
       </c>
       <c r="C27" s="11" t="inlineStr">
         <is>
-          <t>$138.22</t>
+          <t>$141.36</t>
         </is>
       </c>
       <c r="D27" s="11" t="inlineStr">
         <is>
-          <t>$138.22</t>
+          <t>$141.36</t>
         </is>
       </c>
       <c r="E27" s="11" t="inlineStr">
@@ -8600,12 +8495,12 @@
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>$141.36</t>
+          <t>$145.28</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>$141.36</t>
+          <t>$145.28</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
@@ -8621,17 +8516,17 @@
       </c>
       <c r="C29" s="11" t="inlineStr">
         <is>
-          <t>$145.27</t>
+          <t>$139.57</t>
         </is>
       </c>
       <c r="D29" s="11" t="inlineStr">
         <is>
-          <t>$145.27</t>
+          <t>$145.28</t>
         </is>
       </c>
       <c r="E29" s="11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>3.93%</t>
         </is>
       </c>
       <c r="F29" s="39" t="inlineStr"/>
@@ -8642,17 +8537,17 @@
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>$139.56</t>
+          <t>$149.09</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>$145.27</t>
+          <t>$149.09</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>3.93%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -8663,17 +8558,17 @@
       </c>
       <c r="C31" s="11" t="inlineStr">
         <is>
-          <t>$149.08</t>
+          <t>$148.38</t>
         </is>
       </c>
       <c r="D31" s="11" t="inlineStr">
         <is>
-          <t>$149.08</t>
+          <t>$149.09</t>
         </is>
       </c>
       <c r="E31" s="11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.47%</t>
         </is>
       </c>
       <c r="F31" s="39" t="inlineStr"/>
@@ -8684,17 +8579,17 @@
       </c>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$148.38</t>
+          <t>$154.55</t>
         </is>
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>$149.08</t>
+          <t>$154.55</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>0.47%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -8705,17 +8600,17 @@
       </c>
       <c r="C33" s="11" t="inlineStr">
         <is>
+          <t>$147.12</t>
+        </is>
+      </c>
+      <c r="D33" s="11" t="inlineStr">
+        <is>
           <t>$154.55</t>
         </is>
       </c>
-      <c r="D33" s="11" t="inlineStr">
-        <is>
-          <t>$154.55</t>
-        </is>
-      </c>
       <c r="E33" s="11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>4.81%</t>
         </is>
       </c>
       <c r="F33" s="39" t="inlineStr"/>
@@ -8726,7 +8621,7 @@
       </c>
       <c r="C34" s="5" t="inlineStr">
         <is>
-          <t>$147.12</t>
+          <t>$143.21</t>
         </is>
       </c>
       <c r="D34" s="5" t="inlineStr">
@@ -8736,7 +8631,7 @@
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>4.81%</t>
+          <t>7.34%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -8747,7 +8642,7 @@
       </c>
       <c r="C35" s="11" t="inlineStr">
         <is>
-          <t>$143.21</t>
+          <t>$148.18</t>
         </is>
       </c>
       <c r="D35" s="11" t="inlineStr">
@@ -8757,7 +8652,7 @@
       </c>
       <c r="E35" s="11" t="inlineStr">
         <is>
-          <t>7.34%</t>
+          <t>4.12%</t>
         </is>
       </c>
       <c r="F35" s="39" t="inlineStr"/>
@@ -8768,7 +8663,7 @@
       </c>
       <c r="C36" s="5" t="inlineStr">
         <is>
-          <t>$148.17</t>
+          <t>$136.35</t>
         </is>
       </c>
       <c r="D36" s="5" t="inlineStr">
@@ -8776,9 +8671,9 @@
           <t>$154.55</t>
         </is>
       </c>
-      <c r="E36" s="5" t="inlineStr">
-        <is>
-          <t>4.13%</t>
+      <c r="E36" s="18" t="inlineStr">
+        <is>
+          <t>11.78%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -8789,7 +8684,7 @@
       </c>
       <c r="C37" s="11" t="inlineStr">
         <is>
-          <t>$136.35</t>
+          <t>$136.60</t>
         </is>
       </c>
       <c r="D37" s="11" t="inlineStr">
@@ -8799,7 +8694,7 @@
       </c>
       <c r="E37" s="19" t="inlineStr">
         <is>
-          <t>11.78%</t>
+          <t>11.61%</t>
         </is>
       </c>
       <c r="F37" s="39" t="inlineStr"/>
@@ -8810,7 +8705,7 @@
       </c>
       <c r="C38" s="5" t="inlineStr">
         <is>
-          <t>$136.61</t>
+          <t>$126.05</t>
         </is>
       </c>
       <c r="D38" s="5" t="inlineStr">
@@ -8818,9 +8713,9 @@
           <t>$154.55</t>
         </is>
       </c>
-      <c r="E38" s="20" t="inlineStr">
-        <is>
-          <t>11.61%</t>
+      <c r="E38" s="18" t="inlineStr">
+        <is>
+          <t>18.44%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -8831,7 +8726,7 @@
       </c>
       <c r="C39" s="11" t="inlineStr">
         <is>
-          <t>$126.05</t>
+          <t>$137.18</t>
         </is>
       </c>
       <c r="D39" s="11" t="inlineStr">
@@ -8841,7 +8736,7 @@
       </c>
       <c r="E39" s="19" t="inlineStr">
         <is>
-          <t>18.44%</t>
+          <t>11.24%</t>
         </is>
       </c>
       <c r="F39" s="39" t="inlineStr"/>
@@ -8852,7 +8747,7 @@
       </c>
       <c r="C40" s="5" t="inlineStr">
         <is>
-          <t>$137.18</t>
+          <t>$132.58</t>
         </is>
       </c>
       <c r="D40" s="5" t="inlineStr">
@@ -8860,58 +8755,58 @@
           <t>$154.55</t>
         </is>
       </c>
-      <c r="E40" s="20" t="inlineStr">
-        <is>
-          <t>11.24%</t>
+      <c r="E40" s="18" t="inlineStr">
+        <is>
+          <t>14.22%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="B41" s="11" t="n">
+      <c r="B41" s="40" t="n">
         <v>33</v>
       </c>
-      <c r="C41" s="11" t="inlineStr">
-        <is>
-          <t>$132.57</t>
-        </is>
-      </c>
-      <c r="D41" s="11" t="inlineStr">
+      <c r="C41" s="40" t="inlineStr">
+        <is>
+          <t>$121.21</t>
+        </is>
+      </c>
+      <c r="D41" s="40" t="inlineStr">
         <is>
           <t>$154.55</t>
         </is>
       </c>
-      <c r="E41" s="19" t="inlineStr">
-        <is>
-          <t>14.22%</t>
-        </is>
-      </c>
-      <c r="F41" s="39" t="inlineStr"/>
+      <c r="E41" s="40" t="inlineStr">
+        <is>
+          <t>21.57%</t>
+        </is>
+      </c>
+      <c r="F41" s="41" t="inlineStr">
+        <is>
+          <t>← MAX</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="40" t="n">
+      <c r="B42" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="C42" s="40" t="inlineStr">
-        <is>
-          <t>$121.20</t>
-        </is>
-      </c>
-      <c r="D42" s="40" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>$130.51</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>$154.55</t>
         </is>
       </c>
-      <c r="E42" s="40" t="inlineStr">
-        <is>
-          <t>21.58%</t>
-        </is>
-      </c>
-      <c r="F42" s="41" t="inlineStr">
-        <is>
-          <t>← MAX</t>
-        </is>
-      </c>
+      <c r="E42" s="18" t="inlineStr">
+        <is>
+          <t>15.55%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="B43" s="11" t="n">
@@ -8919,7 +8814,7 @@
       </c>
       <c r="C43" s="11" t="inlineStr">
         <is>
-          <t>$130.50</t>
+          <t>$137.79</t>
         </is>
       </c>
       <c r="D43" s="11" t="inlineStr">
@@ -8929,7 +8824,7 @@
       </c>
       <c r="E43" s="19" t="inlineStr">
         <is>
-          <t>15.56%</t>
+          <t>10.84%</t>
         </is>
       </c>
       <c r="F43" s="39" t="inlineStr"/>
@@ -8940,7 +8835,7 @@
       </c>
       <c r="C44" s="5" t="inlineStr">
         <is>
-          <t>$137.79</t>
+          <t>$130.14</t>
         </is>
       </c>
       <c r="D44" s="5" t="inlineStr">
@@ -8948,9 +8843,9 @@
           <t>$154.55</t>
         </is>
       </c>
-      <c r="E44" s="20" t="inlineStr">
-        <is>
-          <t>10.85%</t>
+      <c r="E44" s="18" t="inlineStr">
+        <is>
+          <t>15.79%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -8961,7 +8856,7 @@
       </c>
       <c r="C45" s="11" t="inlineStr">
         <is>
-          <t>$130.14</t>
+          <t>$138.23</t>
         </is>
       </c>
       <c r="D45" s="11" t="inlineStr">
@@ -8971,7 +8866,7 @@
       </c>
       <c r="E45" s="19" t="inlineStr">
         <is>
-          <t>15.80%</t>
+          <t>10.56%</t>
         </is>
       </c>
       <c r="F45" s="39" t="inlineStr"/>
@@ -8982,7 +8877,7 @@
       </c>
       <c r="C46" s="5" t="inlineStr">
         <is>
-          <t>$138.22</t>
+          <t>$134.68</t>
         </is>
       </c>
       <c r="D46" s="5" t="inlineStr">
@@ -8990,9 +8885,9 @@
           <t>$154.55</t>
         </is>
       </c>
-      <c r="E46" s="20" t="inlineStr">
-        <is>
-          <t>10.57%</t>
+      <c r="E46" s="18" t="inlineStr">
+        <is>
+          <t>12.86%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -9003,7 +8898,7 @@
       </c>
       <c r="C47" s="11" t="inlineStr">
         <is>
-          <t>$134.67</t>
+          <t>$139.21</t>
         </is>
       </c>
       <c r="D47" s="11" t="inlineStr">
@@ -9011,9 +8906,9 @@
           <t>$154.55</t>
         </is>
       </c>
-      <c r="E47" s="19" t="inlineStr">
-        <is>
-          <t>12.87%</t>
+      <c r="E47" s="11" t="inlineStr">
+        <is>
+          <t>9.92%</t>
         </is>
       </c>
       <c r="F47" s="39" t="inlineStr"/>
@@ -9024,7 +8919,7 @@
       </c>
       <c r="C48" s="5" t="inlineStr">
         <is>
-          <t>$139.21</t>
+          <t>$141.62</t>
         </is>
       </c>
       <c r="D48" s="5" t="inlineStr">
@@ -9034,7 +8929,7 @@
       </c>
       <c r="E48" s="5" t="inlineStr">
         <is>
-          <t>9.93%</t>
+          <t>8.37%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -9045,7 +8940,7 @@
       </c>
       <c r="C49" s="11" t="inlineStr">
         <is>
-          <t>$141.61</t>
+          <t>$142.59</t>
         </is>
       </c>
       <c r="D49" s="11" t="inlineStr">
@@ -9055,7 +8950,7 @@
       </c>
       <c r="E49" s="11" t="inlineStr">
         <is>
-          <t>8.37%</t>
+          <t>7.74%</t>
         </is>
       </c>
       <c r="F49" s="39" t="inlineStr"/>
@@ -9066,7 +8961,7 @@
       </c>
       <c r="C50" s="5" t="inlineStr">
         <is>
-          <t>$142.59</t>
+          <t>$151.83</t>
         </is>
       </c>
       <c r="D50" s="5" t="inlineStr">
@@ -9076,7 +8971,7 @@
       </c>
       <c r="E50" s="5" t="inlineStr">
         <is>
-          <t>7.74%</t>
+          <t>1.76%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -9087,17 +8982,17 @@
       </c>
       <c r="C51" s="11" t="inlineStr">
         <is>
-          <t>$151.83</t>
+          <t>$156.73</t>
         </is>
       </c>
       <c r="D51" s="11" t="inlineStr">
         <is>
-          <t>$154.55</t>
+          <t>$156.73</t>
         </is>
       </c>
       <c r="E51" s="11" t="inlineStr">
         <is>
-          <t>1.76%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F51" s="39" t="inlineStr"/>
@@ -9108,17 +9003,17 @@
       </c>
       <c r="C52" s="5" t="inlineStr">
         <is>
-          <t>$156.74</t>
+          <t>$154.47</t>
         </is>
       </c>
       <c r="D52" s="5" t="inlineStr">
         <is>
-          <t>$156.74</t>
+          <t>$156.73</t>
         </is>
       </c>
       <c r="E52" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1.44%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -9129,17 +9024,17 @@
       </c>
       <c r="C53" s="11" t="inlineStr">
         <is>
-          <t>$154.48</t>
+          <t>$147.33</t>
         </is>
       </c>
       <c r="D53" s="11" t="inlineStr">
         <is>
-          <t>$156.74</t>
+          <t>$156.73</t>
         </is>
       </c>
       <c r="E53" s="11" t="inlineStr">
         <is>
-          <t>1.44%</t>
+          <t>6.00%</t>
         </is>
       </c>
       <c r="F53" s="39" t="inlineStr"/>
@@ -9150,17 +9045,17 @@
       </c>
       <c r="C54" s="5" t="inlineStr">
         <is>
-          <t>$147.34</t>
+          <t>$144.48</t>
         </is>
       </c>
       <c r="D54" s="5" t="inlineStr">
         <is>
-          <t>$156.74</t>
+          <t>$156.73</t>
         </is>
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t>5.99%</t>
+          <t>7.82%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -9171,17 +9066,17 @@
       </c>
       <c r="C55" s="11" t="inlineStr">
         <is>
-          <t>$144.50</t>
+          <t>$157.03</t>
         </is>
       </c>
       <c r="D55" s="11" t="inlineStr">
         <is>
-          <t>$156.74</t>
+          <t>$157.03</t>
         </is>
       </c>
       <c r="E55" s="11" t="inlineStr">
         <is>
-          <t>7.81%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F55" s="39" t="inlineStr"/>
@@ -9192,12 +9087,12 @@
       </c>
       <c r="C56" s="5" t="inlineStr">
         <is>
-          <t>$157.04</t>
+          <t>$164.42</t>
         </is>
       </c>
       <c r="D56" s="5" t="inlineStr">
         <is>
-          <t>$157.04</t>
+          <t>$164.42</t>
         </is>
       </c>
       <c r="E56" s="5" t="inlineStr">
@@ -9213,12 +9108,12 @@
       </c>
       <c r="C57" s="11" t="inlineStr">
         <is>
-          <t>$164.44</t>
+          <t>$167.51</t>
         </is>
       </c>
       <c r="D57" s="11" t="inlineStr">
         <is>
-          <t>$164.44</t>
+          <t>$167.51</t>
         </is>
       </c>
       <c r="E57" s="11" t="inlineStr">
@@ -9234,12 +9129,12 @@
       </c>
       <c r="C58" s="5" t="inlineStr">
         <is>
-          <t>$167.53</t>
+          <t>$175.65</t>
         </is>
       </c>
       <c r="D58" s="5" t="inlineStr">
         <is>
-          <t>$167.53</t>
+          <t>$175.65</t>
         </is>
       </c>
       <c r="E58" s="5" t="inlineStr">
@@ -9255,12 +9150,12 @@
       </c>
       <c r="C59" s="11" t="inlineStr">
         <is>
-          <t>$175.67</t>
+          <t>$181.47</t>
         </is>
       </c>
       <c r="D59" s="11" t="inlineStr">
         <is>
-          <t>$175.67</t>
+          <t>$181.47</t>
         </is>
       </c>
       <c r="E59" s="11" t="inlineStr">
@@ -9276,17 +9171,17 @@
       </c>
       <c r="C60" s="5" t="inlineStr">
         <is>
-          <t>$181.49</t>
+          <t>$174.70</t>
         </is>
       </c>
       <c r="D60" s="5" t="inlineStr">
         <is>
-          <t>$181.49</t>
+          <t>$181.47</t>
         </is>
       </c>
       <c r="E60" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>3.73%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -9297,17 +9192,17 @@
       </c>
       <c r="C61" s="11" t="inlineStr">
         <is>
-          <t>$174.72</t>
+          <t>$182.95</t>
         </is>
       </c>
       <c r="D61" s="11" t="inlineStr">
         <is>
-          <t>$181.49</t>
+          <t>$182.95</t>
         </is>
       </c>
       <c r="E61" s="11" t="inlineStr">
         <is>
-          <t>3.73%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F61" s="39" t="inlineStr"/>
@@ -9318,12 +9213,12 @@
       </c>
       <c r="C62" s="5" t="inlineStr">
         <is>
-          <t>$182.96</t>
+          <t>$189.76</t>
         </is>
       </c>
       <c r="D62" s="5" t="inlineStr">
         <is>
-          <t>$182.96</t>
+          <t>$189.76</t>
         </is>
       </c>
       <c r="E62" s="5" t="inlineStr">
@@ -9339,12 +9234,12 @@
       </c>
       <c r="C63" s="11" t="inlineStr">
         <is>
-          <t>$189.77</t>
+          <t>$192.76</t>
         </is>
       </c>
       <c r="D63" s="11" t="inlineStr">
         <is>
-          <t>$189.77</t>
+          <t>$192.76</t>
         </is>
       </c>
       <c r="E63" s="11" t="inlineStr">
@@ -9360,12 +9255,12 @@
       </c>
       <c r="C64" s="5" t="inlineStr">
         <is>
-          <t>$192.77</t>
+          <t>$197.87</t>
         </is>
       </c>
       <c r="D64" s="5" t="inlineStr">
         <is>
-          <t>$192.77</t>
+          <t>$197.87</t>
         </is>
       </c>
       <c r="E64" s="5" t="inlineStr">
@@ -9381,12 +9276,12 @@
       </c>
       <c r="C65" s="11" t="inlineStr">
         <is>
-          <t>$197.88</t>
+          <t>$201.93</t>
         </is>
       </c>
       <c r="D65" s="11" t="inlineStr">
         <is>
-          <t>$197.88</t>
+          <t>$201.93</t>
         </is>
       </c>
       <c r="E65" s="11" t="inlineStr">
@@ -9402,17 +9297,17 @@
       </c>
       <c r="C66" s="5" t="inlineStr">
         <is>
+          <t>$200.51</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="inlineStr">
+        <is>
           <t>$201.93</t>
         </is>
       </c>
-      <c r="D66" s="5" t="inlineStr">
-        <is>
-          <t>$201.93</t>
-        </is>
-      </c>
       <c r="E66" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.70%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -9423,17 +9318,17 @@
       </c>
       <c r="C67" s="11" t="inlineStr">
         <is>
-          <t>$200.52</t>
+          <t>$212.16</t>
         </is>
       </c>
       <c r="D67" s="11" t="inlineStr">
         <is>
-          <t>$201.93</t>
+          <t>$212.16</t>
         </is>
       </c>
       <c r="E67" s="11" t="inlineStr">
         <is>
-          <t>0.70%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F67" s="39" t="inlineStr"/>
@@ -9444,92 +9339,71 @@
       </c>
       <c r="C68" s="5" t="inlineStr">
         <is>
-          <t>$212.17</t>
+          <t>$208.17</t>
         </is>
       </c>
       <c r="D68" s="5" t="inlineStr">
         <is>
-          <t>$212.17</t>
+          <t>$212.16</t>
         </is>
       </c>
       <c r="E68" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1.88%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
     </row>
-    <row r="69">
-      <c r="B69" s="11" t="n">
-        <v>61</v>
-      </c>
-      <c r="C69" s="11" t="inlineStr">
-        <is>
-          <t>$208.18</t>
-        </is>
-      </c>
-      <c r="D69" s="11" t="inlineStr">
-        <is>
-          <t>$212.17</t>
-        </is>
-      </c>
-      <c r="E69" s="11" t="inlineStr">
-        <is>
-          <t>1.88%</t>
-        </is>
-      </c>
-      <c r="F69" s="39" t="inlineStr"/>
+    <row r="71">
+      <c r="B71" s="32" t="inlineStr">
+        <is>
+          <t>MAXIMUM DRAWDOWN FOUND:</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="32" t="inlineStr">
-        <is>
-          <t>MAXIMUM DRAWDOWN FOUND:</t>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Period: 33</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Period: 34</t>
+          <t>Peak: $154.55</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Peak: $154.55</t>
+          <t>Trough: $121.21</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Trough: $121.20</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="30" t="inlineStr">
-        <is>
-          <t>MDD = (1.545525 - 1.211956) / 1.545525</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" s="27" t="inlineStr">
+      <c r="B75" s="30" t="inlineStr">
+        <is>
+          <t>MDD = (1.545493 - 1.212061) / 1.545493</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="27" t="inlineStr">
         <is>
           <t>MAXIMUM DRAWDOWN:</t>
         </is>
       </c>
-      <c r="C78" s="42" t="inlineStr">
-        <is>
-          <t>21.58%</t>
+      <c r="C77" s="42" t="inlineStr">
+        <is>
+          <t>21.57%</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B71:E71"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9541,7 +9415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:F89"/>
+  <dimension ref="B2:F88"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9587,7 +9461,7 @@
     <row r="8">
       <c r="B8" s="24" t="inlineStr">
         <is>
-          <t>SORTED RETURNS (ALL 61 returns, worst first):</t>
+          <t>SORTED RETURNS (ALL 60 returns, worst first):</t>
         </is>
       </c>
     </row>
@@ -9617,7 +9491,7 @@
       <c r="B10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="20" t="inlineStr">
+      <c r="C10" s="18" t="inlineStr">
         <is>
           <t>-11.45%</t>
         </is>
@@ -9637,7 +9511,7 @@
       <c r="B11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="20" t="inlineStr">
+      <c r="C11" s="18" t="inlineStr">
         <is>
           <t>-8.58%</t>
         </is>
@@ -9657,7 +9531,7 @@
       <c r="B12" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="20" t="inlineStr">
+      <c r="C12" s="18" t="inlineStr">
         <is>
           <t>-7.98%</t>
         </is>
@@ -9714,7 +9588,7 @@
       <c r="B15" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="20" t="inlineStr">
+      <c r="C15" s="18" t="inlineStr">
         <is>
           <t>-5.55%</t>
         </is>
@@ -9738,7 +9612,7 @@
       <c r="B17" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="C17" s="20" t="inlineStr">
+      <c r="C17" s="18" t="inlineStr">
         <is>
           <t>-4.62%</t>
         </is>
@@ -9762,7 +9636,7 @@
       <c r="B19" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C19" s="20" t="inlineStr">
+      <c r="C19" s="18" t="inlineStr">
         <is>
           <t>-3.73%</t>
         </is>
@@ -9786,7 +9660,7 @@
       <c r="B21" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="C21" s="20" t="inlineStr">
+      <c r="C21" s="18" t="inlineStr">
         <is>
           <t>-3.36%</t>
         </is>
@@ -9810,7 +9684,7 @@
       <c r="B23" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="C23" s="20" t="inlineStr">
+      <c r="C23" s="18" t="inlineStr">
         <is>
           <t>-2.57%</t>
         </is>
@@ -9834,7 +9708,7 @@
       <c r="B25" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="C25" s="20" t="inlineStr">
+      <c r="C25" s="18" t="inlineStr">
         <is>
           <t>-1.93%</t>
         </is>
@@ -9858,7 +9732,7 @@
       <c r="B27" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="C27" s="20" t="inlineStr">
+      <c r="C27" s="18" t="inlineStr">
         <is>
           <t>-1.44%</t>
         </is>
@@ -9882,7 +9756,7 @@
       <c r="B29" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="C29" s="20" t="inlineStr">
+      <c r="C29" s="18" t="inlineStr">
         <is>
           <t>-0.70%</t>
         </is>
@@ -9906,9 +9780,9 @@
       <c r="B31" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="C31" s="18" t="inlineStr">
-        <is>
-          <t>0.00%</t>
+      <c r="C31" s="20" t="inlineStr">
+        <is>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="D31" s="5" t="inlineStr"/>
@@ -9920,7 +9794,7 @@
       </c>
       <c r="C32" s="17" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>0.25%</t>
         </is>
       </c>
       <c r="D32" s="11" t="inlineStr"/>
@@ -9930,9 +9804,9 @@
       <c r="B33" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="C33" s="18" t="inlineStr">
-        <is>
-          <t>0.25%</t>
+      <c r="C33" s="20" t="inlineStr">
+        <is>
+          <t>0.62%</t>
         </is>
       </c>
       <c r="D33" s="5" t="inlineStr"/>
@@ -9944,7 +9818,7 @@
       </c>
       <c r="C34" s="17" t="inlineStr">
         <is>
-          <t>0.62%</t>
+          <t>0.69%</t>
         </is>
       </c>
       <c r="D34" s="11" t="inlineStr"/>
@@ -9954,9 +9828,9 @@
       <c r="B35" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="C35" s="18" t="inlineStr">
-        <is>
-          <t>0.69%</t>
+      <c r="C35" s="20" t="inlineStr">
+        <is>
+          <t>1.58%</t>
         </is>
       </c>
       <c r="D35" s="5" t="inlineStr"/>
@@ -9968,7 +9842,7 @@
       </c>
       <c r="C36" s="17" t="inlineStr">
         <is>
-          <t>1.58%</t>
+          <t>1.73%</t>
         </is>
       </c>
       <c r="D36" s="11" t="inlineStr"/>
@@ -9978,9 +9852,9 @@
       <c r="B37" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="C37" s="18" t="inlineStr">
-        <is>
-          <t>1.73%</t>
+      <c r="C37" s="20" t="inlineStr">
+        <is>
+          <t>1.88%</t>
         </is>
       </c>
       <c r="D37" s="5" t="inlineStr"/>
@@ -9992,7 +9866,7 @@
       </c>
       <c r="C38" s="17" t="inlineStr">
         <is>
-          <t>1.88%</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="D38" s="11" t="inlineStr"/>
@@ -10002,9 +9876,9 @@
       <c r="B39" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="C39" s="18" t="inlineStr">
-        <is>
-          <t>2.00%</t>
+      <c r="C39" s="20" t="inlineStr">
+        <is>
+          <t>2.05%</t>
         </is>
       </c>
       <c r="D39" s="5" t="inlineStr"/>
@@ -10016,7 +9890,7 @@
       </c>
       <c r="C40" s="17" t="inlineStr">
         <is>
-          <t>2.05%</t>
+          <t>2.27%</t>
         </is>
       </c>
       <c r="D40" s="11" t="inlineStr"/>
@@ -10026,9 +9900,9 @@
       <c r="B41" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="C41" s="18" t="inlineStr">
-        <is>
-          <t>2.27%</t>
+      <c r="C41" s="20" t="inlineStr">
+        <is>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="D41" s="5" t="inlineStr"/>
@@ -10040,7 +9914,7 @@
       </c>
       <c r="C42" s="17" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>2.47%</t>
         </is>
       </c>
       <c r="D42" s="11" t="inlineStr"/>
@@ -10050,9 +9924,9 @@
       <c r="B43" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="C43" s="18" t="inlineStr">
-        <is>
-          <t>2.47%</t>
+      <c r="C43" s="20" t="inlineStr">
+        <is>
+          <t>2.65%</t>
         </is>
       </c>
       <c r="D43" s="5" t="inlineStr"/>
@@ -10064,7 +9938,7 @@
       </c>
       <c r="C44" s="17" t="inlineStr">
         <is>
-          <t>2.65%</t>
+          <t>2.77%</t>
         </is>
       </c>
       <c r="D44" s="11" t="inlineStr"/>
@@ -10074,9 +9948,9 @@
       <c r="B45" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="C45" s="18" t="inlineStr">
-        <is>
-          <t>2.77%</t>
+      <c r="C45" s="20" t="inlineStr">
+        <is>
+          <t>3.23%</t>
         </is>
       </c>
       <c r="D45" s="5" t="inlineStr"/>
@@ -10088,7 +9962,7 @@
       </c>
       <c r="C46" s="17" t="inlineStr">
         <is>
-          <t>3.23%</t>
+          <t>3.31%</t>
         </is>
       </c>
       <c r="D46" s="11" t="inlineStr"/>
@@ -10098,9 +9972,9 @@
       <c r="B47" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="C47" s="18" t="inlineStr">
-        <is>
-          <t>3.31%</t>
+      <c r="C47" s="20" t="inlineStr">
+        <is>
+          <t>3.37%</t>
         </is>
       </c>
       <c r="D47" s="5" t="inlineStr"/>
@@ -10112,7 +9986,7 @@
       </c>
       <c r="C48" s="17" t="inlineStr">
         <is>
-          <t>3.37%</t>
+          <t>3.47%</t>
         </is>
       </c>
       <c r="D48" s="11" t="inlineStr"/>
@@ -10122,9 +9996,9 @@
       <c r="B49" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="C49" s="18" t="inlineStr">
-        <is>
-          <t>3.47%</t>
+      <c r="C49" s="20" t="inlineStr">
+        <is>
+          <t>3.72%</t>
         </is>
       </c>
       <c r="D49" s="5" t="inlineStr"/>
@@ -10136,7 +10010,7 @@
       </c>
       <c r="C50" s="17" t="inlineStr">
         <is>
-          <t>3.72%</t>
+          <t>3.73%</t>
         </is>
       </c>
       <c r="D50" s="11" t="inlineStr"/>
@@ -10146,9 +10020,9 @@
       <c r="B51" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="C51" s="18" t="inlineStr">
-        <is>
-          <t>3.73%</t>
+      <c r="C51" s="20" t="inlineStr">
+        <is>
+          <t>3.98%</t>
         </is>
       </c>
       <c r="D51" s="5" t="inlineStr"/>
@@ -10160,7 +10034,7 @@
       </c>
       <c r="C52" s="17" t="inlineStr">
         <is>
-          <t>3.98%</t>
+          <t>4.16%</t>
         </is>
       </c>
       <c r="D52" s="11" t="inlineStr"/>
@@ -10170,9 +10044,9 @@
       <c r="B53" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="C53" s="18" t="inlineStr">
-        <is>
-          <t>4.16%</t>
+      <c r="C53" s="20" t="inlineStr">
+        <is>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="D53" s="5" t="inlineStr"/>
@@ -10184,7 +10058,7 @@
       </c>
       <c r="C54" s="17" t="inlineStr">
         <is>
-          <t>4.56%</t>
+          <t>4.71%</t>
         </is>
       </c>
       <c r="D54" s="11" t="inlineStr"/>
@@ -10194,9 +10068,9 @@
       <c r="B55" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="C55" s="18" t="inlineStr">
-        <is>
-          <t>4.71%</t>
+      <c r="C55" s="20" t="inlineStr">
+        <is>
+          <t>4.72%</t>
         </is>
       </c>
       <c r="D55" s="5" t="inlineStr"/>
@@ -10208,7 +10082,7 @@
       </c>
       <c r="C56" s="17" t="inlineStr">
         <is>
-          <t>4.72%</t>
+          <t>4.86%</t>
         </is>
       </c>
       <c r="D56" s="11" t="inlineStr"/>
@@ -10218,9 +10092,9 @@
       <c r="B57" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="C57" s="18" t="inlineStr">
-        <is>
-          <t>4.86%</t>
+      <c r="C57" s="20" t="inlineStr">
+        <is>
+          <t>5.17%</t>
         </is>
       </c>
       <c r="D57" s="5" t="inlineStr"/>
@@ -10232,7 +10106,7 @@
       </c>
       <c r="C58" s="17" t="inlineStr">
         <is>
-          <t>5.17%</t>
+          <t>5.58%</t>
         </is>
       </c>
       <c r="D58" s="11" t="inlineStr"/>
@@ -10242,9 +10116,9 @@
       <c r="B59" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="C59" s="18" t="inlineStr">
-        <is>
-          <t>5.58%</t>
+      <c r="C59" s="20" t="inlineStr">
+        <is>
+          <t>5.81%</t>
         </is>
       </c>
       <c r="D59" s="5" t="inlineStr"/>
@@ -10256,7 +10130,7 @@
       </c>
       <c r="C60" s="17" t="inlineStr">
         <is>
-          <t>5.81%</t>
+          <t>5.85%</t>
         </is>
       </c>
       <c r="D60" s="11" t="inlineStr"/>
@@ -10266,9 +10140,9 @@
       <c r="B61" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="C61" s="18" t="inlineStr">
-        <is>
-          <t>5.85%</t>
+      <c r="C61" s="20" t="inlineStr">
+        <is>
+          <t>6.21%</t>
         </is>
       </c>
       <c r="D61" s="5" t="inlineStr"/>
@@ -10280,7 +10154,7 @@
       </c>
       <c r="C62" s="17" t="inlineStr">
         <is>
-          <t>6.21%</t>
+          <t>6.48%</t>
         </is>
       </c>
       <c r="D62" s="11" t="inlineStr"/>
@@ -10290,9 +10164,9 @@
       <c r="B63" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="C63" s="18" t="inlineStr">
-        <is>
-          <t>6.48%</t>
+      <c r="C63" s="20" t="inlineStr">
+        <is>
+          <t>6.82%</t>
         </is>
       </c>
       <c r="D63" s="5" t="inlineStr"/>
@@ -10304,7 +10178,7 @@
       </c>
       <c r="C64" s="17" t="inlineStr">
         <is>
-          <t>6.82%</t>
+          <t>7.11%</t>
         </is>
       </c>
       <c r="D64" s="11" t="inlineStr"/>
@@ -10314,9 +10188,9 @@
       <c r="B65" s="5" t="n">
         <v>56</v>
       </c>
-      <c r="C65" s="18" t="inlineStr">
-        <is>
-          <t>7.11%</t>
+      <c r="C65" s="20" t="inlineStr">
+        <is>
+          <t>7.68%</t>
         </is>
       </c>
       <c r="D65" s="5" t="inlineStr"/>
@@ -10328,7 +10202,7 @@
       </c>
       <c r="C66" s="17" t="inlineStr">
         <is>
-          <t>7.68%</t>
+          <t>8.68%</t>
         </is>
       </c>
       <c r="D66" s="11" t="inlineStr"/>
@@ -10338,9 +10212,9 @@
       <c r="B67" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="C67" s="18" t="inlineStr">
-        <is>
-          <t>8.68%</t>
+      <c r="C67" s="20" t="inlineStr">
+        <is>
+          <t>8.83%</t>
         </is>
       </c>
       <c r="D67" s="5" t="inlineStr"/>
@@ -10352,7 +10226,7 @@
       </c>
       <c r="C68" s="17" t="inlineStr">
         <is>
-          <t>8.83%</t>
+          <t>10.42%</t>
         </is>
       </c>
       <c r="D68" s="11" t="inlineStr"/>
@@ -10362,135 +10236,123 @@
       <c r="B69" s="5" t="n">
         <v>60</v>
       </c>
-      <c r="C69" s="18" t="inlineStr">
-        <is>
-          <t>10.42%</t>
+      <c r="C69" s="20" t="inlineStr">
+        <is>
+          <t>12.65%</t>
         </is>
       </c>
       <c r="D69" s="5" t="inlineStr"/>
       <c r="E69" s="5" t="inlineStr"/>
     </row>
-    <row r="70">
-      <c r="B70" s="11" t="n">
-        <v>61</v>
-      </c>
-      <c r="C70" s="17" t="inlineStr">
-        <is>
-          <t>12.65%</t>
-        </is>
-      </c>
-      <c r="D70" s="11" t="inlineStr"/>
-      <c r="E70" s="11" t="inlineStr"/>
+    <row r="72">
+      <c r="B72" s="32" t="inlineStr">
+        <is>
+          <t>VaR CALCULATION:</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="32" t="inlineStr">
-        <is>
-          <t>VaR CALCULATION:</t>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Total periods: 60</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Total periods: 61</t>
+          <t>5% of 60 = 3.00</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>5% of 61 = 3.05</t>
+          <t>Round to index: 3 (0-based)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Round to index: 3 (0-based)</t>
+          <t>VaR value: sorted_returns[3] = -7.73%</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>VaR value: sorted_returns[3] = -7.73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" s="44" t="inlineStr">
+      <c r="B77" s="44" t="inlineStr">
         <is>
           <t>VaR (95%) = 7.73%</t>
         </is>
       </c>
     </row>
+    <row r="79">
+      <c r="B79" s="32" t="inlineStr">
+        <is>
+          <t>CVaR (Expected Shortfall) CALCULATION:</t>
+        </is>
+      </c>
+    </row>
     <row r="80">
-      <c r="B80" s="32" t="inlineStr">
-        <is>
-          <t>CVaR (Expected Shortfall) CALCULATION:</t>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CVaR = Average of returns worse than or equal to VaR</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>CVaR = Average of returns worse than or equal to VaR</t>
+          <t>Tail returns (worst 4):</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Tail returns (worst 4):</t>
+      <c r="B82" s="30" t="inlineStr">
+        <is>
+          <t>Values: -11.45%, -8.58%, -7.98%, -7.73%</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="30" t="inlineStr">
         <is>
-          <t>Values: -11.45%, -8.58%, -7.98%, -7.73%</t>
+          <t>Sum: (-11.45%) + (-8.58%) + (-7.98%) + (-7.73%) = -35.74%</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="30" t="inlineStr">
         <is>
-          <t>Sum: (-11.45%) + (-8.58%) + (-7.98%) + (-7.73%) = -35.74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="B85" s="30" t="inlineStr">
-        <is>
           <t>CVaR = -35.74% / 4 = 8.94%</t>
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="B86" s="27" t="inlineStr">
+        <is>
+          <t>RESULTS:</t>
+        </is>
+      </c>
+    </row>
     <row r="87">
-      <c r="B87" s="27" t="inlineStr">
-        <is>
-          <t>RESULTS:</t>
+      <c r="B87" s="44" t="inlineStr">
+        <is>
+          <t>VaR (95%) = 7.73%</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="44" t="inlineStr">
         <is>
-          <t>VaR (95%) = 7.73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" s="44" t="inlineStr">
-        <is>
           <t>CVaR (95%) = 8.94%</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B72:E72"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10551,21 +10413,21 @@
     <row r="9">
       <c r="B9" s="30" t="inlineStr">
         <is>
-          <t>Cov(Portfolio, Benchmark) = 0.0001123054</t>
+          <t>Cov(Portfolio, Benchmark) = 0.0001690777</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="30" t="inlineStr">
         <is>
-          <t>Var(Benchmark) = 0.0041268572</t>
+          <t>Var(Benchmark) = 0.0028884679</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="26" t="inlineStr">
         <is>
-          <t>Beta = 0.0001123054 / 0.0041268572 = 0.027213</t>
+          <t>Beta = 0.0001690777 / 0.0028884679 = 0.058535</t>
         </is>
       </c>
     </row>
@@ -10579,7 +10441,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rp = 15.5163%</t>
+          <t>Rp = 15.7932%</t>
         </is>
       </c>
     </row>
@@ -10593,42 +10455,42 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rm = 12.5723%</t>
+          <t>Rm = 7.2392%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>β = 0.027213</t>
+          <t>β = 0.058535</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="30" t="inlineStr">
         <is>
-          <t>Alpha = 15.5163% - [3.57% + 0.0272 × (12.5723% - 3.57%)]</t>
+          <t>Alpha = 15.7932% - [3.57% + 0.0585 × (7.2392% - 3.57%)]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="30" t="inlineStr">
         <is>
-          <t>Step 1: 15.5163% - [3.57% + 0.0272 × 9.0023%]</t>
+          <t>Step 1: 15.7932% - [3.57% + 0.0585 × 3.6692%]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="30" t="inlineStr">
         <is>
-          <t>Step 2: 15.5163% - [3.57% + 0.2450%]</t>
+          <t>Step 2: 15.7932% - [3.57% + 0.2148%]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="26" t="inlineStr">
         <is>
-          <t>Result: 11.7014%</t>
+          <t>Result: 12.0084%</t>
         </is>
       </c>
     </row>
@@ -10642,14 +10504,14 @@
     <row r="25">
       <c r="B25" s="16" t="inlineStr">
         <is>
-          <t>Beta: 0.0272</t>
+          <t>Beta: 0.0585</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="45" t="inlineStr">
         <is>
-          <t>Alpha: 11.70%</t>
+          <t>Alpha: 12.01%</t>
         </is>
       </c>
     </row>
